--- a/WebContent/hsw/상품 데이터.xlsx
+++ b/WebContent/hsw/상품 데이터.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="443">
   <si>
     <t>컴퓨터 부품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1473,6 +1474,234 @@
   </si>
   <si>
     <t>상품설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴부품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1480,6 +1709,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1528,10 +1760,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1838,7 +2071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -3621,4 +3854,441 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>386</v>
+      </c>
+      <c r="M1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N2" t="s">
+        <v>415</v>
+      </c>
+      <c r="O2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>429</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>416</v>
+      </c>
+      <c r="O3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>430</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>387</v>
+      </c>
+      <c r="O4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>431</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>434</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>432</v>
+      </c>
+      <c r="M6" t="s">
+        <v>418</v>
+      </c>
+      <c r="N6" t="s">
+        <v>419</v>
+      </c>
+      <c r="O6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>387</v>
+      </c>
+      <c r="J14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" t="s">
+        <v>383</v>
+      </c>
+      <c r="J15" t="s">
+        <v>423</v>
+      </c>
+      <c r="K15" t="s">
+        <v>424</v>
+      </c>
+      <c r="L15" t="s">
+        <v>425</v>
+      </c>
+      <c r="M15" t="s">
+        <v>426</v>
+      </c>
+      <c r="N15" t="s">
+        <v>408</v>
+      </c>
+      <c r="O15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17" t="s">
+        <v>393</v>
+      </c>
+      <c r="D17">
+        <v>1500</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" t="s">
+        <v>394</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>43832</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/WebContent/hsw/상품 데이터.xlsx
+++ b/WebContent/hsw/상품 데이터.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="451">
   <si>
     <t>컴퓨터 부품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1702,6 +1703,38 @@
   </si>
   <si>
     <t>컴부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품 및 조립 컴퓨터를 판매하는 사이트를 운영한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터는 컴퓨터 부품으로 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 컴퓨터 부품으로 컴퓨터 견적을 미리 작성할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터는 다양한 용도로 나누어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격을 보여준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리 조립</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3861,7 +3894,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4142,86 +4175,103 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>389</v>
-      </c>
-      <c r="C16" t="s">
-        <v>392</v>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D17">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D18">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>408</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>409</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>200</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>1</v>
       </c>
     </row>
@@ -4284,6 +4334,61 @@
       </c>
       <c r="D29" s="3">
         <v>43832</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/WebContent/hsw/상품 데이터.xlsx
+++ b/WebContent/hsw/상품 데이터.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="459">
   <si>
     <t>컴퓨터 부품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1622,15 +1622,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>견적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
+    <t>m01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품 및 조립 컴퓨터를 판매하는 사이트를 운영한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터는 컴퓨터 부품으로 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 컴퓨터 부품으로 컴퓨터 견적을 미리 작성할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터는 다양한 용도로 나누어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격을 보여준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리 조립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호(시퀀스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1638,103 +1738,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ssd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>썸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴부품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터 부품 및 조립 컴퓨터를 판매하는 사이트를 운영한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립 컴퓨터는 컴퓨터 부품으로 만든다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원은 컴퓨터 부품으로 컴퓨터 견적을 미리 작성할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립 컴퓨터는 다양한 용도로 나누어진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격을 보여준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미리 조립</t>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동견적1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매컴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴 상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3894,7 +3926,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3919,7 +3951,7 @@
         <v>403</v>
       </c>
       <c r="C2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -3937,7 +3969,7 @@
         <v>383</v>
       </c>
       <c r="I2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M2" t="s">
         <v>294</v>
@@ -3957,7 +3989,7 @@
         <v>404</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3975,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -3995,7 +4027,7 @@
         <v>405</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4013,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -4033,7 +4065,7 @@
         <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4051,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -4068,10 +4100,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4083,13 +4115,13 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M6" t="s">
         <v>418</v>
@@ -4106,10 +4138,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4121,13 +4153,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -4135,7 +4167,7 @@
         <v>387</v>
       </c>
       <c r="J14" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -4155,22 +4187,19 @@
         <v>383</v>
       </c>
       <c r="J15" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="K15" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="L15" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="M15" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="N15" t="s">
-        <v>408</v>
-      </c>
-      <c r="O15" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -4189,8 +4218,20 @@
       <c r="E16">
         <v>9999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>456</v>
+      </c>
+      <c r="L16" t="s">
+        <v>450</v>
+      </c>
+      <c r="M16" t="s">
+        <v>451</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4206,8 +4247,17 @@
       <c r="E17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>456</v>
+      </c>
+      <c r="L17" t="s">
+        <v>452</v>
+      </c>
+      <c r="M17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4223,8 +4273,17 @@
       <c r="E18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>456</v>
+      </c>
+      <c r="L18" t="s">
+        <v>453</v>
+      </c>
+      <c r="M18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4240,8 +4299,11 @@
       <c r="E19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4257,8 +4319,11 @@
       <c r="E20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -4274,13 +4339,21 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>294</v>
       </c>
@@ -4294,7 +4367,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4308,7 +4381,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -4322,7 +4395,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -4355,40 +4428,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/WebContent/hsw/상품 데이터.xlsx
+++ b/WebContent/hsw/상품 데이터.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="517">
   <si>
     <t>컴퓨터 부품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,635 +1138,804 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu02</t>
+  </si>
+  <si>
+    <t>gpu03</t>
+  </si>
+  <si>
+    <t>gpu04</t>
+  </si>
+  <si>
+    <t>gpu05</t>
+  </si>
+  <si>
+    <t>gpu06</t>
+  </si>
+  <si>
+    <t>gpu07</t>
+  </si>
+  <si>
+    <t>gpu08</t>
+  </si>
+  <si>
+    <t>gpu09</t>
+  </si>
+  <si>
+    <t>gpu10</t>
+  </si>
+  <si>
+    <t>gpu11</t>
+  </si>
+  <si>
+    <t>gpu12</t>
+  </si>
+  <si>
+    <t>gpu13</t>
+  </si>
+  <si>
+    <t>gpu14</t>
+  </si>
+  <si>
+    <t>gpu15</t>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크 용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크 용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정격 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 전원커넥터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이스 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD 전용 베이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms02</t>
+  </si>
+  <si>
+    <t>ms03</t>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품 및 조립 컴퓨터를 판매하는 사이트를 운영한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터는 컴퓨터 부품으로 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 컴퓨터 부품으로 컴퓨터 견적을 미리 작성할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터는 다양한 용도로 나누어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격을 보여준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리 조립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호(시퀀스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동견적1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매컴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate Maxtor Z1 SSD(240GB)</t>
+  </si>
+  <si>
+    <t>Seagate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5'' SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 바라쿠다 120 SSD(1TB)</t>
+  </si>
+  <si>
+    <t>1TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 바라쿠다 120 SSD(2TB)</t>
+  </si>
+  <si>
+    <t>Seagate 바라쿠다 120 SSD(250GB)</t>
+  </si>
+  <si>
+    <t>Seagate 바라쿠다 120 SSD(500GB)</t>
+  </si>
+  <si>
+    <t>Seagate 파이어쿠다 520 M.2 SSD(1TB)</t>
+  </si>
+  <si>
+    <t>Seagate 파이어쿠다 520 M.2 SSD(500GB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue 3D SSD(1TB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue 3D SSD(250GB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue 3D SSD(500GB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue SN550 M.2 2280(1TB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue SN550 M.2 2280(500GB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Green SSD(120GB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Green SSD(240GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial BX500 (120GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial BX500 (240GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial MX500 (1TB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial MX500 (250GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial MX500 (500GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial MX500 M.2 2280 (250GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial P1 M.2 2280 (500GB)</t>
+  </si>
+  <si>
+    <t>삼성전자 860 EVO(1TB)</t>
+  </si>
+  <si>
+    <t>2TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자 860 EVO(250GB)</t>
+  </si>
+  <si>
+    <t>삼성전자 860 EVO(500GB)</t>
+  </si>
+  <si>
+    <t>삼성전자 970 EVO M.2 2280(1TB)</t>
+  </si>
+  <si>
+    <t>삼성전자 970 EVO M.2 2280(500GB)</t>
+  </si>
+  <si>
+    <t>삼성전자 970 EVO Plus M.2 2280(1TB)</t>
+  </si>
+  <si>
+    <t>삼성전자 970 EVO Plus M.2 2280(500GB)</t>
+  </si>
+  <si>
     <t>mm02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mm03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mm04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mm05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mm06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mm07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mm08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mm09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mm10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mm11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpu01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpu02</t>
-  </si>
-  <si>
-    <t>gpu03</t>
-  </si>
-  <si>
-    <t>gpu04</t>
-  </si>
-  <si>
-    <t>gpu05</t>
-  </si>
-  <si>
-    <t>gpu06</t>
-  </si>
-  <si>
-    <t>gpu07</t>
-  </si>
-  <si>
-    <t>gpu08</t>
-  </si>
-  <si>
-    <t>gpu09</t>
-  </si>
-  <si>
-    <t>gpu10</t>
-  </si>
-  <si>
-    <t>gpu11</t>
-  </si>
-  <si>
-    <t>gpu12</t>
-  </si>
-  <si>
-    <t>gpu13</t>
-  </si>
-  <si>
-    <t>gpu14</t>
-  </si>
-  <si>
-    <t>gpu15</t>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스크 용량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스크 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스크 용량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정격 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 전원커넥터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이스 크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSD 전용 베이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms02</t>
-  </si>
-  <si>
-    <t>ms03</t>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립 컴퓨터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터 부품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립 컴퓨터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴부품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터 부품 및 조립 컴퓨터를 판매하는 사이트를 운영한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립 컴퓨터는 컴퓨터 부품으로 만든다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원은 컴퓨터 부품으로 컴퓨터 견적을 미리 작성할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립 컴퓨터는 다양한 용도로 나누어진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격을 보여준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미리 조립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호(시퀀스)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동견적1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매컴1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴 상품</t>
+  </si>
+  <si>
+    <t>mm12</t>
+  </si>
+  <si>
+    <t>mm13</t>
+  </si>
+  <si>
+    <t>mm14</t>
+  </si>
+  <si>
+    <t>mm15</t>
+  </si>
+  <si>
+    <t>mm16</t>
+  </si>
+  <si>
+    <t>mm17</t>
+  </si>
+  <si>
+    <t>mm18</t>
+  </si>
+  <si>
+    <t>mm19</t>
+  </si>
+  <si>
+    <t>mm20</t>
+  </si>
+  <si>
+    <t>mm21</t>
+  </si>
+  <si>
+    <t>mm22</t>
+  </si>
+  <si>
+    <t>mm23</t>
+  </si>
+  <si>
+    <t>mm24</t>
+  </si>
+  <si>
+    <t>mm25</t>
+  </si>
+  <si>
+    <t>mm26</t>
+  </si>
+  <si>
+    <t>mm27</t>
+  </si>
+  <si>
+    <t>mm28</t>
+  </si>
+  <si>
+    <t>mm29</t>
+  </si>
+  <si>
+    <t>mm30</t>
+  </si>
+  <si>
+    <t>mm31</t>
+  </si>
+  <si>
+    <t>mm32</t>
+  </si>
+  <si>
+    <t>GeIL DDR4 16G PC4-25600 CL16 EVO X II AMD Gray RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>GeIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeIL DDR4 16G PC4-25600 CL16 SUPER LUCE RGB Sync 블랙 (8Gx2)</t>
+  </si>
+  <si>
+    <t>TeamGroup DDR4 8G PC4-25600 Elite</t>
+  </si>
+  <si>
+    <t>TeamGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 8G PC4-21300 CL16 Delta RGB 화이트</t>
+  </si>
+  <si>
+    <t>TeamGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2134,15 +2303,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T210"/>
+  <dimension ref="A1:T247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -2328,16 +2498,16 @@
         <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="J10" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="K10" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="L10" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2554,16 +2724,16 @@
         <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="J39" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="K39" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2788,16 +2958,16 @@
         <v>235</v>
       </c>
       <c r="H68" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="I68" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="J68" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="K68" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -2993,924 +3163,1606 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="H94" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="I94" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="J94" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>293</v>
       </c>
+      <c r="B95" t="s">
+        <v>509</v>
+      </c>
+      <c r="C95" t="s">
+        <v>511</v>
+      </c>
+      <c r="D95">
+        <v>3200</v>
+      </c>
+      <c r="E95">
+        <v>16</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <v>127460</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+      <c r="B96" t="s">
+        <v>512</v>
+      </c>
+      <c r="C96" t="s">
+        <v>510</v>
+      </c>
+      <c r="D96">
+        <v>32</v>
+      </c>
+      <c r="E96">
+        <v>16</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>122150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="B97" t="s">
+        <v>513</v>
+      </c>
+      <c r="C97" t="s">
+        <v>514</v>
+      </c>
+      <c r="D97">
+        <v>3200</v>
+      </c>
+      <c r="E97">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>49720</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+      <c r="B98" t="s">
+        <v>515</v>
+      </c>
+      <c r="C98" t="s">
+        <v>516</v>
+      </c>
+      <c r="D98">
+        <v>2666</v>
+      </c>
+      <c r="E98">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>58420</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" t="s">
-        <v>130</v>
-      </c>
-      <c r="C108" t="s">
-        <v>131</v>
-      </c>
-      <c r="D108" t="s">
-        <v>132</v>
-      </c>
-      <c r="E108" t="s">
-        <v>133</v>
-      </c>
-      <c r="F108" t="s">
-        <v>134</v>
-      </c>
-      <c r="G108" t="s">
-        <v>135</v>
-      </c>
-      <c r="H108" t="s">
-        <v>136</v>
-      </c>
-      <c r="I108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" t="s">
-        <v>139</v>
-      </c>
-      <c r="C109" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>307</v>
-      </c>
-      <c r="B112" t="s">
-        <v>295</v>
-      </c>
-      <c r="C112" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" t="s">
-        <v>142</v>
-      </c>
-      <c r="E112" t="s">
-        <v>382</v>
-      </c>
-      <c r="F112" t="s">
-        <v>383</v>
-      </c>
-      <c r="G112" t="s">
-        <v>385</v>
-      </c>
-      <c r="H112" t="s">
-        <v>384</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>308</v>
+        <v>495</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>309</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>310</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>311</v>
+        <v>498</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>312</v>
+        <v>499</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>313</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>314</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>315</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>316</v>
+        <v>503</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>317</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>318</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>319</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>320</v>
+        <v>507</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" t="s">
+        <v>132</v>
+      </c>
+      <c r="E129" t="s">
+        <v>133</v>
+      </c>
+      <c r="F129" t="s">
+        <v>134</v>
+      </c>
+      <c r="G129" t="s">
+        <v>135</v>
+      </c>
+      <c r="H129" t="s">
+        <v>136</v>
+      </c>
+      <c r="I129" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>297</v>
+      </c>
+      <c r="B133" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>142</v>
+      </c>
+      <c r="E133" t="s">
+        <v>361</v>
+      </c>
+      <c r="F133" t="s">
+        <v>362</v>
+      </c>
+      <c r="G133" t="s">
+        <v>364</v>
+      </c>
+      <c r="H133" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>146</v>
+      </c>
+      <c r="C151" t="s">
+        <v>147</v>
+      </c>
+      <c r="D151" t="s">
+        <v>148</v>
+      </c>
+      <c r="E151" t="s">
+        <v>149</v>
+      </c>
+      <c r="F151" t="s">
+        <v>150</v>
+      </c>
+      <c r="G151" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B152" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>152</v>
+      </c>
+      <c r="D152" t="s">
+        <v>153</v>
+      </c>
+      <c r="E152" t="s">
+        <v>154</v>
+      </c>
+      <c r="F152" t="s">
+        <v>155</v>
+      </c>
+      <c r="G152" t="s">
+        <v>156</v>
+      </c>
+      <c r="H152" t="s">
+        <v>157</v>
+      </c>
+      <c r="I152" t="s">
+        <v>158</v>
+      </c>
+      <c r="J152" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" t="s">
+        <v>53</v>
+      </c>
+      <c r="C153" t="s">
+        <v>160</v>
+      </c>
+      <c r="D153" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>297</v>
+      </c>
+      <c r="B156" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>314</v>
+      </c>
+      <c r="E156" t="s">
+        <v>315</v>
+      </c>
+      <c r="F156" t="s">
+        <v>361</v>
+      </c>
+      <c r="G156" t="s">
+        <v>362</v>
+      </c>
+      <c r="H156" t="s">
+        <v>364</v>
+      </c>
+      <c r="I156" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>438</v>
+      </c>
+      <c r="C157" t="s">
+        <v>439</v>
+      </c>
+      <c r="D157" t="s">
+        <v>440</v>
+      </c>
+      <c r="E157" t="s">
+        <v>441</v>
+      </c>
+      <c r="F157">
+        <v>54190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>442</v>
+      </c>
+      <c r="C158" t="s">
+        <v>439</v>
+      </c>
+      <c r="D158" t="s">
+        <v>443</v>
+      </c>
+      <c r="E158" t="s">
+        <v>441</v>
+      </c>
+      <c r="F158">
+        <v>184130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>444</v>
+      </c>
+      <c r="C159" t="s">
+        <v>439</v>
+      </c>
+      <c r="D159" t="s">
+        <v>464</v>
+      </c>
+      <c r="E159" t="s">
+        <v>441</v>
+      </c>
+      <c r="F159">
+        <v>356760</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>445</v>
+      </c>
+      <c r="C160" t="s">
+        <v>439</v>
+      </c>
+      <c r="D160" t="s">
+        <v>465</v>
+      </c>
+      <c r="E160" t="s">
+        <v>441</v>
+      </c>
+      <c r="F160">
+        <v>68490</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>446</v>
+      </c>
+      <c r="C161" t="s">
+        <v>439</v>
+      </c>
+      <c r="D161" t="s">
+        <v>466</v>
+      </c>
+      <c r="E161" t="s">
+        <v>441</v>
+      </c>
+      <c r="F161">
+        <v>102460</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>447</v>
+      </c>
+      <c r="C162" t="s">
+        <v>439</v>
+      </c>
+      <c r="D162" t="s">
+        <v>443</v>
+      </c>
+      <c r="E162" t="s">
+        <v>471</v>
+      </c>
+      <c r="F162">
+        <v>389000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" t="s">
+        <v>448</v>
+      </c>
+      <c r="C163" t="s">
+        <v>439</v>
+      </c>
+      <c r="D163" t="s">
+        <v>466</v>
+      </c>
+      <c r="E163" t="s">
+        <v>471</v>
+      </c>
+      <c r="F163">
+        <v>199000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>449</v>
+      </c>
+      <c r="C164" t="s">
+        <v>148</v>
+      </c>
+      <c r="D164" t="s">
+        <v>443</v>
+      </c>
+      <c r="E164" t="s">
+        <v>441</v>
+      </c>
+      <c r="F164">
+        <v>184360</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
+        <v>450</v>
+      </c>
+      <c r="C165" t="s">
+        <v>148</v>
+      </c>
+      <c r="D165" t="s">
+        <v>465</v>
+      </c>
+      <c r="E165" t="s">
+        <v>441</v>
+      </c>
+      <c r="F165">
+        <v>67040</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>451</v>
+      </c>
+      <c r="C166" t="s">
+        <v>148</v>
+      </c>
+      <c r="D166" t="s">
+        <v>466</v>
+      </c>
+      <c r="E166" t="s">
+        <v>441</v>
+      </c>
+      <c r="F166">
+        <v>100560</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>452</v>
+      </c>
+      <c r="C167" t="s">
+        <v>148</v>
+      </c>
+      <c r="D167" t="s">
+        <v>443</v>
+      </c>
+      <c r="E167" t="s">
+        <v>471</v>
+      </c>
+      <c r="F167">
+        <v>184360</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>453</v>
+      </c>
+      <c r="C168" t="s">
+        <v>148</v>
+      </c>
+      <c r="D168" t="s">
+        <v>466</v>
+      </c>
+      <c r="E168" t="s">
+        <v>471</v>
+      </c>
+      <c r="F168">
+        <v>105030</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>13</v>
+      </c>
+      <c r="B169" t="s">
+        <v>454</v>
+      </c>
+      <c r="C169" t="s">
+        <v>148</v>
+      </c>
+      <c r="D169" t="s">
+        <v>467</v>
+      </c>
+      <c r="E169" t="s">
+        <v>441</v>
+      </c>
+      <c r="F169">
+        <v>36870</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
+        <v>455</v>
+      </c>
+      <c r="C170" t="s">
+        <v>148</v>
+      </c>
+      <c r="D170" t="s">
+        <v>468</v>
+      </c>
+      <c r="E170" t="s">
+        <v>441</v>
+      </c>
+      <c r="F170">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>15</v>
+      </c>
+      <c r="B171" t="s">
+        <v>456</v>
+      </c>
+      <c r="C171" t="s">
+        <v>112</v>
+      </c>
+      <c r="D171" t="s">
+        <v>469</v>
+      </c>
+      <c r="E171" t="s">
+        <v>441</v>
+      </c>
+      <c r="F171">
+        <v>37990</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>16</v>
+      </c>
+      <c r="B172" t="s">
+        <v>457</v>
+      </c>
+      <c r="C172" t="s">
+        <v>112</v>
+      </c>
+      <c r="D172" t="s">
+        <v>470</v>
+      </c>
+      <c r="E172" t="s">
+        <v>441</v>
+      </c>
+      <c r="F172">
+        <v>55870</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>17</v>
+      </c>
+      <c r="B173" t="s">
+        <v>458</v>
+      </c>
+      <c r="C173" t="s">
+        <v>112</v>
+      </c>
+      <c r="D173" t="s">
+        <v>443</v>
+      </c>
+      <c r="E173" t="s">
+        <v>441</v>
+      </c>
+      <c r="F173">
+        <v>179890</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>18</v>
+      </c>
+      <c r="B174" t="s">
+        <v>459</v>
+      </c>
+      <c r="C174" t="s">
+        <v>112</v>
+      </c>
+      <c r="D174" t="s">
+        <v>465</v>
+      </c>
+      <c r="E174" t="s">
+        <v>441</v>
+      </c>
+      <c r="F174">
+        <v>63690</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>19</v>
+      </c>
+      <c r="B175" t="s">
+        <v>460</v>
+      </c>
+      <c r="C175" t="s">
+        <v>112</v>
+      </c>
+      <c r="D175" t="s">
+        <v>466</v>
+      </c>
+      <c r="E175" t="s">
+        <v>441</v>
+      </c>
+      <c r="F175">
+        <v>94970</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>20</v>
+      </c>
+      <c r="B176" t="s">
+        <v>461</v>
+      </c>
+      <c r="C176" t="s">
+        <v>112</v>
+      </c>
+      <c r="D176" t="s">
+        <v>465</v>
+      </c>
+      <c r="E176" t="s">
+        <v>471</v>
+      </c>
+      <c r="F176">
+        <v>61450</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>462</v>
+      </c>
+      <c r="C177" t="s">
+        <v>112</v>
+      </c>
+      <c r="D177" t="s">
+        <v>466</v>
+      </c>
+      <c r="E177" t="s">
+        <v>471</v>
+      </c>
+      <c r="F177">
+        <v>98320</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>22</v>
+      </c>
+      <c r="B178" t="s">
+        <v>463</v>
+      </c>
+      <c r="C178" t="s">
+        <v>111</v>
+      </c>
+      <c r="D178" t="s">
+        <v>443</v>
+      </c>
+      <c r="E178" t="s">
+        <v>441</v>
+      </c>
+      <c r="F178">
+        <v>244690</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>23</v>
+      </c>
+      <c r="B179" t="s">
+        <v>472</v>
+      </c>
+      <c r="C179" t="s">
+        <v>111</v>
+      </c>
+      <c r="D179" t="s">
+        <v>465</v>
+      </c>
+      <c r="E179" t="s">
+        <v>441</v>
+      </c>
+      <c r="F179">
+        <v>75980</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>24</v>
+      </c>
+      <c r="B180" t="s">
+        <v>473</v>
+      </c>
+      <c r="C180" t="s">
+        <v>111</v>
+      </c>
+      <c r="D180" t="s">
+        <v>466</v>
+      </c>
+      <c r="E180" t="s">
+        <v>441</v>
+      </c>
+      <c r="F180">
+        <v>122910</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>25</v>
+      </c>
+      <c r="B181" t="s">
+        <v>474</v>
+      </c>
+      <c r="C181" t="s">
+        <v>111</v>
+      </c>
+      <c r="D181" t="s">
+        <v>443</v>
+      </c>
+      <c r="E181" t="s">
+        <v>471</v>
+      </c>
+      <c r="F181">
+        <v>290500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>26</v>
+      </c>
+      <c r="B182" t="s">
+        <v>475</v>
+      </c>
+      <c r="C182" t="s">
+        <v>111</v>
+      </c>
+      <c r="D182" t="s">
+        <v>466</v>
+      </c>
+      <c r="E182" t="s">
+        <v>471</v>
+      </c>
+      <c r="F182">
+        <v>149720</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>27</v>
+      </c>
+      <c r="B183" t="s">
+        <v>476</v>
+      </c>
+      <c r="C183" t="s">
+        <v>111</v>
+      </c>
+      <c r="D183" t="s">
+        <v>443</v>
+      </c>
+      <c r="E183" t="s">
+        <v>471</v>
+      </c>
+      <c r="F183">
+        <v>340780</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>28</v>
+      </c>
+      <c r="B184" t="s">
+        <v>477</v>
+      </c>
+      <c r="C184" t="s">
+        <v>111</v>
+      </c>
+      <c r="D184" t="s">
+        <v>466</v>
+      </c>
+      <c r="E184" t="s">
+        <v>471</v>
+      </c>
+      <c r="F184">
+        <v>178770</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>164</v>
+      </c>
+      <c r="C187" t="s">
+        <v>165</v>
+      </c>
+      <c r="D187" t="s">
+        <v>166</v>
+      </c>
+      <c r="E187" t="s">
+        <v>167</v>
+      </c>
+      <c r="F187" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B188" t="s">
+        <v>169</v>
+      </c>
+      <c r="C188" t="s">
+        <v>170</v>
+      </c>
+      <c r="D188" t="s">
+        <v>171</v>
+      </c>
+      <c r="E188" t="s">
+        <v>172</v>
+      </c>
+      <c r="F188" t="s">
+        <v>173</v>
+      </c>
+      <c r="G188" t="s">
+        <v>174</v>
+      </c>
+      <c r="H188" t="s">
+        <v>175</v>
+      </c>
+      <c r="I188" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B189" t="s">
+        <v>177</v>
+      </c>
+      <c r="C189" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>297</v>
+      </c>
+      <c r="B191" t="s">
+        <v>316</v>
+      </c>
+      <c r="C191" t="s">
+        <v>107</v>
+      </c>
+      <c r="D191" t="s">
+        <v>317</v>
+      </c>
+      <c r="E191" t="s">
+        <v>318</v>
+      </c>
+      <c r="F191" t="s">
+        <v>361</v>
+      </c>
+      <c r="G191" t="s">
+        <v>362</v>
+      </c>
+      <c r="H191" t="s">
+        <v>364</v>
+      </c>
+      <c r="I191" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B130" t="s">
-        <v>146</v>
-      </c>
-      <c r="C130" t="s">
-        <v>147</v>
-      </c>
-      <c r="D130" t="s">
-        <v>148</v>
-      </c>
-      <c r="E130" t="s">
-        <v>149</v>
-      </c>
-      <c r="F130" t="s">
-        <v>150</v>
-      </c>
-      <c r="G130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B131" t="s">
-        <v>151</v>
-      </c>
-      <c r="C131" t="s">
-        <v>152</v>
-      </c>
-      <c r="D131" t="s">
-        <v>153</v>
-      </c>
-      <c r="E131" t="s">
-        <v>154</v>
-      </c>
-      <c r="F131" t="s">
-        <v>155</v>
-      </c>
-      <c r="G131" t="s">
-        <v>156</v>
-      </c>
-      <c r="H131" t="s">
-        <v>157</v>
-      </c>
-      <c r="I131" t="s">
-        <v>158</v>
-      </c>
-      <c r="J131" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B132" t="s">
-        <v>53</v>
-      </c>
-      <c r="C132" t="s">
-        <v>160</v>
-      </c>
-      <c r="D132" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>307</v>
-      </c>
-      <c r="B135" t="s">
-        <v>323</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B204" t="s">
+        <v>180</v>
+      </c>
+      <c r="C204" t="s">
+        <v>181</v>
+      </c>
+      <c r="D204" t="s">
+        <v>182</v>
+      </c>
+      <c r="E204" t="s">
+        <v>183</v>
+      </c>
+      <c r="F204" t="s">
+        <v>184</v>
+      </c>
+      <c r="G204" t="s">
+        <v>185</v>
+      </c>
+      <c r="H204" t="s">
+        <v>186</v>
+      </c>
+      <c r="I204" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B205" t="s">
+        <v>189</v>
+      </c>
+      <c r="C205" t="s">
+        <v>190</v>
+      </c>
+      <c r="D205" t="s">
+        <v>191</v>
+      </c>
+      <c r="E205" t="s">
+        <v>192</v>
+      </c>
+      <c r="F205" t="s">
+        <v>193</v>
+      </c>
+      <c r="G205" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B206" t="s">
+        <v>196</v>
+      </c>
+      <c r="C206" t="s">
+        <v>197</v>
+      </c>
+      <c r="D206" t="s">
+        <v>99</v>
+      </c>
+      <c r="E206" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>297</v>
+      </c>
+      <c r="B208" t="s">
+        <v>295</v>
+      </c>
+      <c r="C208" t="s">
         <v>6</v>
       </c>
-      <c r="D135" t="s">
-        <v>324</v>
-      </c>
-      <c r="E135" t="s">
-        <v>325</v>
-      </c>
-      <c r="F135" t="s">
-        <v>382</v>
-      </c>
-      <c r="G135" t="s">
-        <v>383</v>
-      </c>
-      <c r="H135" t="s">
-        <v>385</v>
-      </c>
-      <c r="I135" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="D208" t="s">
+        <v>333</v>
+      </c>
+      <c r="E208" t="s">
+        <v>334</v>
+      </c>
+      <c r="F208" t="s">
+        <v>361</v>
+      </c>
+      <c r="G208" t="s">
+        <v>362</v>
+      </c>
+      <c r="H208" t="s">
+        <v>364</v>
+      </c>
+      <c r="I208" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>200</v>
+      </c>
+      <c r="C222" t="s">
+        <v>187</v>
+      </c>
+      <c r="D222" t="s">
+        <v>201</v>
+      </c>
+      <c r="E222" t="s">
+        <v>202</v>
+      </c>
+      <c r="F222" t="s">
+        <v>203</v>
+      </c>
+      <c r="G222" t="s">
+        <v>204</v>
+      </c>
+      <c r="H222" t="s">
+        <v>205</v>
+      </c>
+      <c r="I222" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B223" t="s">
+        <v>208</v>
+      </c>
+      <c r="C223" t="s">
+        <v>209</v>
+      </c>
+      <c r="D223" t="s">
+        <v>210</v>
+      </c>
+      <c r="E223" t="s">
+        <v>211</v>
+      </c>
+      <c r="F223" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B224" t="s">
+        <v>214</v>
+      </c>
+      <c r="C224" t="s">
+        <v>215</v>
+      </c>
+      <c r="D224" t="s">
+        <v>216</v>
+      </c>
+      <c r="E224" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C225" t="s">
+        <v>220</v>
+      </c>
+      <c r="D225" t="s">
+        <v>221</v>
+      </c>
+      <c r="E225" t="s">
+        <v>222</v>
+      </c>
+      <c r="F225" t="s">
+        <v>223</v>
+      </c>
+      <c r="G225" t="s">
+        <v>224</v>
+      </c>
+      <c r="H225" t="s">
+        <v>225</v>
+      </c>
+      <c r="I225" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>297</v>
+      </c>
+      <c r="B227" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="C227" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="D227" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="E227" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" t="s">
-        <v>164</v>
-      </c>
-      <c r="C150" t="s">
-        <v>165</v>
-      </c>
-      <c r="D150" t="s">
-        <v>166</v>
-      </c>
-      <c r="E150" t="s">
-        <v>167</v>
-      </c>
-      <c r="F150" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B151" t="s">
-        <v>169</v>
-      </c>
-      <c r="C151" t="s">
-        <v>170</v>
-      </c>
-      <c r="D151" t="s">
-        <v>171</v>
-      </c>
-      <c r="E151" t="s">
-        <v>172</v>
-      </c>
-      <c r="F151" t="s">
-        <v>173</v>
-      </c>
-      <c r="G151" t="s">
-        <v>174</v>
-      </c>
-      <c r="H151" t="s">
-        <v>175</v>
-      </c>
-      <c r="I151" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B152" t="s">
-        <v>177</v>
-      </c>
-      <c r="C152" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>307</v>
-      </c>
-      <c r="B154" t="s">
-        <v>337</v>
-      </c>
-      <c r="C154" t="s">
-        <v>107</v>
-      </c>
-      <c r="D154" t="s">
-        <v>338</v>
-      </c>
-      <c r="E154" t="s">
-        <v>339</v>
-      </c>
-      <c r="F154" t="s">
-        <v>382</v>
-      </c>
-      <c r="G154" t="s">
-        <v>383</v>
-      </c>
-      <c r="H154" t="s">
-        <v>385</v>
-      </c>
-      <c r="I154" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="F227" t="s">
+        <v>218</v>
+      </c>
+      <c r="G227" t="s">
+        <v>361</v>
+      </c>
+      <c r="H227" t="s">
+        <v>362</v>
+      </c>
+      <c r="I227" t="s">
+        <v>364</v>
+      </c>
+      <c r="J227" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B167" t="s">
-        <v>180</v>
-      </c>
-      <c r="C167" t="s">
-        <v>181</v>
-      </c>
-      <c r="D167" t="s">
-        <v>182</v>
-      </c>
-      <c r="E167" t="s">
-        <v>183</v>
-      </c>
-      <c r="F167" t="s">
-        <v>184</v>
-      </c>
-      <c r="G167" t="s">
-        <v>185</v>
-      </c>
-      <c r="H167" t="s">
-        <v>186</v>
-      </c>
-      <c r="I167" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B168" t="s">
-        <v>189</v>
-      </c>
-      <c r="C168" t="s">
-        <v>190</v>
-      </c>
-      <c r="D168" t="s">
-        <v>191</v>
-      </c>
-      <c r="E168" t="s">
-        <v>192</v>
-      </c>
-      <c r="F168" t="s">
-        <v>193</v>
-      </c>
-      <c r="G168" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B169" t="s">
-        <v>196</v>
-      </c>
-      <c r="C169" t="s">
-        <v>197</v>
-      </c>
-      <c r="D169" t="s">
-        <v>99</v>
-      </c>
-      <c r="E169" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>307</v>
-      </c>
-      <c r="B171" t="s">
-        <v>295</v>
-      </c>
-      <c r="C171" t="s">
-        <v>6</v>
-      </c>
-      <c r="D171" t="s">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>354</v>
       </c>
-      <c r="E171" t="s">
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>355</v>
       </c>
-      <c r="F171" t="s">
-        <v>382</v>
-      </c>
-      <c r="G171" t="s">
-        <v>383</v>
-      </c>
-      <c r="H171" t="s">
-        <v>385</v>
-      </c>
-      <c r="I171" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B241" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>297</v>
+      </c>
+      <c r="B244" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="B245" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="B246" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" t="s">
-        <v>200</v>
-      </c>
-      <c r="C185" t="s">
-        <v>187</v>
-      </c>
-      <c r="D185" t="s">
-        <v>201</v>
-      </c>
-      <c r="E185" t="s">
-        <v>202</v>
-      </c>
-      <c r="F185" t="s">
-        <v>203</v>
-      </c>
-      <c r="G185" t="s">
-        <v>204</v>
-      </c>
-      <c r="H185" t="s">
-        <v>205</v>
-      </c>
-      <c r="I185" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B186" t="s">
-        <v>208</v>
-      </c>
-      <c r="C186" t="s">
-        <v>209</v>
-      </c>
-      <c r="D186" t="s">
-        <v>210</v>
-      </c>
-      <c r="E186" t="s">
-        <v>211</v>
-      </c>
-      <c r="F186" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B187" t="s">
-        <v>214</v>
-      </c>
-      <c r="C187" t="s">
-        <v>215</v>
-      </c>
-      <c r="D187" t="s">
-        <v>216</v>
-      </c>
-      <c r="E187" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B188" t="s">
-        <v>219</v>
-      </c>
-      <c r="C188" t="s">
-        <v>220</v>
-      </c>
-      <c r="D188" t="s">
-        <v>221</v>
-      </c>
-      <c r="E188" t="s">
-        <v>222</v>
-      </c>
-      <c r="F188" t="s">
-        <v>223</v>
-      </c>
-      <c r="G188" t="s">
-        <v>224</v>
-      </c>
-      <c r="H188" t="s">
-        <v>225</v>
-      </c>
-      <c r="I188" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>307</v>
-      </c>
-      <c r="B190" t="s">
-        <v>350</v>
-      </c>
-      <c r="C190" t="s">
-        <v>351</v>
-      </c>
-      <c r="D190" t="s">
-        <v>352</v>
-      </c>
-      <c r="E190" t="s">
-        <v>353</v>
-      </c>
-      <c r="F190" t="s">
-        <v>218</v>
-      </c>
-      <c r="G190" t="s">
-        <v>382</v>
-      </c>
-      <c r="H190" t="s">
-        <v>383</v>
-      </c>
-      <c r="I190" t="s">
-        <v>385</v>
-      </c>
-      <c r="J190" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B204" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B205" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B206" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>307</v>
-      </c>
-      <c r="B207" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>379</v>
-      </c>
-      <c r="B208" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>380</v>
-      </c>
-      <c r="B209" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>381</v>
-      </c>
-      <c r="B210" t="s">
+      <c r="B247" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3925,7 +4777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -3937,48 +4789,48 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="M1" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="F2" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G2" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="H2" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="I2" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="M2" t="s">
         <v>294</v>
       </c>
       <c r="N2" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="O2" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3986,10 +4838,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="C3" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4001,22 +4853,22 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="O3" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4024,10 +4876,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C4" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4039,22 +4891,22 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="O4" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -4062,10 +4914,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C5" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4077,13 +4929,13 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -4092,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -4100,10 +4952,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4115,22 +4967,22 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="M6" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="N6" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="O6" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -4138,10 +4990,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4153,21 +5005,21 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="J14" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -4175,31 +5027,31 @@
         <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
         <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="E15" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="J15" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="K15" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="L15" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="M15" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="N15" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -4219,13 +5071,13 @@
         <v>9999</v>
       </c>
       <c r="K16" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="L16" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="M16" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -4236,10 +5088,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="D17">
         <v>1000</v>
@@ -4248,13 +5100,13 @@
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="L17" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="M17" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -4262,10 +5114,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D18">
         <v>1500</v>
@@ -4274,13 +5126,13 @@
         <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="L18" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="M18" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -4288,10 +5140,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="C19" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="D19">
         <v>500</v>
@@ -4300,7 +5152,7 @@
         <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -4308,10 +5160,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C20" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -4320,7 +5172,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -4328,10 +5180,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C21" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -4340,17 +5192,17 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -4358,13 +5210,13 @@
         <v>294</v>
       </c>
       <c r="B26" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="D26" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -4428,40 +5280,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C9" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/WebContent/hsw/상품 데이터.xlsx
+++ b/WebContent/hsw/상품 데이터.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="566">
   <si>
     <t>컴퓨터 부품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1122,10 +1122,6 @@
     <t>mb17</t>
   </si>
   <si>
-    <t>mm01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1320,50 +1316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pw01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1818,99 +1770,6 @@
     <t>삼성전자 970 EVO Plus M.2 2280(500GB)</t>
   </si>
   <si>
-    <t>mm02</t>
-  </si>
-  <si>
-    <t>mm03</t>
-  </si>
-  <si>
-    <t>mm04</t>
-  </si>
-  <si>
-    <t>mm05</t>
-  </si>
-  <si>
-    <t>mm06</t>
-  </si>
-  <si>
-    <t>mm07</t>
-  </si>
-  <si>
-    <t>mm08</t>
-  </si>
-  <si>
-    <t>mm09</t>
-  </si>
-  <si>
-    <t>mm10</t>
-  </si>
-  <si>
-    <t>mm11</t>
-  </si>
-  <si>
-    <t>mm12</t>
-  </si>
-  <si>
-    <t>mm13</t>
-  </si>
-  <si>
-    <t>mm14</t>
-  </si>
-  <si>
-    <t>mm15</t>
-  </si>
-  <si>
-    <t>mm16</t>
-  </si>
-  <si>
-    <t>mm17</t>
-  </si>
-  <si>
-    <t>mm18</t>
-  </si>
-  <si>
-    <t>mm19</t>
-  </si>
-  <si>
-    <t>mm20</t>
-  </si>
-  <si>
-    <t>mm21</t>
-  </si>
-  <si>
-    <t>mm22</t>
-  </si>
-  <si>
-    <t>mm23</t>
-  </si>
-  <si>
-    <t>mm24</t>
-  </si>
-  <si>
-    <t>mm25</t>
-  </si>
-  <si>
-    <t>mm26</t>
-  </si>
-  <si>
-    <t>mm27</t>
-  </si>
-  <si>
-    <t>mm28</t>
-  </si>
-  <si>
-    <t>mm29</t>
-  </si>
-  <si>
-    <t>mm30</t>
-  </si>
-  <si>
-    <t>mm31</t>
-  </si>
-  <si>
-    <t>mm32</t>
-  </si>
-  <si>
     <t>GeIL DDR4 16G PC4-25600 CL16 EVO X II AMD Gray RGB (8Gx2)</t>
   </si>
   <si>
@@ -1936,6 +1795,318 @@
   </si>
   <si>
     <t>TeamGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 16G PC4-25600 CL16 Delta RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 16G PC4-25600 CL16 Delta RGB 화이트 (8Gx2)</t>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 16G PC4-25600 CL16 XTREEM ARGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 32G PC4-25600 CL16 Delta RGB (16Gx2)</t>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 32G PC4-25600 CL16 Delta RGB 화이트 (16Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 8G PC4-21300 CL16 SPECTRIX D41 크림슨 레드</t>
+  </si>
+  <si>
+    <t>ADATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-21300 CL16 SPECTRIX D41 크림슨 레드 (8Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-25600 CL16 SPECTRIX D60G RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-25600 CL16 SPECTRIX D80 레드 (8Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-28800 CL17 SPECTRIX D60G RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-28800 CL17 SPECTRIX D80 레드 (8Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-33000 CL19-19-19 SPECTRIX D60G RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>GeIL DDR4 4G PC4-21300 CL19 PRISTINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeIL DDR4 8G PC4-19200 CL17 PRISTINE</t>
+  </si>
+  <si>
+    <t>GeIL DDR4 8G PC4-21300 CL19 PRISTINE</t>
+  </si>
+  <si>
+    <t>GeIL DDR4 8G PC4-24000 CL16 EVO SPEAR</t>
+  </si>
+  <si>
+    <t>GeIL DDR4 8G PC4-25600 CL22 PRISTINE</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial Ballistix DDR4 16G PC4-21300 CL16 Tactical Tracer RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>마이크론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크론 Crucial Ballistix DDR4 16G PC4-25600 CL16 RGB Red (8Gx2)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial Ballistix DDR4 16G PC4-25600 CL16 RGB White (8Gx2)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial DDR4 8G PC4-21300 CL19</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR3 8G PC3-12800(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 4G PC4-21300(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 8G PC4-19200(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 8G PC4-21300(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 16G PC4-19200(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 16G PC4-21300(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 32G PC4-21300(정품)</t>
+  </si>
+  <si>
+    <t>3,600MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,133MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP HEXA 85+ 550W 80PLUS BRONZE 프리볼트</t>
+  </si>
+  <si>
+    <t>FSP</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP HEXA 85+ 650W 80PLUS BRONZE 프리볼트</t>
+  </si>
+  <si>
+    <t>FSP HYDRO PRO 600W 80PLUS Bronze 230V EU</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP HYDRO PRO 700W 80PLUS Bronze 230V EU</t>
+  </si>
+  <si>
+    <t>FSP HYPER K 500W 80PLUS Standard 230V EU</t>
+  </si>
+  <si>
+    <t>스탠다드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP HYPER K 600W 80PLUS Standard 230V EU</t>
+  </si>
+  <si>
+    <t>FSP HYPER K 700W 80PLUS Standard 230V EU</t>
+  </si>
+  <si>
+    <t>마이크로닉스 ASTRO GD 750W 80PLUS GOLD 풀모듈러 FDB</t>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 500W +12V Single Rail 85+</t>
+  </si>
+  <si>
+    <t>마이크로닉스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠다드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 600W +12V Single Rail 85+</t>
+  </si>
+  <si>
+    <t>스탠다드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 650W 80PLUS Bronze 230V EU HDB PINK</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 650W 80PLUS Bronze 230V EU HDB</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 700W +12V Single Rail 85+</t>
+  </si>
+  <si>
+    <t>스탠다드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 800W 80PLUS 230V EU</t>
+  </si>
+  <si>
+    <t>시소닉 CORE GOLD GX-650 Full Modular</t>
+  </si>
+  <si>
+    <t>시소닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시소닉 FOCUS GOLD GX-650 Full Modular</t>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시소닉 FOCUS GOLD GX-750 Full Modular</t>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시소닉 FOCUS GOLD GX-850 Full Modular</t>
+  </si>
+  <si>
+    <t>시소닉 PRIME GOLD GX-1000 Full Modular</t>
+  </si>
+  <si>
+    <t>시소닉 PRIME TITANIUM TX-1000 Full Modular</t>
+  </si>
+  <si>
+    <t>티타늄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시소닉 S12III Bronze SSR-550GB3 Single Rail</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘만 EcoMax 500W 83+</t>
+  </si>
+  <si>
+    <t>잘만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘만 EcoMax 600W 83+</t>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘만 GigaMax 550W 80PLUS Bronze 230V EU</t>
+  </si>
+  <si>
+    <t>잘만 GigaMax 650W 80PLUS Bronze 230V EU</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘만 GigaMax 750W 80PLUS Bronze 230V EU</t>
+  </si>
+  <si>
+    <t>잘만 MegaMax 500W 80PLUS STANDARD</t>
+  </si>
+  <si>
+    <t>잘만 MegaMax 600W 80PLUS STANDARD</t>
+  </si>
+  <si>
+    <t>스탠다드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>550W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>850W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2303,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T247"/>
+  <dimension ref="A1:T267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2498,16 +2669,16 @@
         <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="J10" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K10" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="L10" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2724,16 +2895,16 @@
         <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="J39" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K39" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2958,16 +3129,16 @@
         <v>235</v>
       </c>
       <c r="H68" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="I68" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="J68" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="K68" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3145,10 +3316,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" t="s">
         <v>294</v>
-      </c>
-      <c r="B94" t="s">
-        <v>295</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -3157,1612 +3328,2705 @@
         <v>105</v>
       </c>
       <c r="E94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F94" t="s">
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="H94" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="I94" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="J94" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>293</v>
+      <c r="A95">
+        <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="C95" t="s">
-        <v>511</v>
-      </c>
-      <c r="D95">
-        <v>3200</v>
-      </c>
-      <c r="E95">
+        <v>480</v>
+      </c>
+      <c r="D95" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" t="s">
+        <v>127</v>
+      </c>
+      <c r="F95" t="s">
+        <v>101</v>
+      </c>
+      <c r="G95">
+        <v>57060</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>481</v>
+      </c>
+      <c r="C96" t="s">
+        <v>480</v>
+      </c>
+      <c r="D96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" t="s">
+        <v>101</v>
+      </c>
+      <c r="G96">
+        <v>107340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>482</v>
+      </c>
+      <c r="C97" t="s">
+        <v>480</v>
+      </c>
+      <c r="D97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" t="s">
+        <v>101</v>
+      </c>
+      <c r="G97">
+        <v>143500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>483</v>
+      </c>
+      <c r="C98" t="s">
+        <v>480</v>
+      </c>
+      <c r="D98" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" t="s">
+        <v>101</v>
+      </c>
+      <c r="G98">
+        <v>141240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>484</v>
+      </c>
+      <c r="C99" t="s">
+        <v>480</v>
+      </c>
+      <c r="D99" t="s">
+        <v>505</v>
+      </c>
+      <c r="E99" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" t="s">
+        <v>101</v>
+      </c>
+      <c r="G99">
+        <v>210730</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>485</v>
+      </c>
+      <c r="C100" t="s">
+        <v>480</v>
+      </c>
+      <c r="D100" t="s">
+        <v>505</v>
+      </c>
+      <c r="E100" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" t="s">
+        <v>101</v>
+      </c>
+      <c r="G100">
+        <v>201130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>486</v>
+      </c>
+      <c r="C101" t="s">
+        <v>480</v>
+      </c>
+      <c r="D101" t="s">
+        <v>506</v>
+      </c>
+      <c r="E101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" t="s">
+        <v>101</v>
+      </c>
+      <c r="G101">
+        <v>248590</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>487</v>
+      </c>
+      <c r="C102" t="s">
+        <v>467</v>
+      </c>
+      <c r="D102" t="s">
+        <v>118</v>
+      </c>
+      <c r="E102" t="s">
+        <v>128</v>
+      </c>
+      <c r="F102" t="s">
+        <v>101</v>
+      </c>
+      <c r="G102">
+        <v>24290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>488</v>
+      </c>
+      <c r="C103" t="s">
+        <v>467</v>
+      </c>
+      <c r="D103" t="s">
+        <v>119</v>
+      </c>
+      <c r="E103" t="s">
+        <v>127</v>
+      </c>
+      <c r="F103" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103">
+        <v>47800</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>489</v>
+      </c>
+      <c r="C104" t="s">
+        <v>467</v>
+      </c>
+      <c r="D104" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104" t="s">
+        <v>101</v>
+      </c>
+      <c r="G104">
+        <v>42490</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>490</v>
+      </c>
+      <c r="C105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D105" t="s">
+        <v>116</v>
+      </c>
+      <c r="E105" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" t="s">
+        <v>101</v>
+      </c>
+      <c r="G105">
+        <v>50960</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>491</v>
+      </c>
+      <c r="C106" t="s">
+        <v>467</v>
+      </c>
+      <c r="D106" t="s">
+        <v>115</v>
+      </c>
+      <c r="E106" t="s">
+        <v>127</v>
+      </c>
+      <c r="F106" t="s">
+        <v>101</v>
+      </c>
+      <c r="G106">
+        <v>47260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>466</v>
+      </c>
+      <c r="C107" t="s">
+        <v>468</v>
+      </c>
+      <c r="D107" t="s">
+        <v>115</v>
+      </c>
+      <c r="E107" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" t="s">
+        <v>101</v>
+      </c>
+      <c r="G107">
+        <v>127460</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>469</v>
+      </c>
+      <c r="C108" t="s">
+        <v>467</v>
+      </c>
+      <c r="D108" t="s">
+        <v>115</v>
+      </c>
+      <c r="E108" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108" t="s">
+        <v>101</v>
+      </c>
+      <c r="G108">
+        <v>122150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>15</v>
+      </c>
+      <c r="B109" t="s">
+        <v>470</v>
+      </c>
+      <c r="C109" t="s">
+        <v>471</v>
+      </c>
+      <c r="D109" t="s">
+        <v>115</v>
+      </c>
+      <c r="E109" t="s">
+        <v>127</v>
+      </c>
+      <c r="F109" t="s">
+        <v>101</v>
+      </c>
+      <c r="G109">
+        <v>49720</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>16</v>
       </c>
-      <c r="F95">
-        <v>4</v>
-      </c>
-      <c r="G95">
+      <c r="B110" t="s">
+        <v>472</v>
+      </c>
+      <c r="C110" t="s">
+        <v>473</v>
+      </c>
+      <c r="D110" t="s">
+        <v>118</v>
+      </c>
+      <c r="E110" t="s">
+        <v>127</v>
+      </c>
+      <c r="F110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G110">
+        <v>58420</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>474</v>
+      </c>
+      <c r="C111" t="s">
+        <v>471</v>
+      </c>
+      <c r="D111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E111" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" t="s">
+        <v>101</v>
+      </c>
+      <c r="G111">
         <v>127460</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>475</v>
+      </c>
+      <c r="C112" t="s">
+        <v>471</v>
+      </c>
+      <c r="D112" t="s">
+        <v>115</v>
+      </c>
+      <c r="E112" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" t="s">
+        <v>101</v>
+      </c>
+      <c r="G112">
+        <v>127460</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>476</v>
+      </c>
+      <c r="C113" t="s">
+        <v>471</v>
+      </c>
+      <c r="D113" t="s">
+        <v>115</v>
+      </c>
+      <c r="E113" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" t="s">
+        <v>101</v>
+      </c>
+      <c r="G113">
+        <v>169940</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>477</v>
+      </c>
+      <c r="C114" t="s">
+        <v>471</v>
+      </c>
+      <c r="D114" t="s">
+        <v>115</v>
+      </c>
+      <c r="E114" t="s">
+        <v>125</v>
+      </c>
+      <c r="F114" t="s">
+        <v>101</v>
+      </c>
+      <c r="G114">
+        <v>238980</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
         <v>478</v>
       </c>
-      <c r="B96" t="s">
-        <v>512</v>
-      </c>
-      <c r="C96" t="s">
-        <v>510</v>
-      </c>
-      <c r="D96">
+      <c r="C115" t="s">
+        <v>471</v>
+      </c>
+      <c r="D115" t="s">
+        <v>115</v>
+      </c>
+      <c r="E115" t="s">
+        <v>125</v>
+      </c>
+      <c r="F115" t="s">
+        <v>101</v>
+      </c>
+      <c r="G115">
+        <v>238980</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>22</v>
+      </c>
+      <c r="B116" t="s">
+        <v>492</v>
+      </c>
+      <c r="C116" t="s">
+        <v>493</v>
+      </c>
+      <c r="D116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116" t="s">
+        <v>126</v>
+      </c>
+      <c r="F116" t="s">
+        <v>101</v>
+      </c>
+      <c r="G116">
+        <v>112990</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>23</v>
+      </c>
+      <c r="B117" t="s">
+        <v>494</v>
+      </c>
+      <c r="C117" t="s">
+        <v>493</v>
+      </c>
+      <c r="D117" t="s">
+        <v>115</v>
+      </c>
+      <c r="E117" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" t="s">
+        <v>101</v>
+      </c>
+      <c r="G117">
+        <v>143020</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>24</v>
+      </c>
+      <c r="B118" t="s">
+        <v>495</v>
+      </c>
+      <c r="C118" t="s">
+        <v>493</v>
+      </c>
+      <c r="D118" t="s">
+        <v>115</v>
+      </c>
+      <c r="E118" t="s">
+        <v>126</v>
+      </c>
+      <c r="F118" t="s">
+        <v>101</v>
+      </c>
+      <c r="G118">
+        <v>143020</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>25</v>
+      </c>
+      <c r="B119" t="s">
+        <v>496</v>
+      </c>
+      <c r="C119" t="s">
+        <v>493</v>
+      </c>
+      <c r="D119" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>127</v>
+      </c>
+      <c r="F119" t="s">
+        <v>101</v>
+      </c>
+      <c r="G119">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>26</v>
+      </c>
+      <c r="B120" t="s">
+        <v>497</v>
+      </c>
+      <c r="C120" t="s">
+        <v>498</v>
+      </c>
+      <c r="D120" t="s">
+        <v>122</v>
+      </c>
+      <c r="E120" t="s">
+        <v>127</v>
+      </c>
+      <c r="F120" t="s">
+        <v>102</v>
+      </c>
+      <c r="G120">
+        <v>66670</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>27</v>
+      </c>
+      <c r="B121" t="s">
+        <v>499</v>
+      </c>
+      <c r="C121" t="s">
+        <v>498</v>
+      </c>
+      <c r="D121" t="s">
+        <v>118</v>
+      </c>
+      <c r="E121" t="s">
+        <v>128</v>
+      </c>
+      <c r="F121" t="s">
+        <v>101</v>
+      </c>
+      <c r="G121">
+        <v>21130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s">
+        <v>500</v>
+      </c>
+      <c r="C122" t="s">
+        <v>498</v>
+      </c>
+      <c r="D122" t="s">
+        <v>119</v>
+      </c>
+      <c r="E122" t="s">
+        <v>127</v>
+      </c>
+      <c r="F122" t="s">
+        <v>101</v>
+      </c>
+      <c r="G122">
+        <v>55370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>29</v>
+      </c>
+      <c r="B123" t="s">
+        <v>501</v>
+      </c>
+      <c r="C123" t="s">
+        <v>498</v>
+      </c>
+      <c r="D123" t="s">
+        <v>118</v>
+      </c>
+      <c r="E123" t="s">
+        <v>127</v>
+      </c>
+      <c r="F123" t="s">
+        <v>101</v>
+      </c>
+      <c r="G123">
+        <v>42490</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>30</v>
+      </c>
+      <c r="B124" t="s">
+        <v>502</v>
+      </c>
+      <c r="C124" t="s">
+        <v>498</v>
+      </c>
+      <c r="D124" t="s">
+        <v>119</v>
+      </c>
+      <c r="E124" t="s">
+        <v>126</v>
+      </c>
+      <c r="F124" t="s">
+        <v>101</v>
+      </c>
+      <c r="G124">
+        <v>109600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>31</v>
+      </c>
+      <c r="B125" t="s">
+        <v>503</v>
+      </c>
+      <c r="C125" t="s">
+        <v>498</v>
+      </c>
+      <c r="D125" t="s">
+        <v>118</v>
+      </c>
+      <c r="E125" t="s">
+        <v>126</v>
+      </c>
+      <c r="F125" t="s">
+        <v>101</v>
+      </c>
+      <c r="G125">
+        <v>82940</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>32</v>
       </c>
-      <c r="E96">
-        <v>16</v>
-      </c>
-      <c r="F96">
-        <v>4</v>
-      </c>
-      <c r="G96">
-        <v>122150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>479</v>
-      </c>
-      <c r="B97" t="s">
-        <v>513</v>
-      </c>
-      <c r="C97" t="s">
-        <v>514</v>
-      </c>
-      <c r="D97">
-        <v>3200</v>
-      </c>
-      <c r="E97">
-        <v>8</v>
-      </c>
-      <c r="F97">
-        <v>4</v>
-      </c>
-      <c r="G97">
-        <v>49720</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>480</v>
-      </c>
-      <c r="B98" t="s">
-        <v>515</v>
-      </c>
-      <c r="C98" t="s">
-        <v>516</v>
-      </c>
-      <c r="D98">
-        <v>2666</v>
-      </c>
-      <c r="E98">
-        <v>8</v>
-      </c>
-      <c r="F98">
-        <v>4</v>
-      </c>
-      <c r="G98">
-        <v>58420</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B126" t="s">
+        <v>504</v>
+      </c>
+      <c r="C126" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+      <c r="D126" t="s">
+        <v>118</v>
+      </c>
+      <c r="E126" t="s">
+        <v>125</v>
+      </c>
+      <c r="F126" t="s">
+        <v>101</v>
+      </c>
+      <c r="G126">
+        <v>172880</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B131" t="s">
         <v>130</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C131" t="s">
         <v>131</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D131" t="s">
         <v>132</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E131" t="s">
         <v>133</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F131" t="s">
         <v>134</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G131" t="s">
         <v>135</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H131" t="s">
         <v>136</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I131" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
         <v>139</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C132" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="1"/>
-    </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>297</v>
-      </c>
-      <c r="B133" t="s">
-        <v>295</v>
-      </c>
-      <c r="C133" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" t="s">
-        <v>142</v>
-      </c>
-      <c r="E133" t="s">
-        <v>361</v>
-      </c>
-      <c r="F133" t="s">
-        <v>362</v>
-      </c>
-      <c r="G133" t="s">
-        <v>364</v>
-      </c>
-      <c r="H133" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>298</v>
-      </c>
+      <c r="A133" s="1"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>299</v>
+        <v>296</v>
+      </c>
+      <c r="B135" t="s">
+        <v>294</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>142</v>
+      </c>
+      <c r="E135" t="s">
+        <v>349</v>
+      </c>
+      <c r="F135" t="s">
+        <v>350</v>
+      </c>
+      <c r="G135" t="s">
+        <v>352</v>
+      </c>
+      <c r="H135" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>312</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+      <c r="A150" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B151" t="s">
-        <v>146</v>
-      </c>
-      <c r="C151" t="s">
-        <v>147</v>
-      </c>
-      <c r="D151" t="s">
-        <v>148</v>
-      </c>
-      <c r="E151" t="s">
-        <v>149</v>
-      </c>
-      <c r="F151" t="s">
-        <v>150</v>
-      </c>
-      <c r="G151" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B152" t="s">
-        <v>151</v>
-      </c>
-      <c r="C152" t="s">
-        <v>152</v>
-      </c>
-      <c r="D152" t="s">
-        <v>153</v>
-      </c>
-      <c r="E152" t="s">
-        <v>154</v>
-      </c>
-      <c r="F152" t="s">
-        <v>155</v>
-      </c>
-      <c r="G152" t="s">
-        <v>156</v>
-      </c>
-      <c r="H152" t="s">
-        <v>157</v>
-      </c>
-      <c r="I152" t="s">
-        <v>158</v>
-      </c>
-      <c r="J152" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" t="s">
+        <v>147</v>
+      </c>
+      <c r="D153" t="s">
+        <v>148</v>
+      </c>
+      <c r="E153" t="s">
+        <v>149</v>
+      </c>
+      <c r="F153" t="s">
+        <v>150</v>
+      </c>
+      <c r="G153" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B154" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" t="s">
+        <v>152</v>
+      </c>
+      <c r="D154" t="s">
+        <v>153</v>
+      </c>
+      <c r="E154" t="s">
+        <v>154</v>
+      </c>
+      <c r="F154" t="s">
+        <v>155</v>
+      </c>
+      <c r="G154" t="s">
+        <v>156</v>
+      </c>
+      <c r="H154" t="s">
+        <v>157</v>
+      </c>
+      <c r="I154" t="s">
+        <v>158</v>
+      </c>
+      <c r="J154" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B155" t="s">
         <v>53</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C155" t="s">
         <v>160</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D155" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-    </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>297</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>296</v>
+      </c>
+      <c r="B158" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
         <v>313</v>
       </c>
-      <c r="C156" t="s">
-        <v>6</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="E158" t="s">
         <v>314</v>
       </c>
-      <c r="E156" t="s">
-        <v>315</v>
-      </c>
-      <c r="F156" t="s">
-        <v>361</v>
-      </c>
-      <c r="G156" t="s">
-        <v>362</v>
-      </c>
-      <c r="H156" t="s">
-        <v>364</v>
-      </c>
-      <c r="I156" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>1</v>
-      </c>
-      <c r="B157" t="s">
-        <v>438</v>
-      </c>
-      <c r="C157" t="s">
-        <v>439</v>
-      </c>
-      <c r="D157" t="s">
-        <v>440</v>
-      </c>
-      <c r="E157" t="s">
-        <v>441</v>
-      </c>
-      <c r="F157">
-        <v>54190</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>2</v>
-      </c>
-      <c r="B158" t="s">
-        <v>442</v>
-      </c>
-      <c r="C158" t="s">
-        <v>439</v>
-      </c>
-      <c r="D158" t="s">
-        <v>443</v>
-      </c>
-      <c r="E158" t="s">
-        <v>441</v>
-      </c>
-      <c r="F158">
-        <v>184130</v>
+      <c r="F158" t="s">
+        <v>349</v>
+      </c>
+      <c r="G158" t="s">
+        <v>350</v>
+      </c>
+      <c r="H158" t="s">
+        <v>352</v>
+      </c>
+      <c r="I158" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C159" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D159" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="E159" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F159">
-        <v>356760</v>
+        <v>54190</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C160" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D160" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="E160" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F160">
-        <v>68490</v>
+        <v>184130</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C161" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D161" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="E161" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F161">
-        <v>102460</v>
+        <v>356760</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C162" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D162" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E162" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="F162">
-        <v>389000</v>
+        <v>68490</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C163" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D163" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E163" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="F163">
-        <v>199000</v>
+        <v>102460</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C164" t="s">
-        <v>148</v>
+        <v>427</v>
       </c>
       <c r="D164" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E164" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="F164">
-        <v>184360</v>
+        <v>389000</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C165" t="s">
-        <v>148</v>
+        <v>427</v>
       </c>
       <c r="D165" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E165" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="F165">
-        <v>67040</v>
+        <v>199000</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C166" t="s">
         <v>148</v>
       </c>
       <c r="D166" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="E166" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F166">
-        <v>100560</v>
+        <v>184360</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C167" t="s">
         <v>148</v>
       </c>
       <c r="D167" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E167" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="F167">
-        <v>184360</v>
+        <v>67040</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C168" t="s">
         <v>148</v>
       </c>
       <c r="D168" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E168" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="F168">
-        <v>105030</v>
+        <v>100560</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C169" t="s">
         <v>148</v>
       </c>
       <c r="D169" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="E169" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="F169">
-        <v>36870</v>
+        <v>184360</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C170" t="s">
         <v>148</v>
       </c>
       <c r="D170" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="E170" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="F170">
-        <v>53500</v>
+        <v>105030</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C171" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D171" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="E171" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F171">
-        <v>37990</v>
+        <v>36870</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B172" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C172" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D172" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="E172" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F172">
-        <v>55870</v>
+        <v>53500</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B173" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C173" t="s">
         <v>112</v>
       </c>
       <c r="D173" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="E173" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F173">
-        <v>179890</v>
+        <v>37990</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B174" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C174" t="s">
         <v>112</v>
       </c>
       <c r="D174" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E174" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F174">
-        <v>63690</v>
+        <v>55870</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B175" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C175" t="s">
         <v>112</v>
       </c>
       <c r="D175" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="E175" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F175">
-        <v>94970</v>
+        <v>179890</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="C176" t="s">
         <v>112</v>
       </c>
       <c r="D176" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E176" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="F176">
-        <v>61450</v>
+        <v>63690</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="C177" t="s">
         <v>112</v>
       </c>
       <c r="D177" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E177" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="F177">
-        <v>98320</v>
+        <v>94970</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C178" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D178" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E178" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="F178">
-        <v>244690</v>
+        <v>61450</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="C179" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D179" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E179" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="F179">
-        <v>75980</v>
+        <v>98320</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="C180" t="s">
         <v>111</v>
       </c>
       <c r="D180" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="E180" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F180">
-        <v>122910</v>
+        <v>244690</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B181" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="C181" t="s">
         <v>111</v>
       </c>
       <c r="D181" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E181" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="F181">
-        <v>290500</v>
+        <v>75980</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C182" t="s">
         <v>111</v>
       </c>
       <c r="D182" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E182" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="F182">
-        <v>149720</v>
+        <v>122910</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B183" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C183" t="s">
         <v>111</v>
       </c>
       <c r="D183" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E183" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F183">
-        <v>340780</v>
+        <v>290500</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B184" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C184" t="s">
         <v>111</v>
       </c>
       <c r="D184" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E184" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F184">
+        <v>149720</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>27</v>
+      </c>
+      <c r="B185" t="s">
+        <v>464</v>
+      </c>
+      <c r="C185" t="s">
+        <v>111</v>
+      </c>
+      <c r="D185" t="s">
+        <v>431</v>
+      </c>
+      <c r="E185" t="s">
+        <v>459</v>
+      </c>
+      <c r="F185">
+        <v>340780</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>28</v>
+      </c>
+      <c r="B186" t="s">
+        <v>465</v>
+      </c>
+      <c r="C186" t="s">
+        <v>111</v>
+      </c>
+      <c r="D186" t="s">
+        <v>454</v>
+      </c>
+      <c r="E186" t="s">
+        <v>459</v>
+      </c>
+      <c r="F186">
         <v>178770</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" t="s">
-        <v>164</v>
-      </c>
-      <c r="C187" t="s">
-        <v>165</v>
-      </c>
-      <c r="D187" t="s">
-        <v>166</v>
-      </c>
-      <c r="E187" t="s">
-        <v>167</v>
-      </c>
-      <c r="F187" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B188" t="s">
-        <v>169</v>
-      </c>
-      <c r="C188" t="s">
-        <v>170</v>
-      </c>
-      <c r="D188" t="s">
-        <v>171</v>
-      </c>
-      <c r="E188" t="s">
-        <v>172</v>
-      </c>
-      <c r="F188" t="s">
-        <v>173</v>
-      </c>
-      <c r="G188" t="s">
-        <v>174</v>
-      </c>
-      <c r="H188" t="s">
-        <v>175</v>
-      </c>
-      <c r="I188" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>164</v>
+      </c>
+      <c r="C189" t="s">
+        <v>165</v>
+      </c>
+      <c r="D189" t="s">
+        <v>166</v>
+      </c>
+      <c r="E189" t="s">
+        <v>167</v>
+      </c>
+      <c r="F189" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B190" t="s">
+        <v>169</v>
+      </c>
+      <c r="C190" t="s">
+        <v>170</v>
+      </c>
+      <c r="D190" t="s">
+        <v>171</v>
+      </c>
+      <c r="E190" t="s">
+        <v>172</v>
+      </c>
+      <c r="F190" t="s">
+        <v>173</v>
+      </c>
+      <c r="G190" t="s">
+        <v>174</v>
+      </c>
+      <c r="H190" t="s">
+        <v>175</v>
+      </c>
+      <c r="I190" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B191" t="s">
         <v>177</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C191" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>297</v>
-      </c>
-      <c r="B191" t="s">
-        <v>316</v>
-      </c>
-      <c r="C191" t="s">
-        <v>107</v>
-      </c>
-      <c r="D191" t="s">
-        <v>317</v>
-      </c>
-      <c r="E191" t="s">
-        <v>318</v>
-      </c>
-      <c r="F191" t="s">
-        <v>361</v>
-      </c>
-      <c r="G191" t="s">
-        <v>362</v>
-      </c>
-      <c r="H191" t="s">
-        <v>364</v>
-      </c>
-      <c r="I191" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>320</v>
+        <v>296</v>
+      </c>
+      <c r="B193" t="s">
+        <v>315</v>
+      </c>
+      <c r="C193" t="s">
+        <v>107</v>
+      </c>
+      <c r="D193" t="s">
+        <v>316</v>
+      </c>
+      <c r="E193" t="s">
+        <v>317</v>
+      </c>
+      <c r="F193" t="s">
+        <v>349</v>
+      </c>
+      <c r="G193" t="s">
+        <v>350</v>
+      </c>
+      <c r="H193" t="s">
+        <v>352</v>
+      </c>
+      <c r="I193" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
+      <c r="A203" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" t="s">
-        <v>180</v>
-      </c>
-      <c r="C204" t="s">
-        <v>181</v>
-      </c>
-      <c r="D204" t="s">
-        <v>182</v>
-      </c>
-      <c r="E204" t="s">
-        <v>183</v>
-      </c>
-      <c r="F204" t="s">
-        <v>184</v>
-      </c>
-      <c r="G204" t="s">
-        <v>185</v>
-      </c>
-      <c r="H204" t="s">
-        <v>186</v>
-      </c>
-      <c r="I204" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B205" t="s">
-        <v>189</v>
-      </c>
-      <c r="C205" t="s">
-        <v>190</v>
-      </c>
-      <c r="D205" t="s">
-        <v>191</v>
-      </c>
-      <c r="E205" t="s">
-        <v>192</v>
-      </c>
-      <c r="F205" t="s">
-        <v>193</v>
-      </c>
-      <c r="G205" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" t="s">
+        <v>180</v>
+      </c>
+      <c r="C206" t="s">
+        <v>181</v>
+      </c>
+      <c r="D206" t="s">
+        <v>182</v>
+      </c>
+      <c r="E206" t="s">
+        <v>183</v>
+      </c>
+      <c r="F206" t="s">
+        <v>184</v>
+      </c>
+      <c r="G206" t="s">
+        <v>185</v>
+      </c>
+      <c r="H206" t="s">
+        <v>186</v>
+      </c>
+      <c r="I206" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B207" t="s">
+        <v>189</v>
+      </c>
+      <c r="C207" t="s">
+        <v>190</v>
+      </c>
+      <c r="D207" t="s">
+        <v>191</v>
+      </c>
+      <c r="E207" t="s">
+        <v>192</v>
+      </c>
+      <c r="F207" t="s">
+        <v>193</v>
+      </c>
+      <c r="G207" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B208" t="s">
         <v>196</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C208" t="s">
         <v>197</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D208" t="s">
         <v>99</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E208" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>297</v>
-      </c>
-      <c r="B208" t="s">
-        <v>295</v>
-      </c>
-      <c r="C208" t="s">
-        <v>6</v>
-      </c>
-      <c r="D208" t="s">
-        <v>333</v>
-      </c>
-      <c r="E208" t="s">
-        <v>334</v>
-      </c>
-      <c r="F208" t="s">
-        <v>361</v>
-      </c>
-      <c r="G208" t="s">
-        <v>362</v>
-      </c>
-      <c r="H208" t="s">
-        <v>364</v>
-      </c>
-      <c r="I208" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>336</v>
+        <v>296</v>
+      </c>
+      <c r="B210" t="s">
+        <v>294</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>332</v>
+      </c>
+      <c r="E210" t="s">
+        <v>333</v>
+      </c>
+      <c r="F210" t="s">
+        <v>349</v>
+      </c>
+      <c r="G210" t="s">
+        <v>350</v>
+      </c>
+      <c r="H210" t="s">
+        <v>352</v>
+      </c>
+      <c r="I210" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
+      <c r="A221" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>200</v>
-      </c>
-      <c r="C222" t="s">
-        <v>187</v>
-      </c>
-      <c r="D222" t="s">
-        <v>201</v>
-      </c>
-      <c r="E222" t="s">
-        <v>202</v>
-      </c>
-      <c r="F222" t="s">
-        <v>203</v>
-      </c>
-      <c r="G222" t="s">
-        <v>204</v>
-      </c>
-      <c r="H222" t="s">
-        <v>205</v>
-      </c>
-      <c r="I222" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B223" t="s">
-        <v>208</v>
-      </c>
-      <c r="C223" t="s">
-        <v>209</v>
-      </c>
-      <c r="D223" t="s">
-        <v>210</v>
-      </c>
-      <c r="E223" t="s">
-        <v>211</v>
-      </c>
-      <c r="F223" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C224" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D224" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E224" t="s">
-        <v>217</v>
+        <v>202</v>
+      </c>
+      <c r="F224" t="s">
+        <v>203</v>
+      </c>
+      <c r="G224" t="s">
+        <v>204</v>
+      </c>
+      <c r="H224" t="s">
+        <v>205</v>
+      </c>
+      <c r="I224" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B225" t="s">
+        <v>208</v>
+      </c>
+      <c r="C225" t="s">
+        <v>209</v>
+      </c>
+      <c r="D225" t="s">
+        <v>210</v>
+      </c>
+      <c r="E225" t="s">
+        <v>211</v>
+      </c>
+      <c r="F225" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B226" t="s">
+        <v>214</v>
+      </c>
+      <c r="C226" t="s">
+        <v>215</v>
+      </c>
+      <c r="D226" t="s">
+        <v>216</v>
+      </c>
+      <c r="E226" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B227" t="s">
         <v>219</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C227" t="s">
         <v>220</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D227" t="s">
         <v>221</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E227" t="s">
         <v>222</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F227" t="s">
         <v>223</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G227" t="s">
         <v>224</v>
       </c>
-      <c r="H225" t="s">
+      <c r="H227" t="s">
         <v>225</v>
       </c>
-      <c r="I225" t="s">
+      <c r="I227" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>297</v>
-      </c>
-      <c r="B227" t="s">
-        <v>329</v>
-      </c>
-      <c r="C227" t="s">
-        <v>330</v>
-      </c>
-      <c r="D227" t="s">
-        <v>331</v>
-      </c>
-      <c r="E227" t="s">
-        <v>332</v>
-      </c>
-      <c r="F227" t="s">
-        <v>218</v>
-      </c>
-      <c r="G227" t="s">
-        <v>361</v>
-      </c>
-      <c r="H227" t="s">
-        <v>362</v>
-      </c>
-      <c r="I227" t="s">
-        <v>364</v>
-      </c>
-      <c r="J227" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
+        <v>296</v>
+      </c>
+      <c r="B229" t="s">
+        <v>328</v>
+      </c>
+      <c r="C229" t="s">
+        <v>329</v>
+      </c>
+      <c r="D229" t="s">
+        <v>330</v>
+      </c>
+      <c r="E229" t="s">
+        <v>331</v>
+      </c>
+      <c r="F229" t="s">
+        <v>218</v>
+      </c>
+      <c r="G229" t="s">
+        <v>349</v>
+      </c>
+      <c r="H229" t="s">
+        <v>350</v>
+      </c>
+      <c r="I229" t="s">
+        <v>352</v>
+      </c>
+      <c r="J229" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230" t="s">
+        <v>507</v>
+      </c>
+      <c r="C230" t="s">
+        <v>508</v>
+      </c>
+      <c r="D230" t="s">
+        <v>557</v>
+      </c>
+      <c r="E230" t="s">
+        <v>215</v>
+      </c>
+      <c r="F230" t="s">
+        <v>509</v>
+      </c>
+      <c r="G230">
+        <v>62630</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
+        <v>510</v>
+      </c>
+      <c r="C231" t="s">
+        <v>508</v>
+      </c>
+      <c r="D231" t="s">
+        <v>558</v>
+      </c>
+      <c r="E231" t="s">
+        <v>215</v>
+      </c>
+      <c r="F231" t="s">
+        <v>509</v>
+      </c>
+      <c r="G231">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>3</v>
+      </c>
+      <c r="B232" t="s">
+        <v>511</v>
+      </c>
+      <c r="C232" t="s">
+        <v>508</v>
+      </c>
+      <c r="D232" t="s">
+        <v>559</v>
+      </c>
+      <c r="E232" t="s">
+        <v>214</v>
+      </c>
+      <c r="F232" t="s">
+        <v>512</v>
+      </c>
+      <c r="G232">
+        <v>72760</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>4</v>
+      </c>
+      <c r="B233" t="s">
+        <v>513</v>
+      </c>
+      <c r="C233" t="s">
+        <v>508</v>
+      </c>
+      <c r="D233" t="s">
+        <v>560</v>
+      </c>
+      <c r="E233" t="s">
+        <v>214</v>
+      </c>
+      <c r="F233" t="s">
+        <v>512</v>
+      </c>
+      <c r="G233">
+        <v>86860</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>514</v>
+      </c>
+      <c r="C234" t="s">
+        <v>508</v>
+      </c>
+      <c r="D234" t="s">
+        <v>561</v>
+      </c>
+      <c r="E234" t="s">
+        <v>214</v>
+      </c>
+      <c r="F234" t="s">
+        <v>515</v>
+      </c>
+      <c r="G234">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>516</v>
+      </c>
+      <c r="C235" t="s">
+        <v>508</v>
+      </c>
+      <c r="D235" t="s">
+        <v>559</v>
+      </c>
+      <c r="E235" t="s">
+        <v>214</v>
+      </c>
+      <c r="F235" t="s">
+        <v>515</v>
+      </c>
+      <c r="G235">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>7</v>
+      </c>
+      <c r="B236" t="s">
+        <v>517</v>
+      </c>
+      <c r="C236" t="s">
+        <v>508</v>
+      </c>
+      <c r="D236" t="s">
+        <v>560</v>
+      </c>
+      <c r="E236" t="s">
+        <v>214</v>
+      </c>
+      <c r="F236" t="s">
+        <v>515</v>
+      </c>
+      <c r="G236">
+        <v>78210</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>8</v>
+      </c>
+      <c r="B237" t="s">
+        <v>518</v>
+      </c>
+      <c r="C237" t="s">
+        <v>521</v>
+      </c>
+      <c r="D237" t="s">
+        <v>562</v>
+      </c>
+      <c r="E237" t="s">
+        <v>215</v>
+      </c>
+      <c r="F237" t="s">
+        <v>519</v>
+      </c>
+      <c r="G237">
+        <v>124580</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>9</v>
+      </c>
+      <c r="B238" t="s">
+        <v>520</v>
+      </c>
+      <c r="C238" t="s">
+        <v>521</v>
+      </c>
+      <c r="D238" t="s">
+        <v>561</v>
+      </c>
+      <c r="E238" t="s">
+        <v>215</v>
+      </c>
+      <c r="F238" t="s">
+        <v>522</v>
+      </c>
+      <c r="G238">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>10</v>
+      </c>
+      <c r="B239" t="s">
+        <v>523</v>
+      </c>
+      <c r="C239" t="s">
+        <v>521</v>
+      </c>
+      <c r="D239" t="s">
+        <v>559</v>
+      </c>
+      <c r="E239" t="s">
+        <v>215</v>
+      </c>
+      <c r="F239" t="s">
+        <v>524</v>
+      </c>
+      <c r="G239">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>11</v>
+      </c>
+      <c r="B240" t="s">
+        <v>525</v>
+      </c>
+      <c r="C240" t="s">
+        <v>521</v>
+      </c>
+      <c r="D240" t="s">
+        <v>558</v>
+      </c>
+      <c r="E240" t="s">
+        <v>215</v>
+      </c>
+      <c r="F240" t="s">
+        <v>526</v>
+      </c>
+      <c r="G240">
+        <v>77090</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>12</v>
+      </c>
+      <c r="B241" t="s">
+        <v>527</v>
+      </c>
+      <c r="C241" t="s">
+        <v>521</v>
+      </c>
+      <c r="D241" t="s">
+        <v>558</v>
+      </c>
+      <c r="E241" t="s">
+        <v>215</v>
+      </c>
+      <c r="F241" t="s">
+        <v>528</v>
+      </c>
+      <c r="G241">
+        <v>75500</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>13</v>
+      </c>
+      <c r="B242" t="s">
+        <v>529</v>
+      </c>
+      <c r="C242" t="s">
+        <v>521</v>
+      </c>
+      <c r="D242" t="s">
+        <v>560</v>
+      </c>
+      <c r="E242" t="s">
+        <v>215</v>
+      </c>
+      <c r="F242" t="s">
+        <v>530</v>
+      </c>
+      <c r="G242">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>14</v>
+      </c>
+      <c r="B243" t="s">
+        <v>531</v>
+      </c>
+      <c r="C243" t="s">
+        <v>521</v>
+      </c>
+      <c r="D243" t="s">
+        <v>563</v>
+      </c>
+      <c r="E243" t="s">
+        <v>215</v>
+      </c>
+      <c r="F243" t="s">
+        <v>524</v>
+      </c>
+      <c r="G243">
+        <v>86500</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>15</v>
+      </c>
+      <c r="B244" t="s">
+        <v>532</v>
+      </c>
+      <c r="C244" t="s">
+        <v>533</v>
+      </c>
+      <c r="D244" t="s">
+        <v>558</v>
+      </c>
+      <c r="E244" t="s">
+        <v>214</v>
+      </c>
+      <c r="F244" t="s">
+        <v>534</v>
+      </c>
+      <c r="G244">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>16</v>
+      </c>
+      <c r="B245" t="s">
+        <v>535</v>
+      </c>
+      <c r="C245" t="s">
+        <v>533</v>
+      </c>
+      <c r="D245" t="s">
+        <v>558</v>
+      </c>
+      <c r="E245" t="s">
+        <v>214</v>
+      </c>
+      <c r="F245" t="s">
+        <v>536</v>
+      </c>
+      <c r="G245">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>17</v>
+      </c>
+      <c r="B246" t="s">
+        <v>537</v>
+      </c>
+      <c r="C246" t="s">
+        <v>533</v>
+      </c>
+      <c r="D246" t="s">
+        <v>562</v>
+      </c>
+      <c r="E246" t="s">
+        <v>214</v>
+      </c>
+      <c r="F246" t="s">
+        <v>538</v>
+      </c>
+      <c r="G246">
+        <v>151000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>18</v>
+      </c>
+      <c r="B247" t="s">
+        <v>539</v>
+      </c>
+      <c r="C247" t="s">
+        <v>533</v>
+      </c>
+      <c r="D247" t="s">
+        <v>564</v>
+      </c>
+      <c r="E247" t="s">
+        <v>214</v>
+      </c>
+      <c r="F247" t="s">
+        <v>534</v>
+      </c>
+      <c r="G247">
+        <v>172000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>19</v>
+      </c>
+      <c r="B248" t="s">
+        <v>540</v>
+      </c>
+      <c r="C248" t="s">
+        <v>533</v>
+      </c>
+      <c r="D248" t="s">
+        <v>565</v>
+      </c>
+      <c r="E248" t="s">
+        <v>214</v>
+      </c>
+      <c r="F248" t="s">
+        <v>534</v>
+      </c>
+      <c r="G248">
+        <v>294040</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>20</v>
+      </c>
+      <c r="B249" t="s">
+        <v>541</v>
+      </c>
+      <c r="C249" t="s">
+        <v>533</v>
+      </c>
+      <c r="D249" t="s">
+        <v>565</v>
+      </c>
+      <c r="E249" t="s">
+        <v>214</v>
+      </c>
+      <c r="F249" t="s">
+        <v>542</v>
+      </c>
+      <c r="G249">
+        <v>469270</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>21</v>
+      </c>
+      <c r="B250" t="s">
+        <v>543</v>
+      </c>
+      <c r="C250" t="s">
+        <v>533</v>
+      </c>
+      <c r="D250" t="s">
+        <v>557</v>
+      </c>
+      <c r="E250" t="s">
+        <v>215</v>
+      </c>
+      <c r="F250" t="s">
+        <v>544</v>
+      </c>
+      <c r="G250">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>22</v>
+      </c>
+      <c r="B251" t="s">
+        <v>545</v>
+      </c>
+      <c r="C251" t="s">
+        <v>546</v>
+      </c>
+      <c r="D251" t="s">
+        <v>561</v>
+      </c>
+      <c r="E251" t="s">
+        <v>215</v>
+      </c>
+      <c r="F251" t="s">
+        <v>547</v>
+      </c>
+      <c r="G251">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>23</v>
+      </c>
+      <c r="B252" t="s">
+        <v>548</v>
+      </c>
+      <c r="C252" t="s">
+        <v>546</v>
+      </c>
+      <c r="D252" t="s">
+        <v>559</v>
+      </c>
+      <c r="E252" t="s">
+        <v>215</v>
+      </c>
+      <c r="F252" t="s">
+        <v>549</v>
+      </c>
+      <c r="G252">
+        <v>40340</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>24</v>
+      </c>
+      <c r="B253" t="s">
+        <v>550</v>
+      </c>
+      <c r="C253" t="s">
+        <v>546</v>
+      </c>
+      <c r="D253" t="s">
+        <v>557</v>
+      </c>
+      <c r="E253" t="s">
+        <v>214</v>
+      </c>
+      <c r="F253" t="s">
+        <v>544</v>
+      </c>
+      <c r="G253">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>25</v>
+      </c>
+      <c r="B254" t="s">
+        <v>551</v>
+      </c>
+      <c r="C254" t="s">
+        <v>546</v>
+      </c>
+      <c r="D254" t="s">
+        <v>558</v>
+      </c>
+      <c r="E254" t="s">
+        <v>214</v>
+      </c>
+      <c r="F254" t="s">
+        <v>552</v>
+      </c>
+      <c r="G254">
+        <v>63580</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>26</v>
+      </c>
+      <c r="B255" t="s">
+        <v>553</v>
+      </c>
+      <c r="C255" t="s">
+        <v>546</v>
+      </c>
+      <c r="D255" t="s">
+        <v>562</v>
+      </c>
+      <c r="E255" t="s">
+        <v>214</v>
+      </c>
+      <c r="F255" t="s">
+        <v>544</v>
+      </c>
+      <c r="G255">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>27</v>
+      </c>
+      <c r="B256" t="s">
+        <v>554</v>
+      </c>
+      <c r="C256" t="s">
+        <v>546</v>
+      </c>
+      <c r="D256" t="s">
+        <v>561</v>
+      </c>
+      <c r="E256" t="s">
+        <v>215</v>
+      </c>
+      <c r="F256" t="s">
+        <v>524</v>
+      </c>
+      <c r="G256">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>28</v>
+      </c>
+      <c r="B257" t="s">
+        <v>555</v>
+      </c>
+      <c r="C257" t="s">
+        <v>546</v>
+      </c>
+      <c r="D257" t="s">
+        <v>559</v>
+      </c>
+      <c r="E257" t="s">
+        <v>215</v>
+      </c>
+      <c r="F257" t="s">
+        <v>556</v>
+      </c>
+      <c r="G257">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B261" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>296</v>
+      </c>
+      <c r="B264" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>346</v>
+      </c>
+      <c r="B265" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="B266" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A240" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B241" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B242" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B243" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>297</v>
-      </c>
-      <c r="B244" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>358</v>
-      </c>
-      <c r="B245" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>359</v>
-      </c>
-      <c r="B246" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>360</v>
-      </c>
-      <c r="B247" t="s">
+      <c r="B267" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4789,48 +6053,48 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="H2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="I2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="M2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="O2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4838,10 +6102,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4853,22 +6117,22 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="O3" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4876,10 +6140,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4891,22 +6155,22 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="O4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -4914,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4929,13 +6193,13 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -4944,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -4952,10 +6216,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4967,22 +6231,22 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="M6" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="N6" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="O6" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -4990,10 +6254,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5005,53 +6269,53 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="J14" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" t="s">
         <v>294</v>
       </c>
-      <c r="B15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C15" t="s">
-        <v>295</v>
-      </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E15" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="J15" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="K15" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="L15" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="M15" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="N15" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -5071,13 +6335,13 @@
         <v>9999</v>
       </c>
       <c r="K16" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="L16" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="M16" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -5088,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D17">
         <v>1000</v>
@@ -5100,13 +6364,13 @@
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="L17" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="M17" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -5114,10 +6378,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D18">
         <v>1500</v>
@@ -5126,13 +6390,13 @@
         <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="L18" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="M18" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -5140,10 +6404,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D19">
         <v>500</v>
@@ -5152,7 +6416,7 @@
         <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -5160,10 +6424,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C20" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -5172,7 +6436,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -5180,10 +6444,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C21" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -5192,31 +6456,31 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C26" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D26" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -5280,40 +6544,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C9" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/WebContent/hsw/상품 데이터.xlsx
+++ b/WebContent/hsw/상품 데이터.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="728">
   <si>
     <t>컴퓨터 부품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,81 +1138,1261 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gpu02</t>
+  </si>
+  <si>
+    <t>gpu03</t>
+  </si>
+  <si>
+    <t>gpu04</t>
+  </si>
+  <si>
+    <t>gpu05</t>
+  </si>
+  <si>
+    <t>gpu06</t>
+  </si>
+  <si>
+    <t>gpu07</t>
+  </si>
+  <si>
+    <t>gpu08</t>
+  </si>
+  <si>
+    <t>gpu09</t>
+  </si>
+  <si>
+    <t>gpu10</t>
+  </si>
+  <si>
+    <t>gpu11</t>
+  </si>
+  <si>
+    <t>gpu12</t>
+  </si>
+  <si>
+    <t>gpu13</t>
+  </si>
+  <si>
+    <t>gpu14</t>
+  </si>
+  <si>
+    <t>gpu15</t>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크 용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크 용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정격 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 전원커넥터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이스 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD 전용 베이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms02</t>
+  </si>
+  <si>
+    <t>ms03</t>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품 및 조립 컴퓨터를 판매하는 사이트를 운영한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터는 컴퓨터 부품으로 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 컴퓨터 부품으로 컴퓨터 견적을 미리 작성할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터는 다양한 용도로 나누어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격을 보여준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리 조립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호(시퀀스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동견적1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매컴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립컴 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate Maxtor Z1 SSD(240GB)</t>
+  </si>
+  <si>
+    <t>Seagate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5'' SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 바라쿠다 120 SSD(1TB)</t>
+  </si>
+  <si>
+    <t>1TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 바라쿠다 120 SSD(2TB)</t>
+  </si>
+  <si>
+    <t>Seagate 바라쿠다 120 SSD(250GB)</t>
+  </si>
+  <si>
+    <t>Seagate 바라쿠다 120 SSD(500GB)</t>
+  </si>
+  <si>
+    <t>Seagate 파이어쿠다 520 M.2 SSD(1TB)</t>
+  </si>
+  <si>
+    <t>Seagate 파이어쿠다 520 M.2 SSD(500GB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue 3D SSD(1TB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue 3D SSD(250GB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue 3D SSD(500GB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue SN550 M.2 2280(1TB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue SN550 M.2 2280(500GB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Green SSD(120GB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Green SSD(240GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial BX500 (120GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial BX500 (240GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial MX500 (1TB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial MX500 (250GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial MX500 (500GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial MX500 M.2 2280 (250GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial P1 M.2 2280 (500GB)</t>
+  </si>
+  <si>
+    <t>삼성전자 860 EVO(1TB)</t>
+  </si>
+  <si>
+    <t>2TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자 860 EVO(250GB)</t>
+  </si>
+  <si>
+    <t>삼성전자 860 EVO(500GB)</t>
+  </si>
+  <si>
+    <t>삼성전자 970 EVO M.2 2280(1TB)</t>
+  </si>
+  <si>
+    <t>삼성전자 970 EVO M.2 2280(500GB)</t>
+  </si>
+  <si>
+    <t>삼성전자 970 EVO Plus M.2 2280(1TB)</t>
+  </si>
+  <si>
+    <t>삼성전자 970 EVO Plus M.2 2280(500GB)</t>
+  </si>
+  <si>
+    <t>GeIL DDR4 16G PC4-25600 CL16 EVO X II AMD Gray RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>GeIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeIL DDR4 16G PC4-25600 CL16 SUPER LUCE RGB Sync 블랙 (8Gx2)</t>
+  </si>
+  <si>
+    <t>TeamGroup DDR4 8G PC4-25600 Elite</t>
+  </si>
+  <si>
+    <t>TeamGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 8G PC4-21300 CL16 Delta RGB 화이트</t>
+  </si>
+  <si>
+    <t>TeamGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 16G PC4-25600 CL16 Delta RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 16G PC4-25600 CL16 Delta RGB 화이트 (8Gx2)</t>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 16G PC4-25600 CL16 XTREEM ARGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 32G PC4-25600 CL16 Delta RGB (16Gx2)</t>
+  </si>
+  <si>
+    <t>TeamGroup T-Force DDR4 32G PC4-25600 CL16 Delta RGB 화이트 (16Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 8G PC4-21300 CL16 SPECTRIX D41 크림슨 레드</t>
+  </si>
+  <si>
+    <t>ADATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-21300 CL16 SPECTRIX D41 크림슨 레드 (8Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-25600 CL16 SPECTRIX D60G RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-25600 CL16 SPECTRIX D80 레드 (8Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-28800 CL17 SPECTRIX D60G RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-28800 CL17 SPECTRIX D80 레드 (8Gx2)</t>
+  </si>
+  <si>
+    <t>ADATA XPG DDR4 16G PC4-33000 CL19-19-19 SPECTRIX D60G RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>GeIL DDR4 4G PC4-21300 CL19 PRISTINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeIL DDR4 8G PC4-19200 CL17 PRISTINE</t>
+  </si>
+  <si>
+    <t>GeIL DDR4 8G PC4-21300 CL19 PRISTINE</t>
+  </si>
+  <si>
+    <t>GeIL DDR4 8G PC4-24000 CL16 EVO SPEAR</t>
+  </si>
+  <si>
+    <t>GeIL DDR4 8G PC4-25600 CL22 PRISTINE</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial Ballistix DDR4 16G PC4-21300 CL16 Tactical Tracer RGB (8Gx2)</t>
+  </si>
+  <si>
+    <t>마이크론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크론 Crucial Ballistix DDR4 16G PC4-25600 CL16 RGB Red (8Gx2)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial Ballistix DDR4 16G PC4-25600 CL16 RGB White (8Gx2)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial DDR4 8G PC4-21300 CL19</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR3 8G PC3-12800(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 4G PC4-21300(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 8G PC4-19200(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 8G PC4-21300(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 16G PC4-19200(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 16G PC4-21300(정품)</t>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 32G PC4-21300(정품)</t>
+  </si>
+  <si>
+    <t>3,600MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,133MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP HEXA 85+ 550W 80PLUS BRONZE 프리볼트</t>
+  </si>
+  <si>
+    <t>FSP</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP HEXA 85+ 650W 80PLUS BRONZE 프리볼트</t>
+  </si>
+  <si>
+    <t>FSP HYDRO PRO 600W 80PLUS Bronze 230V EU</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP HYDRO PRO 700W 80PLUS Bronze 230V EU</t>
+  </si>
+  <si>
+    <t>FSP HYPER K 500W 80PLUS Standard 230V EU</t>
+  </si>
+  <si>
+    <t>스탠다드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP HYPER K 600W 80PLUS Standard 230V EU</t>
+  </si>
+  <si>
+    <t>FSP HYPER K 700W 80PLUS Standard 230V EU</t>
+  </si>
+  <si>
+    <t>마이크로닉스 ASTRO GD 750W 80PLUS GOLD 풀모듈러 FDB</t>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 500W +12V Single Rail 85+</t>
+  </si>
+  <si>
+    <t>마이크로닉스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠다드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 600W +12V Single Rail 85+</t>
+  </si>
+  <si>
+    <t>스탠다드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 650W 80PLUS Bronze 230V EU HDB PINK</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 650W 80PLUS Bronze 230V EU HDB</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 700W +12V Single Rail 85+</t>
+  </si>
+  <si>
+    <t>스탠다드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic II 800W 80PLUS 230V EU</t>
+  </si>
+  <si>
+    <t>시소닉 CORE GOLD GX-650 Full Modular</t>
+  </si>
+  <si>
+    <t>시소닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시소닉 FOCUS GOLD GX-650 Full Modular</t>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시소닉 FOCUS GOLD GX-750 Full Modular</t>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시소닉 FOCUS GOLD GX-850 Full Modular</t>
+  </si>
+  <si>
+    <t>시소닉 PRIME GOLD GX-1000 Full Modular</t>
+  </si>
+  <si>
+    <t>시소닉 PRIME TITANIUM TX-1000 Full Modular</t>
+  </si>
+  <si>
+    <t>티타늄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시소닉 S12III Bronze SSR-550GB3 Single Rail</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘만 EcoMax 500W 83+</t>
+  </si>
+  <si>
+    <t>잘만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘만 EcoMax 600W 83+</t>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘만 GigaMax 550W 80PLUS Bronze 230V EU</t>
+  </si>
+  <si>
+    <t>잘만 GigaMax 650W 80PLUS Bronze 230V EU</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘만 GigaMax 750W 80PLUS Bronze 230V EU</t>
+  </si>
+  <si>
+    <t>잘만 MegaMax 500W 80PLUS STANDARD</t>
+  </si>
+  <si>
+    <t>잘만 MegaMax 600W 80PLUS STANDARD</t>
+  </si>
+  <si>
+    <t>스탠다드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>550W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>850W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD RYZEN 3 2200G (레이븐 릿지)(정품)</t>
+  </si>
+  <si>
+    <t>AMD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼드(4)코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 ~ 3.99 GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD RYZEN 3 3200G (피카소)(정품)</t>
+  </si>
+  <si>
+    <t>AMD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD(라이젠 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼드(4)코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD RYZEN 5 3500 (마티스)(멀티팩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD(라이젠 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헥사(6)코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 ~ 3.99 GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD RYZEN 5 3500X (마티스)(멀티팩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD RYZEN 5 3600 (마티스)(정품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD(라이젠 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헥사(6)코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD RYZEN 7 3700X (마티스)(정품)</t>
+  </si>
+  <si>
+    <t>AMD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD(라이젠 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD RYZEN 9 3900X (마티스)(정품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD(라이젠 8)</t>
+  </si>
+  <si>
+    <t>인텔 코어i3-9세대 9100F (커피레이크-R)(정품)</t>
+  </si>
+  <si>
+    <t>3.5 ~ 3.99 GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인텔 코어i5-9세대 9400F (커피레이크-R)(정품)</t>
+  </si>
+  <si>
+    <t>헥사(6)코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인텔 코어i5-9세대 9600KF (커피레이크-R)(정품)</t>
+  </si>
+  <si>
+    <t>헥사(6)코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인텔 코어i7-9세대 9700F (커피레이크-R)(정품)</t>
+  </si>
+  <si>
+    <t>인텔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥타(8)코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인텔 코어i7-9세대 9700K (커피레이크-R) (정품)</t>
+  </si>
+  <si>
+    <t>인텔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥타(8)코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인텔 코어i9-9세대 9900K (커피레이크-R)(정품)</t>
+  </si>
+  <si>
+    <t>인텔(코어i9-9세대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥타(8)코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인텔 코어X-시리즈 i9-10900X (캐스케이드레이크)(정품)</t>
+  </si>
+  <si>
+    <t>인텔(코어X-시리즈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASRock 라데온 RX 5700 CHALLENGER D OC D6 8GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS ROG STRIX 라데온 RX 5700 O8G GAMING D6 8GB</t>
+  </si>
+  <si>
+    <t>ASUS ROG STRIX 라데온 RX 5700 XT O8G GAMING D6 8GB</t>
+  </si>
+  <si>
+    <t>ASUS ROG STRIX 지포스 RTX 2080 Ti O11G GAMING D6 11GB</t>
+  </si>
+  <si>
+    <t>ASUS TURBO 지포스 RTX 2080 Ti D6 11GB</t>
+  </si>
+  <si>
+    <t>EVGA 지포스 RTX 2080 Ti FTW3 ULTRA GAMING D6 11GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS 지포스 RTX 2080 D6 8GB</t>
+  </si>
+  <si>
+    <t>GIGABYTE 라데온 RX 5700 D6 8GB</t>
+  </si>
+  <si>
+    <t>GIGABYTE 라데온 RX 5700 Gaming OC D6 8GB</t>
+  </si>
+  <si>
+    <t>GIGABYTE 지포스 GTX 1660 Ti UDV OC D6 6GB</t>
+  </si>
+  <si>
+    <t>GIGABYTE 지포스 RTX 2060 UDV OC D6 6GB</t>
+  </si>
+  <si>
+    <t>MSI 라데온 RX 5700 XT 게이밍 X D6 8GB 트윈프로져7</t>
+  </si>
+  <si>
+    <t>MSI 라데온 RX 5700 XT 메크 OC D6 8GB</t>
+  </si>
+  <si>
+    <t>MSI 라데온 RX 5700 게이밍 X D6 8GB 트윈프로져7</t>
+  </si>
+  <si>
+    <t>MSI 라데온 RX 5700 메크 OC D6 8GB</t>
+  </si>
+  <si>
+    <t>gpu16</t>
+  </si>
+  <si>
+    <t>MSI 지포스 GTX 1660 Ti 벤투스 S D6 6GB</t>
+  </si>
+  <si>
+    <t>gpu17</t>
+  </si>
+  <si>
+    <t>MSI 지포스 RTX 2060 벤투스 S OC D6 6GB</t>
+  </si>
+  <si>
+    <t>gpu18</t>
+  </si>
+  <si>
+    <t>MSI 지포스 RTX 2080 Ti 게이밍 X 트리오 D6 11GB 트라이프로져</t>
+  </si>
+  <si>
+    <t>gpu19</t>
+  </si>
+  <si>
+    <t>MSI 지포스 RTX 2080 Ti 벤투스 GP D6 11GB</t>
+  </si>
+  <si>
+    <t>gpu20</t>
+  </si>
+  <si>
+    <t>MSI 지포스 RTX 2080 시호크 X D6 8GB</t>
+  </si>
+  <si>
+    <t>gpu21</t>
+  </si>
+  <si>
+    <t>SAPPHIRE 라데온 RX 5700 XT NITRO+ OC D6 8GB Tri-X</t>
+  </si>
+  <si>
+    <t>SAPPHIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu22</t>
+  </si>
+  <si>
+    <t>SAPPHIRE 라데온 RX 5700 XT NITRO+ Special Edition OC D6 8GB Tri-X</t>
+  </si>
+  <si>
+    <t>gpu23</t>
+  </si>
+  <si>
+    <t>ZOTAC GAMING 지포스 RTX 2080 AMP EXTREME D6 8GB</t>
+  </si>
+  <si>
+    <t>gpu24</t>
+  </si>
+  <si>
+    <t>이엠텍 HV 지포스 RTX 2060 STORM X Dual V2 OC D6 6GB</t>
+  </si>
+  <si>
+    <t>gpu25</t>
+  </si>
+  <si>
+    <t>이엠텍 XENON 지포스 GTX 1660 Ti STORM X Dual D6 6GB WHITE</t>
+  </si>
+  <si>
+    <t>gpu26</t>
+  </si>
+  <si>
+    <t>이엠텍 XENON 지포스 GTX 1660 Ti STORM X Dual OC D6 6GB WHITE</t>
+  </si>
+  <si>
+    <t>gpu27</t>
+  </si>
+  <si>
+    <t>이엠텍 지포스 RTX 2060 MIRACLE D6 6GB</t>
+  </si>
+  <si>
+    <t>gpu28</t>
+  </si>
+  <si>
+    <t>이엠텍 지포스 RTX 2060 STORM X Dual OC D6 6GB</t>
+  </si>
+  <si>
+    <t>gpu29</t>
+  </si>
+  <si>
+    <t>이엠텍 지포스 RTX 2080 Ti BLACK EDITION V2 OC D6 11GB</t>
+  </si>
+  <si>
+    <t>gpu30</t>
+  </si>
+  <si>
+    <t>이엠텍 지포스 RTX 2080 Ti D6 11GB BLOWER</t>
+  </si>
+  <si>
     <t>gpu01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gpu02</t>
-  </si>
-  <si>
-    <t>gpu03</t>
-  </si>
-  <si>
-    <t>gpu04</t>
-  </si>
-  <si>
-    <t>gpu05</t>
-  </si>
-  <si>
-    <t>gpu06</t>
-  </si>
-  <si>
-    <t>gpu07</t>
-  </si>
-  <si>
-    <t>gpu08</t>
-  </si>
-  <si>
-    <t>gpu09</t>
-  </si>
-  <si>
-    <t>gpu10</t>
-  </si>
-  <si>
-    <t>gpu11</t>
-  </si>
-  <si>
-    <t>gpu12</t>
-  </si>
-  <si>
-    <t>gpu13</t>
-  </si>
-  <si>
-    <t>gpu14</t>
-  </si>
-  <si>
-    <t>gpu15</t>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스크 용량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스크 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스크 용량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd02</t>
+    <t>ASUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAPPHIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZOTAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이엠텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 1TB BarraCuda ST1000DM010 (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 2TB BarraCuda ST2000DM008 (SATA3/7200/256M)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1220,19 +2400,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Seagate 3TB BarraCuda ST3000DM007 (SATA3/5400/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hdd04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Seagate 4TB BarraCuda ST4000DM004 (SATA3/5400/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hdd05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hdd06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdd07</t>
+    <t>Seagate 4TB IronWolf Pro ST4000NE001 (SATA3/7200/128M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 4TB IronWolf ST4000VN008 (SATA3/5900/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 8TB BarraCuda ST8000DM004 (SATA3/5400/256M)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1240,35 +2436,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Toshiba 1TB P300 HDWD110 (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toshiva</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hdd09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Toshiba 2TB P300 HDWD120 (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hdd10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정격 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 전원커넥터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이스 크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSD 전용 베이</t>
+    <t>Toshiba 3TB DT01ACA300 (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd11</t>
+  </si>
+  <si>
+    <t>Toshiba 3TB P300 HDWD130 (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toshiva</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd12</t>
+  </si>
+  <si>
+    <t>Toshiba 4TB N300 HDWQ140 (SATA3/7200/128M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd13</t>
+  </si>
+  <si>
+    <t>Toshiba 4TB X300 HDWE140 (SATA3/7200/128M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd14</t>
+  </si>
+  <si>
+    <t>Toshiba 10TB X300 HDWR11A (SATA3/7200/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd15</t>
+  </si>
+  <si>
+    <t>Western Digital 4TB Ultrastar DC HC310 HUS726T4TALA6L4 패키지 (SATA3/7200/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd16</t>
+  </si>
+  <si>
+    <t>Western Digital 10TB Ultrastar DC HC330 WUS721010ALE6L4 (SATA3/7200/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd17</t>
+  </si>
+  <si>
+    <t>Western Digital 12TB Ultrastar DC HC520 HUH721212ALE600 패키지 (SATA3/7200/256M/2PACK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd18</t>
+  </si>
+  <si>
+    <t>Western Digital WD 1TB BLUE WD10EZEX (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd19</t>
+  </si>
+  <si>
+    <t>Western Digital WD 2TB BLUE WD20EZAZ (SATA3/5400/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd20</t>
+  </si>
+  <si>
+    <t>Western Digital WD 4TB BLUE WD40EZRZ (SATA3/5400/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd21</t>
+  </si>
+  <si>
+    <t>Western Digital WD 4TB Red WD40EFRX (SATA3/5400/64M)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1276,838 +2549,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ABKO NCORE 미라클 강화유리 LUMIA</t>
+  </si>
+  <si>
+    <t>ABKO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미들타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ca02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ABKO NCORE 새턴 풀 아크릴 슬렌더</t>
+  </si>
+  <si>
     <t>ca03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ABKO NCORE 식스팬 풀 아크릴 LUNAR(블랙)</t>
+  </si>
+  <si>
+    <t>ABKO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ca04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ca05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ABKO NCORE 아수라 풀 아크릴</t>
+  </si>
+  <si>
+    <t>미들타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABKO SUITMASTER 322S 인테이커 강화유리 스펙트럼 Dualight</t>
   </si>
   <si>
     <t>ca06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ca07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ABKO SUITMASTER 361G 칼리스토 강화유리 DOUBLING</t>
+  </si>
+  <si>
+    <t>ABKO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COX A3 그랜드 메쉬 강화유리 Duplex</t>
+  </si>
+  <si>
+    <t>COX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COX A3 엘리시움 풀 아크릴 HALO</t>
   </si>
   <si>
     <t>ca09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ca10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms02</t>
-  </si>
-  <si>
-    <t>ms03</t>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립 컴퓨터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터 부품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립 컴퓨터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴부품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터 부품 및 조립 컴퓨터를 판매하는 사이트를 운영한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립 컴퓨터는 컴퓨터 부품으로 만든다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원은 컴퓨터 부품으로 컴퓨터 견적을 미리 작성할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립 컴퓨터는 다양한 용도로 나누어진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격을 보여준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미리 조립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호(시퀀스)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동견적1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매컴1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조립컴 상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seagate Maxtor Z1 SSD(240GB)</t>
-  </si>
-  <si>
-    <t>Seagate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5'' SSD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seagate 바라쿠다 120 SSD(1TB)</t>
-  </si>
-  <si>
-    <t>1TB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seagate 바라쿠다 120 SSD(2TB)</t>
-  </si>
-  <si>
-    <t>Seagate 바라쿠다 120 SSD(250GB)</t>
-  </si>
-  <si>
-    <t>Seagate 바라쿠다 120 SSD(500GB)</t>
-  </si>
-  <si>
-    <t>Seagate 파이어쿠다 520 M.2 SSD(1TB)</t>
-  </si>
-  <si>
-    <t>Seagate 파이어쿠다 520 M.2 SSD(500GB)</t>
-  </si>
-  <si>
-    <t>Western Digital WD Blue 3D SSD(1TB)</t>
-  </si>
-  <si>
-    <t>Western Digital WD Blue 3D SSD(250GB)</t>
-  </si>
-  <si>
-    <t>Western Digital WD Blue 3D SSD(500GB)</t>
-  </si>
-  <si>
-    <t>Western Digital WD Blue SN550 M.2 2280(1TB)</t>
-  </si>
-  <si>
-    <t>Western Digital WD Blue SN550 M.2 2280(500GB)</t>
-  </si>
-  <si>
-    <t>Western Digital WD Green SSD(120GB)</t>
-  </si>
-  <si>
-    <t>Western Digital WD Green SSD(240GB)</t>
-  </si>
-  <si>
-    <t>마이크론 Crucial BX500 (120GB)</t>
-  </si>
-  <si>
-    <t>마이크론 Crucial BX500 (240GB)</t>
-  </si>
-  <si>
-    <t>마이크론 Crucial MX500 (1TB)</t>
-  </si>
-  <si>
-    <t>마이크론 Crucial MX500 (250GB)</t>
-  </si>
-  <si>
-    <t>마이크론 Crucial MX500 (500GB)</t>
-  </si>
-  <si>
-    <t>마이크론 Crucial MX500 M.2 2280 (250GB)</t>
-  </si>
-  <si>
-    <t>마이크론 Crucial P1 M.2 2280 (500GB)</t>
-  </si>
-  <si>
-    <t>삼성전자 860 EVO(1TB)</t>
-  </si>
-  <si>
-    <t>2TB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전자 860 EVO(250GB)</t>
-  </si>
-  <si>
-    <t>삼성전자 860 EVO(500GB)</t>
-  </si>
-  <si>
-    <t>삼성전자 970 EVO M.2 2280(1TB)</t>
-  </si>
-  <si>
-    <t>삼성전자 970 EVO M.2 2280(500GB)</t>
-  </si>
-  <si>
-    <t>삼성전자 970 EVO Plus M.2 2280(1TB)</t>
-  </si>
-  <si>
-    <t>삼성전자 970 EVO Plus M.2 2280(500GB)</t>
-  </si>
-  <si>
-    <t>GeIL DDR4 16G PC4-25600 CL16 EVO X II AMD Gray RGB (8Gx2)</t>
-  </si>
-  <si>
-    <t>GeIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GeIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GeIL DDR4 16G PC4-25600 CL16 SUPER LUCE RGB Sync 블랙 (8Gx2)</t>
-  </si>
-  <si>
-    <t>TeamGroup DDR4 8G PC4-25600 Elite</t>
-  </si>
-  <si>
-    <t>TeamGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeamGroup T-Force DDR4 8G PC4-21300 CL16 Delta RGB 화이트</t>
-  </si>
-  <si>
-    <t>TeamGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeamGroup T-Force DDR4 16G PC4-25600 CL16 Delta RGB (8Gx2)</t>
-  </si>
-  <si>
-    <t>TeamGroup T-Force DDR4 16G PC4-25600 CL16 Delta RGB 화이트 (8Gx2)</t>
-  </si>
-  <si>
-    <t>TeamGroup T-Force DDR4 16G PC4-25600 CL16 XTREEM ARGB (8Gx2)</t>
-  </si>
-  <si>
-    <t>TeamGroup T-Force DDR4 32G PC4-25600 CL16 Delta RGB (16Gx2)</t>
-  </si>
-  <si>
-    <t>TeamGroup T-Force DDR4 32G PC4-25600 CL16 Delta RGB 화이트 (16Gx2)</t>
-  </si>
-  <si>
-    <t>ADATA XPG DDR4 8G PC4-21300 CL16 SPECTRIX D41 크림슨 레드</t>
-  </si>
-  <si>
-    <t>ADATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADATA XPG DDR4 16G PC4-21300 CL16 SPECTRIX D41 크림슨 레드 (8Gx2)</t>
-  </si>
-  <si>
-    <t>ADATA XPG DDR4 16G PC4-25600 CL16 SPECTRIX D60G RGB (8Gx2)</t>
-  </si>
-  <si>
-    <t>ADATA XPG DDR4 16G PC4-25600 CL16 SPECTRIX D80 레드 (8Gx2)</t>
-  </si>
-  <si>
-    <t>ADATA XPG DDR4 16G PC4-28800 CL17 SPECTRIX D60G RGB (8Gx2)</t>
-  </si>
-  <si>
-    <t>ADATA XPG DDR4 16G PC4-28800 CL17 SPECTRIX D80 레드 (8Gx2)</t>
-  </si>
-  <si>
-    <t>ADATA XPG DDR4 16G PC4-33000 CL19-19-19 SPECTRIX D60G RGB (8Gx2)</t>
-  </si>
-  <si>
-    <t>GeIL DDR4 4G PC4-21300 CL19 PRISTINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GeIL DDR4 8G PC4-19200 CL17 PRISTINE</t>
-  </si>
-  <si>
-    <t>GeIL DDR4 8G PC4-21300 CL19 PRISTINE</t>
-  </si>
-  <si>
-    <t>GeIL DDR4 8G PC4-24000 CL16 EVO SPEAR</t>
-  </si>
-  <si>
-    <t>GeIL DDR4 8G PC4-25600 CL22 PRISTINE</t>
-  </si>
-  <si>
-    <t>마이크론 Crucial Ballistix DDR4 16G PC4-21300 CL16 Tactical Tracer RGB (8Gx2)</t>
-  </si>
-  <si>
-    <t>마이크론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크론 Crucial Ballistix DDR4 16G PC4-25600 CL16 RGB Red (8Gx2)</t>
-  </si>
-  <si>
-    <t>마이크론 Crucial Ballistix DDR4 16G PC4-25600 CL16 RGB White (8Gx2)</t>
-  </si>
-  <si>
-    <t>마이크론 Crucial DDR4 8G PC4-21300 CL19</t>
-  </si>
-  <si>
-    <t>삼성전자 DDR3 8G PC3-12800(정품)</t>
-  </si>
-  <si>
-    <t>삼성전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전자 DDR4 4G PC4-21300(정품)</t>
-  </si>
-  <si>
-    <t>삼성전자 DDR4 8G PC4-19200(정품)</t>
-  </si>
-  <si>
-    <t>삼성전자 DDR4 8G PC4-21300(정품)</t>
-  </si>
-  <si>
-    <t>삼성전자 DDR4 16G PC4-19200(정품)</t>
-  </si>
-  <si>
-    <t>삼성전자 DDR4 16G PC4-21300(정품)</t>
-  </si>
-  <si>
-    <t>삼성전자 DDR4 32G PC4-21300(정품)</t>
-  </si>
-  <si>
-    <t>3,600MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,133MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSP HEXA 85+ 550W 80PLUS BRONZE 프리볼트</t>
-  </si>
-  <si>
-    <t>FSP</t>
-  </si>
-  <si>
-    <t>브론즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSP HEXA 85+ 650W 80PLUS BRONZE 프리볼트</t>
-  </si>
-  <si>
-    <t>FSP HYDRO PRO 600W 80PLUS Bronze 230V EU</t>
-  </si>
-  <si>
-    <t>브론즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSP HYDRO PRO 700W 80PLUS Bronze 230V EU</t>
-  </si>
-  <si>
-    <t>FSP HYPER K 500W 80PLUS Standard 230V EU</t>
-  </si>
-  <si>
-    <t>스탠다드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSP HYPER K 600W 80PLUS Standard 230V EU</t>
-  </si>
-  <si>
-    <t>FSP HYPER K 700W 80PLUS Standard 230V EU</t>
-  </si>
-  <si>
-    <t>마이크로닉스 ASTRO GD 750W 80PLUS GOLD 풀모듈러 FDB</t>
-  </si>
-  <si>
-    <t>골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크로닉스 Classic II 500W +12V Single Rail 85+</t>
-  </si>
-  <si>
-    <t>마이크로닉스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠다드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크로닉스 Classic II 600W +12V Single Rail 85+</t>
-  </si>
-  <si>
-    <t>스탠다드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크로닉스 Classic II 650W 80PLUS Bronze 230V EU HDB PINK</t>
-  </si>
-  <si>
-    <t>브론즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크로닉스 Classic II 650W 80PLUS Bronze 230V EU HDB</t>
-  </si>
-  <si>
-    <t>브론즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크로닉스 Classic II 700W +12V Single Rail 85+</t>
-  </si>
-  <si>
-    <t>스탠다드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크로닉스 Classic II 800W 80PLUS 230V EU</t>
-  </si>
-  <si>
-    <t>시소닉 CORE GOLD GX-650 Full Modular</t>
-  </si>
-  <si>
-    <t>시소닉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시소닉 FOCUS GOLD GX-650 Full Modular</t>
-  </si>
-  <si>
-    <t>골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시소닉 FOCUS GOLD GX-750 Full Modular</t>
-  </si>
-  <si>
-    <t>골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시소닉 FOCUS GOLD GX-850 Full Modular</t>
-  </si>
-  <si>
-    <t>시소닉 PRIME GOLD GX-1000 Full Modular</t>
-  </si>
-  <si>
-    <t>시소닉 PRIME TITANIUM TX-1000 Full Modular</t>
-  </si>
-  <si>
-    <t>티타늄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시소닉 S12III Bronze SSR-550GB3 Single Rail</t>
-  </si>
-  <si>
-    <t>브론즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘만 EcoMax 500W 83+</t>
-  </si>
-  <si>
-    <t>잘만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘만 EcoMax 600W 83+</t>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘만 GigaMax 550W 80PLUS Bronze 230V EU</t>
-  </si>
-  <si>
-    <t>잘만 GigaMax 650W 80PLUS Bronze 230V EU</t>
-  </si>
-  <si>
-    <t>브론즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘만 GigaMax 750W 80PLUS Bronze 230V EU</t>
-  </si>
-  <si>
-    <t>잘만 MegaMax 500W 80PLUS STANDARD</t>
-  </si>
-  <si>
-    <t>잘만 MegaMax 600W 80PLUS STANDARD</t>
-  </si>
-  <si>
-    <t>스탠다드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>550W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>650W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>750W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>850W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>DAVEN FT903 MESH 강화유리</t>
+  </si>
+  <si>
+    <t>DAVEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAVEN 크리스탈 3.0 풀 아크릴</t>
+  </si>
+  <si>
+    <t>DAVEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대양케이스 FREEZER X 강화유리(블랙)</t>
+  </si>
+  <si>
+    <t>대양케이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca12</t>
+  </si>
+  <si>
+    <t>대양케이스 ME NO.8 RGB 강화유리</t>
+  </si>
+  <si>
+    <t>ca13</t>
+  </si>
+  <si>
+    <t>아이구주 G50SE 풀 아크릴</t>
+  </si>
+  <si>
+    <t>아이구주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca14</t>
+  </si>
+  <si>
+    <t>아이구주 Ssonny NO.7</t>
+  </si>
+  <si>
+    <t>ca15</t>
+  </si>
+  <si>
+    <t>잘만 N5 MF</t>
+  </si>
+  <si>
+    <t>ca16</t>
+  </si>
+  <si>
+    <t>잘만 N5 OF</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2129,6 +2691,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2165,11 +2734,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2474,16 +3050,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T267"/>
+  <dimension ref="A1:T298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:A126"/>
+      <selection activeCell="G275" sqref="G275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -2669,114 +3245,450 @@
         <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="J10" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="K10" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="L10" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>256</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>555</v>
+      </c>
+      <c r="G11" t="s">
+        <v>557</v>
+      </c>
+      <c r="H11" t="s">
+        <v>558</v>
+      </c>
+      <c r="I11" s="5">
+        <v>121890</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>257</v>
       </c>
+      <c r="B12" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>561</v>
+      </c>
+      <c r="F12" t="s">
+        <v>562</v>
+      </c>
+      <c r="G12" t="s">
+        <v>556</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>137280</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>258</v>
       </c>
+      <c r="B13" t="s">
+        <v>563</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>564</v>
+      </c>
+      <c r="F13" t="s">
+        <v>565</v>
+      </c>
+      <c r="G13" t="s">
+        <v>556</v>
+      </c>
+      <c r="H13" t="s">
+        <v>566</v>
+      </c>
+      <c r="I13">
+        <v>189350</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>259</v>
       </c>
+      <c r="B14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D14">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>565</v>
+      </c>
+      <c r="G14" t="s">
+        <v>556</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>204090</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>260</v>
       </c>
+      <c r="B15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>569</v>
+      </c>
+      <c r="F15" t="s">
+        <v>570</v>
+      </c>
+      <c r="G15" t="s">
+        <v>557</v>
+      </c>
+      <c r="H15" t="s">
+        <v>566</v>
+      </c>
+      <c r="I15">
+        <v>272830</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>571</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D16">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>573</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>556</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>438420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>574</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D17">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>575</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>556</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="6">
+        <v>702790</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>576</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>562</v>
+      </c>
+      <c r="G18" t="s">
+        <v>557</v>
+      </c>
+      <c r="H18" t="s">
+        <v>577</v>
+      </c>
+      <c r="I18">
+        <v>99170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>578</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>579</v>
+      </c>
+      <c r="G19" t="s">
+        <v>557</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>253800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>580</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>581</v>
+      </c>
+      <c r="G20" t="s">
+        <v>557</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20">
+        <v>265030</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>582</v>
+      </c>
+      <c r="C21" t="s">
+        <v>583</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>584</v>
+      </c>
+      <c r="G21" t="s">
+        <v>557</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>433790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>585</v>
+      </c>
+      <c r="C22" t="s">
+        <v>586</v>
+      </c>
+      <c r="D22">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>587</v>
+      </c>
+      <c r="G22" t="s">
+        <v>556</v>
+      </c>
+      <c r="H22" t="s">
+        <v>558</v>
+      </c>
+      <c r="I22">
+        <v>558660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>588</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>589</v>
+      </c>
+      <c r="F23" t="s">
+        <v>590</v>
+      </c>
+      <c r="G23" t="s">
+        <v>557</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>720330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>591</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>165</v>
+      </c>
+      <c r="E24" t="s">
+        <v>592</v>
+      </c>
+      <c r="F24" t="s">
+        <v>593</v>
+      </c>
+      <c r="G24" t="s">
+        <v>556</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <v>1340780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>275</v>
       </c>
@@ -2895,16 +3807,16 @@
         <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="J39" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="K39" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3129,16 +4041,16 @@
         <v>235</v>
       </c>
       <c r="H68" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I68" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="J68" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="K68" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3334,16 +4246,16 @@
         <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="H94" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="I94" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="J94" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -3351,10 +4263,10 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C95" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D95" t="s">
         <v>118</v>
@@ -3374,10 +4286,10 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C96" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D96" t="s">
         <v>118</v>
@@ -3397,10 +4309,10 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C97" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D97" t="s">
         <v>115</v>
@@ -3420,10 +4332,10 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C98" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D98" t="s">
         <v>115</v>
@@ -3443,13 +4355,13 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C99" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D99" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E99" t="s">
         <v>126</v>
@@ -3466,13 +4378,13 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C100" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D100" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E100" t="s">
         <v>126</v>
@@ -3489,13 +4401,13 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C101" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D101" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="E101" t="s">
         <v>126</v>
@@ -3512,10 +4424,10 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C102" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D102" t="s">
         <v>118</v>
@@ -3535,10 +4447,10 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C103" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D103" t="s">
         <v>119</v>
@@ -3558,10 +4470,10 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C104" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D104" t="s">
         <v>118</v>
@@ -3581,10 +4493,10 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C105" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D105" t="s">
         <v>116</v>
@@ -3604,10 +4516,10 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="C106" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D106" t="s">
         <v>115</v>
@@ -3627,10 +4539,10 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C107" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D107" t="s">
         <v>115</v>
@@ -3650,10 +4562,10 @@
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C108" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D108" t="s">
         <v>115</v>
@@ -3673,10 +4585,10 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C109" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D109" t="s">
         <v>115</v>
@@ -3696,10 +4608,10 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C110" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D110" t="s">
         <v>118</v>
@@ -3719,10 +4631,10 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C111" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D111" t="s">
         <v>115</v>
@@ -3742,10 +4654,10 @@
         <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C112" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D112" t="s">
         <v>115</v>
@@ -3765,10 +4677,10 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C113" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D113" t="s">
         <v>115</v>
@@ -3788,10 +4700,10 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C114" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D114" t="s">
         <v>115</v>
@@ -3811,10 +4723,10 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C115" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D115" t="s">
         <v>115</v>
@@ -3834,10 +4746,10 @@
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C116" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D116" t="s">
         <v>118</v>
@@ -3857,10 +4769,10 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C117" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D117" t="s">
         <v>115</v>
@@ -3880,10 +4792,10 @@
         <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C118" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D118" t="s">
         <v>115</v>
@@ -3903,10 +4815,10 @@
         <v>25</v>
       </c>
       <c r="B119" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="C119" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D119" t="s">
         <v>118</v>
@@ -3926,10 +4838,10 @@
         <v>26</v>
       </c>
       <c r="B120" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="C120" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D120" t="s">
         <v>122</v>
@@ -3949,10 +4861,10 @@
         <v>27</v>
       </c>
       <c r="B121" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C121" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D121" t="s">
         <v>118</v>
@@ -3972,10 +4884,10 @@
         <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C122" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D122" t="s">
         <v>119</v>
@@ -3995,10 +4907,10 @@
         <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C123" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D123" t="s">
         <v>118</v>
@@ -4018,10 +4930,10 @@
         <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="C124" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D124" t="s">
         <v>119</v>
@@ -4041,10 +4953,10 @@
         <v>31</v>
       </c>
       <c r="B125" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C125" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D125" t="s">
         <v>118</v>
@@ -4064,10 +4976,10 @@
         <v>32</v>
       </c>
       <c r="B126" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C126" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D126" t="s">
         <v>118</v>
@@ -4144,1889 +5056,2959 @@
         <v>142</v>
       </c>
       <c r="E135" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F135" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="G135" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="H135" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>297</v>
+        <v>641</v>
+      </c>
+      <c r="B136" t="s">
+        <v>594</v>
+      </c>
+      <c r="C136" t="s">
+        <v>54</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136">
+        <v>430860</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="B137" t="s">
+        <v>595</v>
+      </c>
+      <c r="C137" t="s">
+        <v>642</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137">
+        <v>592000</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="B138" t="s">
+        <v>596</v>
+      </c>
+      <c r="C138" t="s">
+        <v>642</v>
+      </c>
+      <c r="D138" t="s">
+        <v>643</v>
+      </c>
+      <c r="E138">
+        <v>681000</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="B139" t="s">
+        <v>597</v>
+      </c>
+      <c r="C139" t="s">
+        <v>642</v>
+      </c>
+      <c r="D139" t="s">
+        <v>644</v>
+      </c>
+      <c r="E139">
+        <v>2093000</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="B140" t="s">
+        <v>598</v>
+      </c>
+      <c r="C140" t="s">
+        <v>136</v>
+      </c>
+      <c r="D140" t="s">
+        <v>139</v>
+      </c>
+      <c r="E140">
+        <v>1817000</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="B141" t="s">
+        <v>599</v>
+      </c>
+      <c r="C141" t="s">
+        <v>600</v>
+      </c>
+      <c r="D141" t="s">
+        <v>139</v>
+      </c>
+      <c r="E141">
+        <v>2090500</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="B142" t="s">
+        <v>601</v>
+      </c>
+      <c r="C142" t="s">
+        <v>57</v>
+      </c>
+      <c r="D142" t="s">
+        <v>139</v>
+      </c>
+      <c r="E142">
+        <v>1050280</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="B143" t="s">
+        <v>602</v>
+      </c>
+      <c r="C143" t="s">
+        <v>57</v>
+      </c>
+      <c r="D143" t="s">
+        <v>643</v>
+      </c>
+      <c r="E143">
+        <v>499440</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" t="s">
+        <v>603</v>
+      </c>
+      <c r="C144" t="s">
+        <v>57</v>
+      </c>
+      <c r="D144" t="s">
+        <v>643</v>
+      </c>
+      <c r="E144">
+        <v>516200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
+        <v>604</v>
+      </c>
+      <c r="C145" t="s">
+        <v>57</v>
+      </c>
+      <c r="D145" t="s">
+        <v>644</v>
+      </c>
+      <c r="E145">
+        <v>408940</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
+        <v>605</v>
+      </c>
+      <c r="C146" t="s">
+        <v>57</v>
+      </c>
+      <c r="D146" t="s">
+        <v>644</v>
+      </c>
+      <c r="E146">
+        <v>456980</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="B147" t="s">
+        <v>606</v>
+      </c>
+      <c r="C147" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147" t="s">
+        <v>643</v>
+      </c>
+      <c r="E147">
+        <v>549000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="B148" t="s">
+        <v>607</v>
+      </c>
+      <c r="C148" t="s">
+        <v>645</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148">
+        <v>469000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
+        <v>608</v>
+      </c>
+      <c r="C149" t="s">
+        <v>645</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149">
+        <v>458000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
+        <v>609</v>
+      </c>
+      <c r="C150" t="s">
+        <v>645</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150">
+        <v>399000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>610</v>
+      </c>
+      <c r="B151" t="s">
+        <v>611</v>
+      </c>
+      <c r="C151" t="s">
+        <v>56</v>
+      </c>
+      <c r="D151" t="s">
+        <v>139</v>
+      </c>
+      <c r="E151">
+        <v>384360</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>612</v>
+      </c>
+      <c r="B152" t="s">
+        <v>613</v>
+      </c>
+      <c r="C152" t="s">
+        <v>645</v>
+      </c>
+      <c r="D152" t="s">
+        <v>139</v>
+      </c>
+      <c r="E152">
+        <v>458100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>614</v>
+      </c>
+      <c r="B153" t="s">
+        <v>615</v>
+      </c>
+      <c r="C153" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" t="s">
+        <v>644</v>
+      </c>
+      <c r="E153">
+        <v>1809000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>616</v>
+      </c>
+      <c r="B154" t="s">
+        <v>617</v>
+      </c>
+      <c r="C154" t="s">
+        <v>56</v>
+      </c>
+      <c r="D154" t="s">
+        <v>139</v>
+      </c>
+      <c r="E154">
+        <v>1490000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>618</v>
+      </c>
+      <c r="B155" t="s">
+        <v>619</v>
+      </c>
+      <c r="C155" t="s">
+        <v>56</v>
+      </c>
+      <c r="D155" t="s">
+        <v>139</v>
+      </c>
+      <c r="E155">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>620</v>
+      </c>
+      <c r="B156" t="s">
+        <v>621</v>
+      </c>
+      <c r="C156" t="s">
+        <v>646</v>
+      </c>
+      <c r="D156" t="s">
+        <v>643</v>
+      </c>
+      <c r="E156">
+        <v>616760</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>623</v>
+      </c>
+      <c r="B157" t="s">
+        <v>624</v>
+      </c>
+      <c r="C157" t="s">
+        <v>622</v>
+      </c>
+      <c r="D157" t="s">
+        <v>643</v>
+      </c>
+      <c r="E157">
+        <v>639660</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>625</v>
+      </c>
+      <c r="B158" t="s">
+        <v>626</v>
+      </c>
+      <c r="C158" t="s">
+        <v>647</v>
+      </c>
+      <c r="D158" t="s">
+        <v>139</v>
+      </c>
+      <c r="E158">
+        <v>1106150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>627</v>
+      </c>
+      <c r="B159" t="s">
+        <v>628</v>
+      </c>
+      <c r="C159" t="s">
+        <v>132</v>
+      </c>
+      <c r="D159" t="s">
+        <v>644</v>
+      </c>
+      <c r="E159">
+        <v>460340</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>629</v>
+      </c>
+      <c r="B160" t="s">
+        <v>630</v>
+      </c>
+      <c r="C160" t="s">
+        <v>132</v>
+      </c>
+      <c r="D160" t="s">
+        <v>644</v>
+      </c>
+      <c r="E160">
+        <v>397770</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>631</v>
+      </c>
+      <c r="B161" t="s">
+        <v>632</v>
+      </c>
+      <c r="C161" t="s">
+        <v>132</v>
+      </c>
+      <c r="D161" t="s">
+        <v>644</v>
+      </c>
+      <c r="E161">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>633</v>
+      </c>
+      <c r="B162" t="s">
+        <v>634</v>
+      </c>
+      <c r="C162" t="s">
+        <v>648</v>
+      </c>
+      <c r="D162" t="s">
+        <v>139</v>
+      </c>
+      <c r="E162">
+        <v>456980</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>635</v>
+      </c>
+      <c r="B163" t="s">
+        <v>636</v>
+      </c>
+      <c r="C163" t="s">
+        <v>132</v>
+      </c>
+      <c r="D163" t="s">
+        <v>139</v>
+      </c>
+      <c r="E163">
+        <v>486030</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>637</v>
+      </c>
+      <c r="B164" t="s">
+        <v>638</v>
+      </c>
+      <c r="C164" t="s">
+        <v>132</v>
+      </c>
+      <c r="D164" t="s">
+        <v>139</v>
+      </c>
+      <c r="E164">
+        <v>1620000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>639</v>
+      </c>
+      <c r="B165" t="s">
+        <v>640</v>
+      </c>
+      <c r="C165" t="s">
+        <v>648</v>
+      </c>
+      <c r="D165" t="s">
+        <v>139</v>
+      </c>
+      <c r="E165">
+        <v>1531000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>146</v>
+      </c>
+      <c r="C168" t="s">
+        <v>147</v>
+      </c>
+      <c r="D168" t="s">
+        <v>148</v>
+      </c>
+      <c r="E168" t="s">
+        <v>149</v>
+      </c>
+      <c r="F168" t="s">
+        <v>150</v>
+      </c>
+      <c r="G168" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B169" t="s">
+        <v>151</v>
+      </c>
+      <c r="C169" t="s">
+        <v>152</v>
+      </c>
+      <c r="D169" t="s">
+        <v>153</v>
+      </c>
+      <c r="E169" t="s">
+        <v>154</v>
+      </c>
+      <c r="F169" t="s">
+        <v>155</v>
+      </c>
+      <c r="G169" t="s">
+        <v>156</v>
+      </c>
+      <c r="H169" t="s">
+        <v>157</v>
+      </c>
+      <c r="I169" t="s">
+        <v>158</v>
+      </c>
+      <c r="J169" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B170" t="s">
+        <v>53</v>
+      </c>
+      <c r="C170" t="s">
+        <v>160</v>
+      </c>
+      <c r="D170" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>296</v>
+      </c>
+      <c r="B173" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="C173" t="s">
         <v>6</v>
       </c>
-      <c r="B153" t="s">
-        <v>146</v>
-      </c>
-      <c r="C153" t="s">
-        <v>147</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="D173" t="s">
+        <v>312</v>
+      </c>
+      <c r="E173" t="s">
+        <v>313</v>
+      </c>
+      <c r="F173" t="s">
+        <v>336</v>
+      </c>
+      <c r="G173" t="s">
+        <v>337</v>
+      </c>
+      <c r="H173" t="s">
+        <v>339</v>
+      </c>
+      <c r="I173" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>413</v>
+      </c>
+      <c r="C174" t="s">
+        <v>414</v>
+      </c>
+      <c r="D174" t="s">
+        <v>415</v>
+      </c>
+      <c r="E174" t="s">
+        <v>416</v>
+      </c>
+      <c r="F174">
+        <v>54190</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175" t="s">
+        <v>417</v>
+      </c>
+      <c r="C175" t="s">
+        <v>414</v>
+      </c>
+      <c r="D175" t="s">
+        <v>418</v>
+      </c>
+      <c r="E175" t="s">
+        <v>416</v>
+      </c>
+      <c r="F175">
+        <v>184130</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>3</v>
+      </c>
+      <c r="B176" t="s">
+        <v>419</v>
+      </c>
+      <c r="C176" t="s">
+        <v>414</v>
+      </c>
+      <c r="D176" t="s">
+        <v>439</v>
+      </c>
+      <c r="E176" t="s">
+        <v>416</v>
+      </c>
+      <c r="F176">
+        <v>356760</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>420</v>
+      </c>
+      <c r="C177" t="s">
+        <v>414</v>
+      </c>
+      <c r="D177" t="s">
+        <v>440</v>
+      </c>
+      <c r="E177" t="s">
+        <v>416</v>
+      </c>
+      <c r="F177">
+        <v>68490</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>421</v>
+      </c>
+      <c r="C178" t="s">
+        <v>414</v>
+      </c>
+      <c r="D178" t="s">
+        <v>441</v>
+      </c>
+      <c r="E178" t="s">
+        <v>416</v>
+      </c>
+      <c r="F178">
+        <v>102460</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>422</v>
+      </c>
+      <c r="C179" t="s">
+        <v>414</v>
+      </c>
+      <c r="D179" t="s">
+        <v>418</v>
+      </c>
+      <c r="E179" t="s">
+        <v>446</v>
+      </c>
+      <c r="F179">
+        <v>389000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>423</v>
+      </c>
+      <c r="C180" t="s">
+        <v>414</v>
+      </c>
+      <c r="D180" t="s">
+        <v>441</v>
+      </c>
+      <c r="E180" t="s">
+        <v>446</v>
+      </c>
+      <c r="F180">
+        <v>199000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>424</v>
+      </c>
+      <c r="C181" t="s">
         <v>148</v>
       </c>
-      <c r="E153" t="s">
-        <v>149</v>
-      </c>
-      <c r="F153" t="s">
-        <v>150</v>
-      </c>
-      <c r="G153" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="D181" t="s">
+        <v>418</v>
+      </c>
+      <c r="E181" t="s">
+        <v>416</v>
+      </c>
+      <c r="F181">
+        <v>184360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>9</v>
+      </c>
+      <c r="B182" t="s">
+        <v>425</v>
+      </c>
+      <c r="C182" t="s">
+        <v>148</v>
+      </c>
+      <c r="D182" t="s">
+        <v>440</v>
+      </c>
+      <c r="E182" t="s">
+        <v>416</v>
+      </c>
+      <c r="F182">
+        <v>67040</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
+        <v>426</v>
+      </c>
+      <c r="C183" t="s">
+        <v>148</v>
+      </c>
+      <c r="D183" t="s">
+        <v>441</v>
+      </c>
+      <c r="E183" t="s">
+        <v>416</v>
+      </c>
+      <c r="F183">
+        <v>100560</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>11</v>
+      </c>
+      <c r="B184" t="s">
+        <v>427</v>
+      </c>
+      <c r="C184" t="s">
+        <v>148</v>
+      </c>
+      <c r="D184" t="s">
+        <v>418</v>
+      </c>
+      <c r="E184" t="s">
+        <v>446</v>
+      </c>
+      <c r="F184">
+        <v>184360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>12</v>
+      </c>
+      <c r="B185" t="s">
+        <v>428</v>
+      </c>
+      <c r="C185" t="s">
+        <v>148</v>
+      </c>
+      <c r="D185" t="s">
+        <v>441</v>
+      </c>
+      <c r="E185" t="s">
+        <v>446</v>
+      </c>
+      <c r="F185">
+        <v>105030</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>13</v>
+      </c>
+      <c r="B186" t="s">
+        <v>429</v>
+      </c>
+      <c r="C186" t="s">
+        <v>148</v>
+      </c>
+      <c r="D186" t="s">
+        <v>442</v>
+      </c>
+      <c r="E186" t="s">
+        <v>416</v>
+      </c>
+      <c r="F186">
+        <v>36870</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>14</v>
+      </c>
+      <c r="B187" t="s">
+        <v>430</v>
+      </c>
+      <c r="C187" t="s">
+        <v>148</v>
+      </c>
+      <c r="D187" t="s">
+        <v>443</v>
+      </c>
+      <c r="E187" t="s">
+        <v>416</v>
+      </c>
+      <c r="F187">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>15</v>
+      </c>
+      <c r="B188" t="s">
+        <v>431</v>
+      </c>
+      <c r="C188" t="s">
+        <v>112</v>
+      </c>
+      <c r="D188" t="s">
+        <v>444</v>
+      </c>
+      <c r="E188" t="s">
+        <v>416</v>
+      </c>
+      <c r="F188">
+        <v>37990</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>16</v>
+      </c>
+      <c r="B189" t="s">
+        <v>432</v>
+      </c>
+      <c r="C189" t="s">
+        <v>112</v>
+      </c>
+      <c r="D189" t="s">
+        <v>445</v>
+      </c>
+      <c r="E189" t="s">
+        <v>416</v>
+      </c>
+      <c r="F189">
+        <v>55870</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>17</v>
+      </c>
+      <c r="B190" t="s">
+        <v>433</v>
+      </c>
+      <c r="C190" t="s">
+        <v>112</v>
+      </c>
+      <c r="D190" t="s">
+        <v>418</v>
+      </c>
+      <c r="E190" t="s">
+        <v>416</v>
+      </c>
+      <c r="F190">
+        <v>179890</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>18</v>
+      </c>
+      <c r="B191" t="s">
+        <v>434</v>
+      </c>
+      <c r="C191" t="s">
+        <v>112</v>
+      </c>
+      <c r="D191" t="s">
+        <v>440</v>
+      </c>
+      <c r="E191" t="s">
+        <v>416</v>
+      </c>
+      <c r="F191">
+        <v>63690</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>19</v>
+      </c>
+      <c r="B192" t="s">
+        <v>435</v>
+      </c>
+      <c r="C192" t="s">
+        <v>112</v>
+      </c>
+      <c r="D192" t="s">
+        <v>441</v>
+      </c>
+      <c r="E192" t="s">
+        <v>416</v>
+      </c>
+      <c r="F192">
+        <v>94970</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>20</v>
+      </c>
+      <c r="B193" t="s">
+        <v>436</v>
+      </c>
+      <c r="C193" t="s">
+        <v>112</v>
+      </c>
+      <c r="D193" t="s">
+        <v>440</v>
+      </c>
+      <c r="E193" t="s">
+        <v>446</v>
+      </c>
+      <c r="F193">
+        <v>61450</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>437</v>
+      </c>
+      <c r="C194" t="s">
+        <v>112</v>
+      </c>
+      <c r="D194" t="s">
+        <v>441</v>
+      </c>
+      <c r="E194" t="s">
+        <v>446</v>
+      </c>
+      <c r="F194">
+        <v>98320</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>22</v>
+      </c>
+      <c r="B195" t="s">
+        <v>438</v>
+      </c>
+      <c r="C195" t="s">
+        <v>111</v>
+      </c>
+      <c r="D195" t="s">
+        <v>418</v>
+      </c>
+      <c r="E195" t="s">
+        <v>416</v>
+      </c>
+      <c r="F195">
+        <v>244690</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>23</v>
+      </c>
+      <c r="B196" t="s">
+        <v>447</v>
+      </c>
+      <c r="C196" t="s">
+        <v>111</v>
+      </c>
+      <c r="D196" t="s">
+        <v>440</v>
+      </c>
+      <c r="E196" t="s">
+        <v>416</v>
+      </c>
+      <c r="F196">
+        <v>75980</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>24</v>
+      </c>
+      <c r="B197" t="s">
+        <v>448</v>
+      </c>
+      <c r="C197" t="s">
+        <v>111</v>
+      </c>
+      <c r="D197" t="s">
+        <v>441</v>
+      </c>
+      <c r="E197" t="s">
+        <v>416</v>
+      </c>
+      <c r="F197">
+        <v>122910</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>25</v>
+      </c>
+      <c r="B198" t="s">
+        <v>449</v>
+      </c>
+      <c r="C198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D198" t="s">
+        <v>418</v>
+      </c>
+      <c r="E198" t="s">
+        <v>446</v>
+      </c>
+      <c r="F198">
+        <v>290500</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>26</v>
+      </c>
+      <c r="B199" t="s">
+        <v>450</v>
+      </c>
+      <c r="C199" t="s">
+        <v>111</v>
+      </c>
+      <c r="D199" t="s">
+        <v>441</v>
+      </c>
+      <c r="E199" t="s">
+        <v>446</v>
+      </c>
+      <c r="F199">
+        <v>149720</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>27</v>
+      </c>
+      <c r="B200" t="s">
+        <v>451</v>
+      </c>
+      <c r="C200" t="s">
+        <v>111</v>
+      </c>
+      <c r="D200" t="s">
+        <v>418</v>
+      </c>
+      <c r="E200" t="s">
+        <v>446</v>
+      </c>
+      <c r="F200">
+        <v>340780</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>28</v>
+      </c>
+      <c r="B201" t="s">
+        <v>452</v>
+      </c>
+      <c r="C201" t="s">
+        <v>111</v>
+      </c>
+      <c r="D201" t="s">
+        <v>441</v>
+      </c>
+      <c r="E201" t="s">
+        <v>446</v>
+      </c>
+      <c r="F201">
+        <v>178770</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>164</v>
+      </c>
+      <c r="C204" t="s">
+        <v>165</v>
+      </c>
+      <c r="D204" t="s">
+        <v>166</v>
+      </c>
+      <c r="E204" t="s">
+        <v>167</v>
+      </c>
+      <c r="F204" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B154" t="s">
-        <v>151</v>
-      </c>
-      <c r="C154" t="s">
-        <v>152</v>
-      </c>
-      <c r="D154" t="s">
-        <v>153</v>
-      </c>
-      <c r="E154" t="s">
-        <v>154</v>
-      </c>
-      <c r="F154" t="s">
-        <v>155</v>
-      </c>
-      <c r="G154" t="s">
-        <v>156</v>
-      </c>
-      <c r="H154" t="s">
-        <v>157</v>
-      </c>
-      <c r="I154" t="s">
-        <v>158</v>
-      </c>
-      <c r="J154" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B155" t="s">
-        <v>53</v>
-      </c>
-      <c r="C155" t="s">
-        <v>160</v>
-      </c>
-      <c r="D155" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>296</v>
-      </c>
-      <c r="B158" t="s">
-        <v>312</v>
-      </c>
-      <c r="C158" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" t="s">
-        <v>313</v>
-      </c>
-      <c r="E158" t="s">
-        <v>314</v>
-      </c>
-      <c r="F158" t="s">
-        <v>349</v>
-      </c>
-      <c r="G158" t="s">
-        <v>350</v>
-      </c>
-      <c r="H158" t="s">
-        <v>352</v>
-      </c>
-      <c r="I158" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>1</v>
-      </c>
-      <c r="B159" t="s">
-        <v>426</v>
-      </c>
-      <c r="C159" t="s">
-        <v>427</v>
-      </c>
-      <c r="D159" t="s">
-        <v>428</v>
-      </c>
-      <c r="E159" t="s">
-        <v>429</v>
-      </c>
-      <c r="F159">
-        <v>54190</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>2</v>
-      </c>
-      <c r="B160" t="s">
-        <v>430</v>
-      </c>
-      <c r="C160" t="s">
-        <v>427</v>
-      </c>
-      <c r="D160" t="s">
-        <v>431</v>
-      </c>
-      <c r="E160" t="s">
-        <v>429</v>
-      </c>
-      <c r="F160">
-        <v>184130</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>3</v>
-      </c>
-      <c r="B161" t="s">
-        <v>432</v>
-      </c>
-      <c r="C161" t="s">
-        <v>427</v>
-      </c>
-      <c r="D161" t="s">
-        <v>452</v>
-      </c>
-      <c r="E161" t="s">
-        <v>429</v>
-      </c>
-      <c r="F161">
-        <v>356760</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>4</v>
-      </c>
-      <c r="B162" t="s">
-        <v>433</v>
-      </c>
-      <c r="C162" t="s">
-        <v>427</v>
-      </c>
-      <c r="D162" t="s">
-        <v>453</v>
-      </c>
-      <c r="E162" t="s">
-        <v>429</v>
-      </c>
-      <c r="F162">
-        <v>68490</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>5</v>
-      </c>
-      <c r="B163" t="s">
-        <v>434</v>
-      </c>
-      <c r="C163" t="s">
-        <v>427</v>
-      </c>
-      <c r="D163" t="s">
-        <v>454</v>
-      </c>
-      <c r="E163" t="s">
-        <v>429</v>
-      </c>
-      <c r="F163">
-        <v>102460</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>6</v>
-      </c>
-      <c r="B164" t="s">
-        <v>435</v>
-      </c>
-      <c r="C164" t="s">
-        <v>427</v>
-      </c>
-      <c r="D164" t="s">
-        <v>431</v>
-      </c>
-      <c r="E164" t="s">
-        <v>459</v>
-      </c>
-      <c r="F164">
-        <v>389000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" t="s">
-        <v>436</v>
-      </c>
-      <c r="C165" t="s">
-        <v>427</v>
-      </c>
-      <c r="D165" t="s">
-        <v>454</v>
-      </c>
-      <c r="E165" t="s">
-        <v>459</v>
-      </c>
-      <c r="F165">
-        <v>199000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>8</v>
-      </c>
-      <c r="B166" t="s">
-        <v>437</v>
-      </c>
-      <c r="C166" t="s">
-        <v>148</v>
-      </c>
-      <c r="D166" t="s">
-        <v>431</v>
-      </c>
-      <c r="E166" t="s">
-        <v>429</v>
-      </c>
-      <c r="F166">
-        <v>184360</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>9</v>
-      </c>
-      <c r="B167" t="s">
-        <v>438</v>
-      </c>
-      <c r="C167" t="s">
-        <v>148</v>
-      </c>
-      <c r="D167" t="s">
-        <v>453</v>
-      </c>
-      <c r="E167" t="s">
-        <v>429</v>
-      </c>
-      <c r="F167">
-        <v>67040</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>10</v>
-      </c>
-      <c r="B168" t="s">
-        <v>439</v>
-      </c>
-      <c r="C168" t="s">
-        <v>148</v>
-      </c>
-      <c r="D168" t="s">
-        <v>454</v>
-      </c>
-      <c r="E168" t="s">
-        <v>429</v>
-      </c>
-      <c r="F168">
-        <v>100560</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>11</v>
-      </c>
-      <c r="B169" t="s">
-        <v>440</v>
-      </c>
-      <c r="C169" t="s">
-        <v>148</v>
-      </c>
-      <c r="D169" t="s">
-        <v>431</v>
-      </c>
-      <c r="E169" t="s">
-        <v>459</v>
-      </c>
-      <c r="F169">
-        <v>184360</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>12</v>
-      </c>
-      <c r="B170" t="s">
-        <v>441</v>
-      </c>
-      <c r="C170" t="s">
-        <v>148</v>
-      </c>
-      <c r="D170" t="s">
-        <v>454</v>
-      </c>
-      <c r="E170" t="s">
-        <v>459</v>
-      </c>
-      <c r="F170">
-        <v>105030</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>13</v>
-      </c>
-      <c r="B171" t="s">
-        <v>442</v>
-      </c>
-      <c r="C171" t="s">
-        <v>148</v>
-      </c>
-      <c r="D171" t="s">
-        <v>455</v>
-      </c>
-      <c r="E171" t="s">
-        <v>429</v>
-      </c>
-      <c r="F171">
-        <v>36870</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>14</v>
-      </c>
-      <c r="B172" t="s">
-        <v>443</v>
-      </c>
-      <c r="C172" t="s">
-        <v>148</v>
-      </c>
-      <c r="D172" t="s">
-        <v>456</v>
-      </c>
-      <c r="E172" t="s">
-        <v>429</v>
-      </c>
-      <c r="F172">
-        <v>53500</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>15</v>
-      </c>
-      <c r="B173" t="s">
-        <v>444</v>
-      </c>
-      <c r="C173" t="s">
-        <v>112</v>
-      </c>
-      <c r="D173" t="s">
-        <v>457</v>
-      </c>
-      <c r="E173" t="s">
-        <v>429</v>
-      </c>
-      <c r="F173">
-        <v>37990</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>16</v>
-      </c>
-      <c r="B174" t="s">
-        <v>445</v>
-      </c>
-      <c r="C174" t="s">
-        <v>112</v>
-      </c>
-      <c r="D174" t="s">
-        <v>458</v>
-      </c>
-      <c r="E174" t="s">
-        <v>429</v>
-      </c>
-      <c r="F174">
-        <v>55870</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>17</v>
-      </c>
-      <c r="B175" t="s">
-        <v>446</v>
-      </c>
-      <c r="C175" t="s">
-        <v>112</v>
-      </c>
-      <c r="D175" t="s">
-        <v>431</v>
-      </c>
-      <c r="E175" t="s">
-        <v>429</v>
-      </c>
-      <c r="F175">
-        <v>179890</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>18</v>
-      </c>
-      <c r="B176" t="s">
-        <v>447</v>
-      </c>
-      <c r="C176" t="s">
-        <v>112</v>
-      </c>
-      <c r="D176" t="s">
-        <v>453</v>
-      </c>
-      <c r="E176" t="s">
-        <v>429</v>
-      </c>
-      <c r="F176">
-        <v>63690</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>19</v>
-      </c>
-      <c r="B177" t="s">
-        <v>448</v>
-      </c>
-      <c r="C177" t="s">
-        <v>112</v>
-      </c>
-      <c r="D177" t="s">
-        <v>454</v>
-      </c>
-      <c r="E177" t="s">
-        <v>429</v>
-      </c>
-      <c r="F177">
-        <v>94970</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>20</v>
-      </c>
-      <c r="B178" t="s">
-        <v>449</v>
-      </c>
-      <c r="C178" t="s">
-        <v>112</v>
-      </c>
-      <c r="D178" t="s">
-        <v>453</v>
-      </c>
-      <c r="E178" t="s">
-        <v>459</v>
-      </c>
-      <c r="F178">
-        <v>61450</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>21</v>
-      </c>
-      <c r="B179" t="s">
-        <v>450</v>
-      </c>
-      <c r="C179" t="s">
-        <v>112</v>
-      </c>
-      <c r="D179" t="s">
-        <v>454</v>
-      </c>
-      <c r="E179" t="s">
-        <v>459</v>
-      </c>
-      <c r="F179">
-        <v>98320</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>22</v>
-      </c>
-      <c r="B180" t="s">
-        <v>451</v>
-      </c>
-      <c r="C180" t="s">
-        <v>111</v>
-      </c>
-      <c r="D180" t="s">
-        <v>431</v>
-      </c>
-      <c r="E180" t="s">
-        <v>429</v>
-      </c>
-      <c r="F180">
-        <v>244690</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>23</v>
-      </c>
-      <c r="B181" t="s">
-        <v>460</v>
-      </c>
-      <c r="C181" t="s">
-        <v>111</v>
-      </c>
-      <c r="D181" t="s">
-        <v>453</v>
-      </c>
-      <c r="E181" t="s">
-        <v>429</v>
-      </c>
-      <c r="F181">
-        <v>75980</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>24</v>
-      </c>
-      <c r="B182" t="s">
-        <v>461</v>
-      </c>
-      <c r="C182" t="s">
-        <v>111</v>
-      </c>
-      <c r="D182" t="s">
-        <v>454</v>
-      </c>
-      <c r="E182" t="s">
-        <v>429</v>
-      </c>
-      <c r="F182">
-        <v>122910</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>25</v>
-      </c>
-      <c r="B183" t="s">
-        <v>462</v>
-      </c>
-      <c r="C183" t="s">
-        <v>111</v>
-      </c>
-      <c r="D183" t="s">
-        <v>431</v>
-      </c>
-      <c r="E183" t="s">
-        <v>459</v>
-      </c>
-      <c r="F183">
-        <v>290500</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>26</v>
-      </c>
-      <c r="B184" t="s">
-        <v>463</v>
-      </c>
-      <c r="C184" t="s">
-        <v>111</v>
-      </c>
-      <c r="D184" t="s">
-        <v>454</v>
-      </c>
-      <c r="E184" t="s">
-        <v>459</v>
-      </c>
-      <c r="F184">
-        <v>149720</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>27</v>
-      </c>
-      <c r="B185" t="s">
-        <v>464</v>
-      </c>
-      <c r="C185" t="s">
-        <v>111</v>
-      </c>
-      <c r="D185" t="s">
-        <v>431</v>
-      </c>
-      <c r="E185" t="s">
-        <v>459</v>
-      </c>
-      <c r="F185">
-        <v>340780</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>28</v>
-      </c>
-      <c r="B186" t="s">
-        <v>465</v>
-      </c>
-      <c r="C186" t="s">
-        <v>111</v>
-      </c>
-      <c r="D186" t="s">
-        <v>454</v>
-      </c>
-      <c r="E186" t="s">
-        <v>459</v>
-      </c>
-      <c r="F186">
-        <v>178770</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" t="s">
-        <v>164</v>
-      </c>
-      <c r="C189" t="s">
-        <v>165</v>
-      </c>
-      <c r="D189" t="s">
-        <v>166</v>
-      </c>
-      <c r="E189" t="s">
-        <v>167</v>
-      </c>
-      <c r="F189" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B190" t="s">
+      <c r="B205" t="s">
         <v>169</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C205" t="s">
         <v>170</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D205" t="s">
         <v>171</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E205" t="s">
         <v>172</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F205" t="s">
         <v>173</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G205" t="s">
         <v>174</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H205" t="s">
         <v>175</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I205" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B191" t="s">
-        <v>177</v>
-      </c>
-      <c r="C191" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>296</v>
-      </c>
-      <c r="B193" t="s">
-        <v>315</v>
-      </c>
-      <c r="C193" t="s">
-        <v>107</v>
-      </c>
-      <c r="D193" t="s">
-        <v>316</v>
-      </c>
-      <c r="E193" t="s">
-        <v>317</v>
-      </c>
-      <c r="F193" t="s">
-        <v>349</v>
-      </c>
-      <c r="G193" t="s">
-        <v>350</v>
-      </c>
-      <c r="H193" t="s">
-        <v>352</v>
-      </c>
-      <c r="I193" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B206" t="s">
+        <v>177</v>
+      </c>
+      <c r="C206" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>296</v>
+      </c>
+      <c r="B208" t="s">
+        <v>314</v>
+      </c>
+      <c r="C208" t="s">
+        <v>107</v>
+      </c>
+      <c r="D208" t="s">
+        <v>315</v>
+      </c>
+      <c r="E208" t="s">
+        <v>316</v>
+      </c>
+      <c r="F208" t="s">
+        <v>336</v>
+      </c>
+      <c r="G208" t="s">
+        <v>337</v>
+      </c>
+      <c r="H208" t="s">
+        <v>339</v>
+      </c>
+      <c r="I208" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>317</v>
+      </c>
+      <c r="B209" t="s">
+        <v>649</v>
+      </c>
+      <c r="C209" t="s">
+        <v>149</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>7200</v>
+      </c>
+      <c r="F209">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>318</v>
+      </c>
+      <c r="B210" t="s">
+        <v>650</v>
+      </c>
+      <c r="C210" t="s">
+        <v>149</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <v>7200</v>
+      </c>
+      <c r="F210">
+        <v>79440</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>651</v>
+      </c>
+      <c r="B211" t="s">
+        <v>652</v>
+      </c>
+      <c r="C211" t="s">
+        <v>149</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="E211">
+        <v>5400</v>
+      </c>
+      <c r="F211">
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>653</v>
+      </c>
+      <c r="B212" t="s">
+        <v>654</v>
+      </c>
+      <c r="C212" t="s">
+        <v>655</v>
+      </c>
+      <c r="D212">
+        <v>4</v>
+      </c>
+      <c r="E212">
+        <v>5400</v>
+      </c>
+      <c r="F212">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>656</v>
+      </c>
+      <c r="B213" t="s">
+        <v>657</v>
+      </c>
+      <c r="C213" t="s">
+        <v>149</v>
+      </c>
+      <c r="D213">
+        <v>4</v>
+      </c>
+      <c r="E213">
+        <v>7200</v>
+      </c>
+      <c r="F213">
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>319</v>
+      </c>
+      <c r="B214" t="s">
+        <v>658</v>
+      </c>
+      <c r="C214" t="s">
+        <v>655</v>
+      </c>
+      <c r="D214">
+        <v>4</v>
+      </c>
+      <c r="E214">
+        <v>5900</v>
+      </c>
+      <c r="F214">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>320</v>
+      </c>
+      <c r="B215" t="s">
+        <v>659</v>
+      </c>
+      <c r="C215" t="s">
+        <v>655</v>
+      </c>
+      <c r="D215">
+        <v>8</v>
+      </c>
+      <c r="E215">
+        <v>5400</v>
+      </c>
+      <c r="F215">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>660</v>
+      </c>
+      <c r="B216" t="s">
+        <v>661</v>
+      </c>
+      <c r="C216" t="s">
+        <v>662</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>7200</v>
+      </c>
+      <c r="F216">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>663</v>
+      </c>
+      <c r="B217" t="s">
+        <v>664</v>
+      </c>
+      <c r="C217" t="s">
+        <v>662</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>7200</v>
+      </c>
+      <c r="F217">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>665</v>
+      </c>
+      <c r="B218" t="s">
+        <v>666</v>
+      </c>
+      <c r="C218" t="s">
+        <v>662</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+      <c r="E218">
+        <v>7200</v>
+      </c>
+      <c r="F218">
+        <v>103910</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>667</v>
+      </c>
+      <c r="B219" t="s">
+        <v>668</v>
+      </c>
+      <c r="C219" t="s">
+        <v>669</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+      <c r="E219">
+        <v>7200</v>
+      </c>
+      <c r="F219">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>670</v>
+      </c>
+      <c r="B220" t="s">
+        <v>671</v>
+      </c>
+      <c r="C220" t="s">
+        <v>166</v>
+      </c>
+      <c r="D220">
+        <v>4</v>
+      </c>
+      <c r="E220">
+        <v>7200</v>
+      </c>
+      <c r="F220">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>672</v>
+      </c>
+      <c r="B221" t="s">
+        <v>673</v>
+      </c>
+      <c r="C221" t="s">
+        <v>662</v>
+      </c>
+      <c r="D221">
+        <v>4</v>
+      </c>
+      <c r="E221">
+        <v>7200</v>
+      </c>
+      <c r="F221">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>674</v>
+      </c>
+      <c r="B222" t="s">
+        <v>675</v>
+      </c>
+      <c r="C222" t="s">
+        <v>166</v>
+      </c>
+      <c r="D222">
+        <v>10</v>
+      </c>
+      <c r="E222">
+        <v>7200</v>
+      </c>
+      <c r="F222">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>676</v>
+      </c>
+      <c r="B223" t="s">
+        <v>677</v>
+      </c>
+      <c r="C223" t="s">
+        <v>148</v>
+      </c>
+      <c r="D223">
+        <v>4</v>
+      </c>
+      <c r="E223">
+        <v>7200</v>
+      </c>
+      <c r="F223">
+        <v>189940</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>678</v>
+      </c>
+      <c r="B224" t="s">
+        <v>679</v>
+      </c>
+      <c r="C224" t="s">
+        <v>148</v>
+      </c>
+      <c r="D224">
+        <v>10</v>
+      </c>
+      <c r="E224">
+        <v>7200</v>
+      </c>
+      <c r="F224">
+        <v>465120</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>680</v>
+      </c>
+      <c r="B225" t="s">
+        <v>681</v>
+      </c>
+      <c r="C225" t="s">
+        <v>682</v>
+      </c>
+      <c r="D225">
+        <v>12</v>
+      </c>
+      <c r="E225">
+        <v>7200</v>
+      </c>
+      <c r="F225">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>683</v>
+      </c>
+      <c r="B226" t="s">
+        <v>684</v>
+      </c>
+      <c r="C226" t="s">
+        <v>682</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>7200</v>
+      </c>
+      <c r="F226">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>685</v>
+      </c>
+      <c r="B227" t="s">
+        <v>686</v>
+      </c>
+      <c r="C227" t="s">
+        <v>148</v>
+      </c>
+      <c r="D227">
+        <v>2</v>
+      </c>
+      <c r="E227">
+        <v>5400</v>
+      </c>
+      <c r="F227">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>687</v>
+      </c>
+      <c r="B228" t="s">
+        <v>688</v>
+      </c>
+      <c r="C228" t="s">
+        <v>682</v>
+      </c>
+      <c r="D228">
+        <v>4</v>
+      </c>
+      <c r="E228">
+        <v>5400</v>
+      </c>
+      <c r="F228">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>689</v>
+      </c>
+      <c r="B229" t="s">
+        <v>690</v>
+      </c>
+      <c r="C229" t="s">
+        <v>682</v>
+      </c>
+      <c r="D229">
+        <v>4</v>
+      </c>
+      <c r="E229">
+        <v>5400</v>
+      </c>
+      <c r="F229">
+        <v>174590</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B232" t="s">
         <v>180</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C232" t="s">
         <v>181</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D232" t="s">
         <v>182</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E232" t="s">
         <v>183</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F232" t="s">
         <v>184</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G232" t="s">
         <v>185</v>
       </c>
-      <c r="H206" t="s">
+      <c r="H232" t="s">
         <v>186</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I232" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B233" t="s">
         <v>189</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C233" t="s">
         <v>190</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D233" t="s">
         <v>191</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E233" t="s">
         <v>192</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F233" t="s">
         <v>193</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G233" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B234" t="s">
         <v>196</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C234" t="s">
         <v>197</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D234" t="s">
         <v>99</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E234" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>296</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B236" t="s">
         <v>294</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C236" t="s">
         <v>6</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D236" t="s">
+        <v>325</v>
+      </c>
+      <c r="E236" t="s">
+        <v>326</v>
+      </c>
+      <c r="F236" t="s">
+        <v>336</v>
+      </c>
+      <c r="G236" t="s">
+        <v>337</v>
+      </c>
+      <c r="H236" t="s">
+        <v>339</v>
+      </c>
+      <c r="I236" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>691</v>
+      </c>
+      <c r="B237" t="s">
+        <v>692</v>
+      </c>
+      <c r="C237" t="s">
+        <v>693</v>
+      </c>
+      <c r="D237" t="s">
+        <v>694</v>
+      </c>
+      <c r="E237">
+        <v>3</v>
+      </c>
+      <c r="F237">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>695</v>
+      </c>
+      <c r="B238" t="s">
+        <v>696</v>
+      </c>
+      <c r="C238" t="s">
+        <v>693</v>
+      </c>
+      <c r="D238" t="s">
+        <v>191</v>
+      </c>
+      <c r="E238">
+        <v>3</v>
+      </c>
+      <c r="F238">
+        <v>40670</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>697</v>
+      </c>
+      <c r="B239" t="s">
+        <v>698</v>
+      </c>
+      <c r="C239" t="s">
+        <v>699</v>
+      </c>
+      <c r="D239" t="s">
+        <v>191</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>700</v>
+      </c>
+      <c r="B240" t="s">
+        <v>701</v>
+      </c>
+      <c r="C240" t="s">
+        <v>693</v>
+      </c>
+      <c r="D240" t="s">
+        <v>702</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
+      </c>
+      <c r="F240">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>327</v>
+      </c>
+      <c r="B241" t="s">
+        <v>703</v>
+      </c>
+      <c r="C241" t="s">
+        <v>699</v>
+      </c>
+      <c r="D241" t="s">
+        <v>191</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>704</v>
+      </c>
+      <c r="B242" t="s">
+        <v>705</v>
+      </c>
+      <c r="C242" t="s">
+        <v>706</v>
+      </c>
+      <c r="D242" t="s">
+        <v>702</v>
+      </c>
+      <c r="E242">
+        <v>7</v>
+      </c>
+      <c r="F242">
+        <v>85500</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>328</v>
+      </c>
+      <c r="B243" t="s">
+        <v>707</v>
+      </c>
+      <c r="C243" t="s">
+        <v>708</v>
+      </c>
+      <c r="D243" t="s">
+        <v>702</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>329</v>
+      </c>
+      <c r="B244" t="s">
+        <v>709</v>
+      </c>
+      <c r="C244" t="s">
+        <v>708</v>
+      </c>
+      <c r="D244" t="s">
+        <v>191</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>710</v>
+      </c>
+      <c r="B245" t="s">
+        <v>711</v>
+      </c>
+      <c r="C245" t="s">
+        <v>712</v>
+      </c>
+      <c r="D245" t="s">
+        <v>702</v>
+      </c>
+      <c r="E245">
+        <v>4</v>
+      </c>
+      <c r="F245">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>330</v>
+      </c>
+      <c r="B246" t="s">
+        <v>713</v>
+      </c>
+      <c r="C246" t="s">
+        <v>714</v>
+      </c>
+      <c r="D246" t="s">
+        <v>191</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246">
+        <v>22350</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>331</v>
+      </c>
+      <c r="B247" t="s">
+        <v>715</v>
+      </c>
+      <c r="C247" t="s">
+        <v>716</v>
+      </c>
+      <c r="D247" t="s">
+        <v>191</v>
+      </c>
+      <c r="E247">
+        <v>4</v>
+      </c>
+      <c r="F247">
+        <v>81560</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>717</v>
+      </c>
+      <c r="B248" t="s">
+        <v>718</v>
+      </c>
+      <c r="C248" t="s">
+        <v>716</v>
+      </c>
+      <c r="D248" t="s">
+        <v>694</v>
+      </c>
+      <c r="E248">
+        <v>4</v>
+      </c>
+      <c r="F248">
+        <v>81500</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>719</v>
+      </c>
+      <c r="B249" t="s">
+        <v>720</v>
+      </c>
+      <c r="C249" t="s">
+        <v>721</v>
+      </c>
+      <c r="D249" t="s">
+        <v>702</v>
+      </c>
+      <c r="E249">
+        <v>4</v>
+      </c>
+      <c r="F249">
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>722</v>
+      </c>
+      <c r="B250" t="s">
+        <v>723</v>
+      </c>
+      <c r="C250" t="s">
+        <v>721</v>
+      </c>
+      <c r="D250" t="s">
+        <v>694</v>
+      </c>
+      <c r="E250">
+        <v>2</v>
+      </c>
+      <c r="F250">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>724</v>
+      </c>
+      <c r="B251" t="s">
+        <v>725</v>
+      </c>
+      <c r="C251" t="s">
+        <v>137</v>
+      </c>
+      <c r="D251" t="s">
+        <v>191</v>
+      </c>
+      <c r="E251">
+        <v>4</v>
+      </c>
+      <c r="F251">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>726</v>
+      </c>
+      <c r="B252" t="s">
+        <v>727</v>
+      </c>
+      <c r="C252" t="s">
+        <v>137</v>
+      </c>
+      <c r="D252" t="s">
+        <v>191</v>
+      </c>
+      <c r="E252">
+        <v>4</v>
+      </c>
+      <c r="F252">
+        <v>37320</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B255" t="s">
+        <v>200</v>
+      </c>
+      <c r="C255" t="s">
+        <v>187</v>
+      </c>
+      <c r="D255" t="s">
+        <v>201</v>
+      </c>
+      <c r="E255" t="s">
+        <v>202</v>
+      </c>
+      <c r="F255" t="s">
+        <v>203</v>
+      </c>
+      <c r="G255" t="s">
+        <v>204</v>
+      </c>
+      <c r="H255" t="s">
+        <v>205</v>
+      </c>
+      <c r="I255" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B256" t="s">
+        <v>208</v>
+      </c>
+      <c r="C256" t="s">
+        <v>209</v>
+      </c>
+      <c r="D256" t="s">
+        <v>210</v>
+      </c>
+      <c r="E256" t="s">
+        <v>211</v>
+      </c>
+      <c r="F256" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B257" t="s">
+        <v>214</v>
+      </c>
+      <c r="C257" t="s">
+        <v>215</v>
+      </c>
+      <c r="D257" t="s">
+        <v>216</v>
+      </c>
+      <c r="E257" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B258" t="s">
+        <v>219</v>
+      </c>
+      <c r="C258" t="s">
+        <v>220</v>
+      </c>
+      <c r="D258" t="s">
+        <v>221</v>
+      </c>
+      <c r="E258" t="s">
+        <v>222</v>
+      </c>
+      <c r="F258" t="s">
+        <v>223</v>
+      </c>
+      <c r="G258" t="s">
+        <v>224</v>
+      </c>
+      <c r="H258" t="s">
+        <v>225</v>
+      </c>
+      <c r="I258" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>296</v>
+      </c>
+      <c r="B260" t="s">
+        <v>321</v>
+      </c>
+      <c r="C260" t="s">
+        <v>322</v>
+      </c>
+      <c r="D260" t="s">
+        <v>323</v>
+      </c>
+      <c r="E260" t="s">
+        <v>324</v>
+      </c>
+      <c r="F260" t="s">
+        <v>218</v>
+      </c>
+      <c r="G260" t="s">
+        <v>336</v>
+      </c>
+      <c r="H260" t="s">
+        <v>337</v>
+      </c>
+      <c r="I260" t="s">
+        <v>339</v>
+      </c>
+      <c r="J260" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261" t="s">
+        <v>494</v>
+      </c>
+      <c r="C261" t="s">
+        <v>495</v>
+      </c>
+      <c r="D261" t="s">
+        <v>544</v>
+      </c>
+      <c r="E261" t="s">
+        <v>215</v>
+      </c>
+      <c r="F261" t="s">
+        <v>496</v>
+      </c>
+      <c r="G261">
+        <v>62630</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>2</v>
+      </c>
+      <c r="B262" t="s">
+        <v>497</v>
+      </c>
+      <c r="C262" t="s">
+        <v>495</v>
+      </c>
+      <c r="D262" t="s">
+        <v>545</v>
+      </c>
+      <c r="E262" t="s">
+        <v>215</v>
+      </c>
+      <c r="F262" t="s">
+        <v>496</v>
+      </c>
+      <c r="G262">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263" t="s">
+        <v>498</v>
+      </c>
+      <c r="C263" t="s">
+        <v>495</v>
+      </c>
+      <c r="D263" t="s">
+        <v>546</v>
+      </c>
+      <c r="E263" t="s">
+        <v>214</v>
+      </c>
+      <c r="F263" t="s">
+        <v>499</v>
+      </c>
+      <c r="G263">
+        <v>72760</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>500</v>
+      </c>
+      <c r="C264" t="s">
+        <v>495</v>
+      </c>
+      <c r="D264" t="s">
+        <v>547</v>
+      </c>
+      <c r="E264" t="s">
+        <v>214</v>
+      </c>
+      <c r="F264" t="s">
+        <v>499</v>
+      </c>
+      <c r="G264">
+        <v>86860</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>5</v>
+      </c>
+      <c r="B265" t="s">
+        <v>501</v>
+      </c>
+      <c r="C265" t="s">
+        <v>495</v>
+      </c>
+      <c r="D265" t="s">
+        <v>548</v>
+      </c>
+      <c r="E265" t="s">
+        <v>214</v>
+      </c>
+      <c r="F265" t="s">
+        <v>502</v>
+      </c>
+      <c r="G265">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>6</v>
+      </c>
+      <c r="B266" t="s">
+        <v>503</v>
+      </c>
+      <c r="C266" t="s">
+        <v>495</v>
+      </c>
+      <c r="D266" t="s">
+        <v>546</v>
+      </c>
+      <c r="E266" t="s">
+        <v>214</v>
+      </c>
+      <c r="F266" t="s">
+        <v>502</v>
+      </c>
+      <c r="G266">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>7</v>
+      </c>
+      <c r="B267" t="s">
+        <v>504</v>
+      </c>
+      <c r="C267" t="s">
+        <v>495</v>
+      </c>
+      <c r="D267" t="s">
+        <v>547</v>
+      </c>
+      <c r="E267" t="s">
+        <v>214</v>
+      </c>
+      <c r="F267" t="s">
+        <v>502</v>
+      </c>
+      <c r="G267">
+        <v>78210</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>8</v>
+      </c>
+      <c r="B268" t="s">
+        <v>505</v>
+      </c>
+      <c r="C268" t="s">
+        <v>508</v>
+      </c>
+      <c r="D268" t="s">
+        <v>549</v>
+      </c>
+      <c r="E268" t="s">
+        <v>215</v>
+      </c>
+      <c r="F268" t="s">
+        <v>506</v>
+      </c>
+      <c r="G268">
+        <v>124580</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>9</v>
+      </c>
+      <c r="B269" t="s">
+        <v>507</v>
+      </c>
+      <c r="C269" t="s">
+        <v>508</v>
+      </c>
+      <c r="D269" t="s">
+        <v>548</v>
+      </c>
+      <c r="E269" t="s">
+        <v>215</v>
+      </c>
+      <c r="F269" t="s">
+        <v>509</v>
+      </c>
+      <c r="G269">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>10</v>
+      </c>
+      <c r="B270" t="s">
+        <v>510</v>
+      </c>
+      <c r="C270" t="s">
+        <v>508</v>
+      </c>
+      <c r="D270" t="s">
+        <v>546</v>
+      </c>
+      <c r="E270" t="s">
+        <v>215</v>
+      </c>
+      <c r="F270" t="s">
+        <v>511</v>
+      </c>
+      <c r="G270">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>11</v>
+      </c>
+      <c r="B271" t="s">
+        <v>512</v>
+      </c>
+      <c r="C271" t="s">
+        <v>508</v>
+      </c>
+      <c r="D271" t="s">
+        <v>545</v>
+      </c>
+      <c r="E271" t="s">
+        <v>215</v>
+      </c>
+      <c r="F271" t="s">
+        <v>513</v>
+      </c>
+      <c r="G271">
+        <v>77090</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>12</v>
+      </c>
+      <c r="B272" t="s">
+        <v>514</v>
+      </c>
+      <c r="C272" t="s">
+        <v>508</v>
+      </c>
+      <c r="D272" t="s">
+        <v>545</v>
+      </c>
+      <c r="E272" t="s">
+        <v>215</v>
+      </c>
+      <c r="F272" t="s">
+        <v>515</v>
+      </c>
+      <c r="G272">
+        <v>75500</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>13</v>
+      </c>
+      <c r="B273" t="s">
+        <v>516</v>
+      </c>
+      <c r="C273" t="s">
+        <v>508</v>
+      </c>
+      <c r="D273" t="s">
+        <v>547</v>
+      </c>
+      <c r="E273" t="s">
+        <v>215</v>
+      </c>
+      <c r="F273" t="s">
+        <v>517</v>
+      </c>
+      <c r="G273">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>14</v>
+      </c>
+      <c r="B274" t="s">
+        <v>518</v>
+      </c>
+      <c r="C274" t="s">
+        <v>508</v>
+      </c>
+      <c r="D274" t="s">
+        <v>550</v>
+      </c>
+      <c r="E274" t="s">
+        <v>215</v>
+      </c>
+      <c r="F274" t="s">
+        <v>511</v>
+      </c>
+      <c r="G274">
+        <v>86500</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>15</v>
+      </c>
+      <c r="B275" t="s">
+        <v>519</v>
+      </c>
+      <c r="C275" t="s">
+        <v>520</v>
+      </c>
+      <c r="D275" t="s">
+        <v>545</v>
+      </c>
+      <c r="E275" t="s">
+        <v>214</v>
+      </c>
+      <c r="F275" t="s">
+        <v>521</v>
+      </c>
+      <c r="G275">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>16</v>
+      </c>
+      <c r="B276" t="s">
+        <v>522</v>
+      </c>
+      <c r="C276" t="s">
+        <v>520</v>
+      </c>
+      <c r="D276" t="s">
+        <v>545</v>
+      </c>
+      <c r="E276" t="s">
+        <v>214</v>
+      </c>
+      <c r="F276" t="s">
+        <v>523</v>
+      </c>
+      <c r="G276">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>17</v>
+      </c>
+      <c r="B277" t="s">
+        <v>524</v>
+      </c>
+      <c r="C277" t="s">
+        <v>520</v>
+      </c>
+      <c r="D277" t="s">
+        <v>549</v>
+      </c>
+      <c r="E277" t="s">
+        <v>214</v>
+      </c>
+      <c r="F277" t="s">
+        <v>525</v>
+      </c>
+      <c r="G277">
+        <v>151000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>18</v>
+      </c>
+      <c r="B278" t="s">
+        <v>526</v>
+      </c>
+      <c r="C278" t="s">
+        <v>520</v>
+      </c>
+      <c r="D278" t="s">
+        <v>551</v>
+      </c>
+      <c r="E278" t="s">
+        <v>214</v>
+      </c>
+      <c r="F278" t="s">
+        <v>521</v>
+      </c>
+      <c r="G278">
+        <v>172000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>19</v>
+      </c>
+      <c r="B279" t="s">
+        <v>527</v>
+      </c>
+      <c r="C279" t="s">
+        <v>520</v>
+      </c>
+      <c r="D279" t="s">
+        <v>552</v>
+      </c>
+      <c r="E279" t="s">
+        <v>214</v>
+      </c>
+      <c r="F279" t="s">
+        <v>521</v>
+      </c>
+      <c r="G279">
+        <v>294040</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>20</v>
+      </c>
+      <c r="B280" t="s">
+        <v>528</v>
+      </c>
+      <c r="C280" t="s">
+        <v>520</v>
+      </c>
+      <c r="D280" t="s">
+        <v>552</v>
+      </c>
+      <c r="E280" t="s">
+        <v>214</v>
+      </c>
+      <c r="F280" t="s">
+        <v>529</v>
+      </c>
+      <c r="G280">
+        <v>469270</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>21</v>
+      </c>
+      <c r="B281" t="s">
+        <v>530</v>
+      </c>
+      <c r="C281" t="s">
+        <v>520</v>
+      </c>
+      <c r="D281" t="s">
+        <v>544</v>
+      </c>
+      <c r="E281" t="s">
+        <v>215</v>
+      </c>
+      <c r="F281" t="s">
+        <v>531</v>
+      </c>
+      <c r="G281">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>22</v>
+      </c>
+      <c r="B282" t="s">
+        <v>532</v>
+      </c>
+      <c r="C282" t="s">
+        <v>533</v>
+      </c>
+      <c r="D282" t="s">
+        <v>548</v>
+      </c>
+      <c r="E282" t="s">
+        <v>215</v>
+      </c>
+      <c r="F282" t="s">
+        <v>534</v>
+      </c>
+      <c r="G282">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>23</v>
+      </c>
+      <c r="B283" t="s">
+        <v>535</v>
+      </c>
+      <c r="C283" t="s">
+        <v>533</v>
+      </c>
+      <c r="D283" t="s">
+        <v>546</v>
+      </c>
+      <c r="E283" t="s">
+        <v>215</v>
+      </c>
+      <c r="F283" t="s">
+        <v>536</v>
+      </c>
+      <c r="G283">
+        <v>40340</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>24</v>
+      </c>
+      <c r="B284" t="s">
+        <v>537</v>
+      </c>
+      <c r="C284" t="s">
+        <v>533</v>
+      </c>
+      <c r="D284" t="s">
+        <v>544</v>
+      </c>
+      <c r="E284" t="s">
+        <v>214</v>
+      </c>
+      <c r="F284" t="s">
+        <v>531</v>
+      </c>
+      <c r="G284">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>25</v>
+      </c>
+      <c r="B285" t="s">
+        <v>538</v>
+      </c>
+      <c r="C285" t="s">
+        <v>533</v>
+      </c>
+      <c r="D285" t="s">
+        <v>545</v>
+      </c>
+      <c r="E285" t="s">
+        <v>214</v>
+      </c>
+      <c r="F285" t="s">
+        <v>539</v>
+      </c>
+      <c r="G285">
+        <v>63580</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>26</v>
+      </c>
+      <c r="B286" t="s">
+        <v>540</v>
+      </c>
+      <c r="C286" t="s">
+        <v>533</v>
+      </c>
+      <c r="D286" t="s">
+        <v>549</v>
+      </c>
+      <c r="E286" t="s">
+        <v>214</v>
+      </c>
+      <c r="F286" t="s">
+        <v>531</v>
+      </c>
+      <c r="G286">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>27</v>
+      </c>
+      <c r="B287" t="s">
+        <v>541</v>
+      </c>
+      <c r="C287" t="s">
+        <v>533</v>
+      </c>
+      <c r="D287" t="s">
+        <v>548</v>
+      </c>
+      <c r="E287" t="s">
+        <v>215</v>
+      </c>
+      <c r="F287" t="s">
+        <v>511</v>
+      </c>
+      <c r="G287">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>28</v>
+      </c>
+      <c r="B288" t="s">
+        <v>542</v>
+      </c>
+      <c r="C288" t="s">
+        <v>533</v>
+      </c>
+      <c r="D288" t="s">
+        <v>546</v>
+      </c>
+      <c r="E288" t="s">
+        <v>215</v>
+      </c>
+      <c r="F288" t="s">
+        <v>543</v>
+      </c>
+      <c r="G288">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B292" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" t="s">
         <v>332</v>
       </c>
-      <c r="E210" t="s">
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>333</v>
       </c>
-      <c r="F210" t="s">
-        <v>349</v>
-      </c>
-      <c r="G210" t="s">
-        <v>350</v>
-      </c>
-      <c r="H210" t="s">
-        <v>352</v>
-      </c>
-      <c r="I210" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="B296" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="B297" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" t="s">
-        <v>200</v>
-      </c>
-      <c r="C224" t="s">
-        <v>187</v>
-      </c>
-      <c r="D224" t="s">
-        <v>201</v>
-      </c>
-      <c r="E224" t="s">
-        <v>202</v>
-      </c>
-      <c r="F224" t="s">
-        <v>203</v>
-      </c>
-      <c r="G224" t="s">
-        <v>204</v>
-      </c>
-      <c r="H224" t="s">
-        <v>205</v>
-      </c>
-      <c r="I224" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B225" t="s">
-        <v>208</v>
-      </c>
-      <c r="C225" t="s">
-        <v>209</v>
-      </c>
-      <c r="D225" t="s">
-        <v>210</v>
-      </c>
-      <c r="E225" t="s">
-        <v>211</v>
-      </c>
-      <c r="F225" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B226" t="s">
-        <v>214</v>
-      </c>
-      <c r="C226" t="s">
-        <v>215</v>
-      </c>
-      <c r="D226" t="s">
-        <v>216</v>
-      </c>
-      <c r="E226" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B227" t="s">
-        <v>219</v>
-      </c>
-      <c r="C227" t="s">
-        <v>220</v>
-      </c>
-      <c r="D227" t="s">
-        <v>221</v>
-      </c>
-      <c r="E227" t="s">
-        <v>222</v>
-      </c>
-      <c r="F227" t="s">
-        <v>223</v>
-      </c>
-      <c r="G227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H227" t="s">
-        <v>225</v>
-      </c>
-      <c r="I227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>296</v>
-      </c>
-      <c r="B229" t="s">
-        <v>328</v>
-      </c>
-      <c r="C229" t="s">
-        <v>329</v>
-      </c>
-      <c r="D229" t="s">
-        <v>330</v>
-      </c>
-      <c r="E229" t="s">
-        <v>331</v>
-      </c>
-      <c r="F229" t="s">
-        <v>218</v>
-      </c>
-      <c r="G229" t="s">
-        <v>349</v>
-      </c>
-      <c r="H229" t="s">
-        <v>350</v>
-      </c>
-      <c r="I229" t="s">
-        <v>352</v>
-      </c>
-      <c r="J229" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A230">
-        <v>1</v>
-      </c>
-      <c r="B230" t="s">
-        <v>507</v>
-      </c>
-      <c r="C230" t="s">
-        <v>508</v>
-      </c>
-      <c r="D230" t="s">
-        <v>557</v>
-      </c>
-      <c r="E230" t="s">
-        <v>215</v>
-      </c>
-      <c r="F230" t="s">
-        <v>509</v>
-      </c>
-      <c r="G230">
-        <v>62630</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A231">
-        <v>2</v>
-      </c>
-      <c r="B231" t="s">
-        <v>510</v>
-      </c>
-      <c r="C231" t="s">
-        <v>508</v>
-      </c>
-      <c r="D231" t="s">
-        <v>558</v>
-      </c>
-      <c r="E231" t="s">
-        <v>215</v>
-      </c>
-      <c r="F231" t="s">
-        <v>509</v>
-      </c>
-      <c r="G231">
-        <v>77000</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>3</v>
-      </c>
-      <c r="B232" t="s">
-        <v>511</v>
-      </c>
-      <c r="C232" t="s">
-        <v>508</v>
-      </c>
-      <c r="D232" t="s">
-        <v>559</v>
-      </c>
-      <c r="E232" t="s">
-        <v>214</v>
-      </c>
-      <c r="F232" t="s">
-        <v>512</v>
-      </c>
-      <c r="G232">
-        <v>72760</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A233">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>513</v>
-      </c>
-      <c r="C233" t="s">
-        <v>508</v>
-      </c>
-      <c r="D233" t="s">
-        <v>560</v>
-      </c>
-      <c r="E233" t="s">
-        <v>214</v>
-      </c>
-      <c r="F233" t="s">
-        <v>512</v>
-      </c>
-      <c r="G233">
-        <v>86860</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A234">
-        <v>5</v>
-      </c>
-      <c r="B234" t="s">
-        <v>514</v>
-      </c>
-      <c r="C234" t="s">
-        <v>508</v>
-      </c>
-      <c r="D234" t="s">
-        <v>561</v>
-      </c>
-      <c r="E234" t="s">
-        <v>214</v>
-      </c>
-      <c r="F234" t="s">
-        <v>515</v>
-      </c>
-      <c r="G234">
-        <v>45810</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A235">
-        <v>6</v>
-      </c>
-      <c r="B235" t="s">
-        <v>516</v>
-      </c>
-      <c r="C235" t="s">
-        <v>508</v>
-      </c>
-      <c r="D235" t="s">
-        <v>559</v>
-      </c>
-      <c r="E235" t="s">
-        <v>214</v>
-      </c>
-      <c r="F235" t="s">
-        <v>515</v>
-      </c>
-      <c r="G235">
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A236">
-        <v>7</v>
-      </c>
-      <c r="B236" t="s">
-        <v>517</v>
-      </c>
-      <c r="C236" t="s">
-        <v>508</v>
-      </c>
-      <c r="D236" t="s">
-        <v>560</v>
-      </c>
-      <c r="E236" t="s">
-        <v>214</v>
-      </c>
-      <c r="F236" t="s">
-        <v>515</v>
-      </c>
-      <c r="G236">
-        <v>78210</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A237">
-        <v>8</v>
-      </c>
-      <c r="B237" t="s">
-        <v>518</v>
-      </c>
-      <c r="C237" t="s">
-        <v>521</v>
-      </c>
-      <c r="D237" t="s">
-        <v>562</v>
-      </c>
-      <c r="E237" t="s">
-        <v>215</v>
-      </c>
-      <c r="F237" t="s">
-        <v>519</v>
-      </c>
-      <c r="G237">
-        <v>124580</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A238">
-        <v>9</v>
-      </c>
-      <c r="B238" t="s">
-        <v>520</v>
-      </c>
-      <c r="C238" t="s">
-        <v>521</v>
-      </c>
-      <c r="D238" t="s">
-        <v>561</v>
-      </c>
-      <c r="E238" t="s">
-        <v>215</v>
-      </c>
-      <c r="F238" t="s">
-        <v>522</v>
-      </c>
-      <c r="G238">
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A239">
-        <v>10</v>
-      </c>
-      <c r="B239" t="s">
-        <v>523</v>
-      </c>
-      <c r="C239" t="s">
-        <v>521</v>
-      </c>
-      <c r="D239" t="s">
-        <v>559</v>
-      </c>
-      <c r="E239" t="s">
-        <v>215</v>
-      </c>
-      <c r="F239" t="s">
-        <v>524</v>
-      </c>
-      <c r="G239">
-        <v>58000</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A240">
-        <v>11</v>
-      </c>
-      <c r="B240" t="s">
-        <v>525</v>
-      </c>
-      <c r="C240" t="s">
-        <v>521</v>
-      </c>
-      <c r="D240" t="s">
-        <v>558</v>
-      </c>
-      <c r="E240" t="s">
-        <v>215</v>
-      </c>
-      <c r="F240" t="s">
-        <v>526</v>
-      </c>
-      <c r="G240">
-        <v>77090</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241">
-        <v>12</v>
-      </c>
-      <c r="B241" t="s">
-        <v>527</v>
-      </c>
-      <c r="C241" t="s">
-        <v>521</v>
-      </c>
-      <c r="D241" t="s">
-        <v>558</v>
-      </c>
-      <c r="E241" t="s">
-        <v>215</v>
-      </c>
-      <c r="F241" t="s">
-        <v>528</v>
-      </c>
-      <c r="G241">
-        <v>75500</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242">
-        <v>13</v>
-      </c>
-      <c r="B242" t="s">
-        <v>529</v>
-      </c>
-      <c r="C242" t="s">
-        <v>521</v>
-      </c>
-      <c r="D242" t="s">
-        <v>560</v>
-      </c>
-      <c r="E242" t="s">
-        <v>215</v>
-      </c>
-      <c r="F242" t="s">
-        <v>530</v>
-      </c>
-      <c r="G242">
-        <v>73500</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243">
-        <v>14</v>
-      </c>
-      <c r="B243" t="s">
-        <v>531</v>
-      </c>
-      <c r="C243" t="s">
-        <v>521</v>
-      </c>
-      <c r="D243" t="s">
-        <v>563</v>
-      </c>
-      <c r="E243" t="s">
-        <v>215</v>
-      </c>
-      <c r="F243" t="s">
-        <v>524</v>
-      </c>
-      <c r="G243">
-        <v>86500</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244">
-        <v>15</v>
-      </c>
-      <c r="B244" t="s">
-        <v>532</v>
-      </c>
-      <c r="C244" t="s">
-        <v>533</v>
-      </c>
-      <c r="D244" t="s">
-        <v>558</v>
-      </c>
-      <c r="E244" t="s">
-        <v>214</v>
-      </c>
-      <c r="F244" t="s">
-        <v>534</v>
-      </c>
-      <c r="G244">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245">
-        <v>16</v>
-      </c>
-      <c r="B245" t="s">
-        <v>535</v>
-      </c>
-      <c r="C245" t="s">
-        <v>533</v>
-      </c>
-      <c r="D245" t="s">
-        <v>558</v>
-      </c>
-      <c r="E245" t="s">
-        <v>214</v>
-      </c>
-      <c r="F245" t="s">
-        <v>536</v>
-      </c>
-      <c r="G245">
-        <v>133000</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246">
-        <v>17</v>
-      </c>
-      <c r="B246" t="s">
-        <v>537</v>
-      </c>
-      <c r="C246" t="s">
-        <v>533</v>
-      </c>
-      <c r="D246" t="s">
-        <v>562</v>
-      </c>
-      <c r="E246" t="s">
-        <v>214</v>
-      </c>
-      <c r="F246" t="s">
-        <v>538</v>
-      </c>
-      <c r="G246">
-        <v>151000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247">
-        <v>18</v>
-      </c>
-      <c r="B247" t="s">
-        <v>539</v>
-      </c>
-      <c r="C247" t="s">
-        <v>533</v>
-      </c>
-      <c r="D247" t="s">
-        <v>564</v>
-      </c>
-      <c r="E247" t="s">
-        <v>214</v>
-      </c>
-      <c r="F247" t="s">
-        <v>534</v>
-      </c>
-      <c r="G247">
-        <v>172000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248">
-        <v>19</v>
-      </c>
-      <c r="B248" t="s">
-        <v>540</v>
-      </c>
-      <c r="C248" t="s">
-        <v>533</v>
-      </c>
-      <c r="D248" t="s">
-        <v>565</v>
-      </c>
-      <c r="E248" t="s">
-        <v>214</v>
-      </c>
-      <c r="F248" t="s">
-        <v>534</v>
-      </c>
-      <c r="G248">
-        <v>294040</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249">
-        <v>20</v>
-      </c>
-      <c r="B249" t="s">
-        <v>541</v>
-      </c>
-      <c r="C249" t="s">
-        <v>533</v>
-      </c>
-      <c r="D249" t="s">
-        <v>565</v>
-      </c>
-      <c r="E249" t="s">
-        <v>214</v>
-      </c>
-      <c r="F249" t="s">
-        <v>542</v>
-      </c>
-      <c r="G249">
-        <v>469270</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250">
-        <v>21</v>
-      </c>
-      <c r="B250" t="s">
-        <v>543</v>
-      </c>
-      <c r="C250" t="s">
-        <v>533</v>
-      </c>
-      <c r="D250" t="s">
-        <v>557</v>
-      </c>
-      <c r="E250" t="s">
-        <v>215</v>
-      </c>
-      <c r="F250" t="s">
-        <v>544</v>
-      </c>
-      <c r="G250">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251">
-        <v>22</v>
-      </c>
-      <c r="B251" t="s">
-        <v>545</v>
-      </c>
-      <c r="C251" t="s">
-        <v>546</v>
-      </c>
-      <c r="D251" t="s">
-        <v>561</v>
-      </c>
-      <c r="E251" t="s">
-        <v>215</v>
-      </c>
-      <c r="F251" t="s">
-        <v>547</v>
-      </c>
-      <c r="G251">
-        <v>32400</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252">
-        <v>23</v>
-      </c>
-      <c r="B252" t="s">
-        <v>548</v>
-      </c>
-      <c r="C252" t="s">
-        <v>546</v>
-      </c>
-      <c r="D252" t="s">
-        <v>559</v>
-      </c>
-      <c r="E252" t="s">
-        <v>215</v>
-      </c>
-      <c r="F252" t="s">
-        <v>549</v>
-      </c>
-      <c r="G252">
-        <v>40340</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253">
-        <v>24</v>
-      </c>
-      <c r="B253" t="s">
-        <v>550</v>
-      </c>
-      <c r="C253" t="s">
-        <v>546</v>
-      </c>
-      <c r="D253" t="s">
-        <v>557</v>
-      </c>
-      <c r="E253" t="s">
-        <v>214</v>
-      </c>
-      <c r="F253" t="s">
-        <v>544</v>
-      </c>
-      <c r="G253">
-        <v>52500</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>25</v>
-      </c>
-      <c r="B254" t="s">
-        <v>551</v>
-      </c>
-      <c r="C254" t="s">
-        <v>546</v>
-      </c>
-      <c r="D254" t="s">
-        <v>558</v>
-      </c>
-      <c r="E254" t="s">
-        <v>214</v>
-      </c>
-      <c r="F254" t="s">
-        <v>552</v>
-      </c>
-      <c r="G254">
-        <v>63580</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255">
-        <v>26</v>
-      </c>
-      <c r="B255" t="s">
-        <v>553</v>
-      </c>
-      <c r="C255" t="s">
-        <v>546</v>
-      </c>
-      <c r="D255" t="s">
-        <v>562</v>
-      </c>
-      <c r="E255" t="s">
-        <v>214</v>
-      </c>
-      <c r="F255" t="s">
-        <v>544</v>
-      </c>
-      <c r="G255">
-        <v>73000</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256">
-        <v>27</v>
-      </c>
-      <c r="B256" t="s">
-        <v>554</v>
-      </c>
-      <c r="C256" t="s">
-        <v>546</v>
-      </c>
-      <c r="D256" t="s">
-        <v>561</v>
-      </c>
-      <c r="E256" t="s">
-        <v>215</v>
-      </c>
-      <c r="F256" t="s">
-        <v>524</v>
-      </c>
-      <c r="G256">
-        <v>42500</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257">
-        <v>28</v>
-      </c>
-      <c r="B257" t="s">
-        <v>555</v>
-      </c>
-      <c r="C257" t="s">
-        <v>546</v>
-      </c>
-      <c r="D257" t="s">
-        <v>559</v>
-      </c>
-      <c r="E257" t="s">
-        <v>215</v>
-      </c>
-      <c r="F257" t="s">
-        <v>556</v>
-      </c>
-      <c r="G257">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B261" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B262" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B263" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>296</v>
-      </c>
-      <c r="B264" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>346</v>
-      </c>
-      <c r="B265" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>347</v>
-      </c>
-      <c r="B266" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>348</v>
-      </c>
-      <c r="B267" t="s">
+      <c r="B298" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6053,48 +8035,48 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="M1" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="G2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="I2" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="M2" t="s">
         <v>293</v>
       </c>
       <c r="N2" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="O2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -6102,10 +8084,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6117,22 +8099,22 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="O3" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -6140,10 +8122,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -6155,22 +8137,22 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="O4" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -6178,10 +8160,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6193,13 +8175,13 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -6208,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -6216,10 +8198,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6231,22 +8213,22 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="M6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="N6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="O6" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -6254,10 +8236,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6269,21 +8251,21 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="J14" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -6291,31 +8273,31 @@
         <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C15" t="s">
         <v>294</v>
       </c>
       <c r="D15" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E15" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="J15" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="K15" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="L15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="M15" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N15" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -6335,13 +8317,13 @@
         <v>9999</v>
       </c>
       <c r="K16" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L16" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="M16" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -6352,10 +8334,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C17" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D17">
         <v>1000</v>
@@ -6364,13 +8346,13 @@
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L17" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="M17" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -6378,10 +8360,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D18">
         <v>1500</v>
@@ -6390,13 +8372,13 @@
         <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L18" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="M18" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -6404,10 +8386,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C19" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D19">
         <v>500</v>
@@ -6416,7 +8398,7 @@
         <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -6424,10 +8406,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -6436,7 +8418,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -6444,10 +8426,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C21" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -6456,17 +8438,17 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -6474,13 +8456,13 @@
         <v>293</v>
       </c>
       <c r="B26" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C26" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D26" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -6544,40 +8526,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="C9" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/WebContent/hsw/상품 데이터.xlsx
+++ b/WebContent/hsw/상품 데이터.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A2C3B8-16B3-4FD3-A1C8-74A6B99C1DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8844" yWindow="12" windowWidth="14064" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="751">
   <si>
     <t>컴퓨터 부품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2670,12 +2671,94 @@
   </si>
   <si>
     <t>잘만 N5 OF</t>
+  </si>
+  <si>
+    <t>(인텔) B365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AMD) B450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASRock A320M-HDV R4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASRock B365M PRO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASRock B450M PRO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASRock B450M 스틸레전드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASRock B450M-HDV R4.0</t>
+  </si>
+  <si>
+    <t>저장필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASRock H310CM-HDV Plus</t>
+  </si>
+  <si>
+    <t>(인텔) H310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASRock Z390 EXTREME4</t>
+  </si>
+  <si>
+    <t>(인텔) Z390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS EX A320M-GAMING</t>
+  </si>
+  <si>
+    <t>(AMD) A320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS PRIME B365M-A</t>
+  </si>
+  <si>
+    <t>ASUS PRIME H310M-A R2.0</t>
+  </si>
+  <si>
+    <t>ASUS PRIME Z390-A</t>
+  </si>
+  <si>
+    <t>ASUS ROG STRIX X570-F GAMING</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AMD) X570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS TUF B450M-PRO GAMING</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming X570-PLUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -2839,6 +2922,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2874,6 +2974,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3049,30 +3166,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G275" sqref="G275"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="B78" sqref="A68:K85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3083,7 +3200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -3103,7 +3220,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -3165,7 +3282,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3185,7 +3302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3199,7 +3316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -3219,7 +3336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -3257,7 +3374,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -3286,7 +3403,7 @@
         <v>121890</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -3315,7 +3432,7 @@
         <v>137280</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -3344,7 +3461,7 @@
         <v>189350</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -3373,7 +3490,7 @@
         <v>204090</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>260</v>
       </c>
@@ -3402,7 +3519,7 @@
         <v>272830</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>261</v>
       </c>
@@ -3431,7 +3548,7 @@
         <v>438420</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>262</v>
       </c>
@@ -3460,7 +3577,7 @@
         <v>702790</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -3489,7 +3606,7 @@
         <v>99170</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>264</v>
       </c>
@@ -3518,7 +3635,7 @@
         <v>253800</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>265</v>
       </c>
@@ -3547,7 +3664,7 @@
         <v>265030</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>266</v>
       </c>
@@ -3576,7 +3693,7 @@
         <v>433790</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>267</v>
       </c>
@@ -3605,7 +3722,7 @@
         <v>558660</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -3634,7 +3751,7 @@
         <v>720330</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>269</v>
       </c>
@@ -3663,42 +3780,42 @@
         <v>1340780</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -3727,7 +3844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -3761,7 +3878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -3781,7 +3898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -3819,112 +3936,112 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -3947,7 +4064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
@@ -3976,7 +4093,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
@@ -3987,7 +4104,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>52</v>
       </c>
@@ -4001,7 +4118,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>53</v>
       </c>
@@ -4018,7 +4135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>96</v>
       </c>
@@ -4053,97 +4170,391 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>731</v>
+      </c>
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>732</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" t="s">
+        <v>728</v>
+      </c>
+      <c r="E70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>729</v>
+      </c>
+      <c r="H70">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>733</v>
+      </c>
+      <c r="C71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" t="s">
+        <v>730</v>
+      </c>
+      <c r="E71" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>734</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>730</v>
+      </c>
+      <c r="E72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>735</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" t="s">
+        <v>730</v>
+      </c>
+      <c r="E73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>93000</v>
+      </c>
+      <c r="J73" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>737</v>
+      </c>
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" t="s">
+        <v>738</v>
+      </c>
+      <c r="E74" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>739</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" t="s">
+        <v>740</v>
+      </c>
+      <c r="E75" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>239000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>741</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" t="s">
+        <v>742</v>
+      </c>
+      <c r="E76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>94970</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>743</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" t="s">
+        <v>728</v>
+      </c>
+      <c r="E77" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>121790</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>744</v>
+      </c>
+      <c r="C78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" t="s">
+        <v>738</v>
+      </c>
+      <c r="E78" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>745</v>
+      </c>
+      <c r="C79" t="s">
+        <v>747</v>
+      </c>
+      <c r="D79" t="s">
+        <v>740</v>
+      </c>
+      <c r="E79" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>275980</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>746</v>
+      </c>
+      <c r="C80" t="s">
+        <v>747</v>
+      </c>
+      <c r="D80" t="s">
+        <v>748</v>
+      </c>
+      <c r="E80" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>749</v>
+      </c>
+      <c r="C81" t="s">
+        <v>747</v>
+      </c>
+      <c r="D81" t="s">
+        <v>730</v>
+      </c>
+      <c r="E81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>750</v>
+      </c>
+      <c r="C82" t="s">
+        <v>747</v>
+      </c>
+      <c r="D82" t="s">
+        <v>748</v>
+      </c>
+      <c r="E82" t="s">
+        <v>101</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>316000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>107</v>
       </c>
@@ -4160,7 +4571,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>108</v>
       </c>
@@ -4189,7 +4600,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>109</v>
       </c>
@@ -4215,7 +4626,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>110</v>
       </c>
@@ -4226,7 +4637,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>293</v>
       </c>
@@ -4258,7 +4669,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>1</v>
       </c>
@@ -4281,7 +4692,7 @@
         <v>57060</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>2</v>
       </c>
@@ -4304,7 +4715,7 @@
         <v>107340</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>3</v>
       </c>
@@ -4327,7 +4738,7 @@
         <v>143500</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>4</v>
       </c>
@@ -4350,7 +4761,7 @@
         <v>141240</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>5</v>
       </c>
@@ -4373,7 +4784,7 @@
         <v>210730</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>6</v>
       </c>
@@ -4396,7 +4807,7 @@
         <v>201130</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>7</v>
       </c>
@@ -4419,7 +4830,7 @@
         <v>248590</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>8</v>
       </c>
@@ -4442,7 +4853,7 @@
         <v>24290</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>9</v>
       </c>
@@ -4465,7 +4876,7 @@
         <v>47800</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>10</v>
       </c>
@@ -4488,7 +4899,7 @@
         <v>42490</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4511,7 +4922,7 @@
         <v>50960</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4534,7 +4945,7 @@
         <v>47260</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4557,7 +4968,7 @@
         <v>127460</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>14</v>
       </c>
@@ -4580,7 +4991,7 @@
         <v>122150</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>15</v>
       </c>
@@ -4603,7 +5014,7 @@
         <v>49720</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>16</v>
       </c>
@@ -4626,7 +5037,7 @@
         <v>58420</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>17</v>
       </c>
@@ -4649,7 +5060,7 @@
         <v>127460</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>18</v>
       </c>
@@ -4672,7 +5083,7 @@
         <v>127460</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>19</v>
       </c>
@@ -4695,7 +5106,7 @@
         <v>169940</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>20</v>
       </c>
@@ -4718,7 +5129,7 @@
         <v>238980</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>21</v>
       </c>
@@ -4741,7 +5152,7 @@
         <v>238980</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>22</v>
       </c>
@@ -4764,7 +5175,7 @@
         <v>112990</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>23</v>
       </c>
@@ -4787,7 +5198,7 @@
         <v>143020</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>24</v>
       </c>
@@ -4810,7 +5221,7 @@
         <v>143020</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>25</v>
       </c>
@@ -4833,7 +5244,7 @@
         <v>44070</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>26</v>
       </c>
@@ -4856,7 +5267,7 @@
         <v>66670</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>27</v>
       </c>
@@ -4879,7 +5290,7 @@
         <v>21130</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>28</v>
       </c>
@@ -4902,7 +5313,7 @@
         <v>55370</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>29</v>
       </c>
@@ -4925,7 +5336,7 @@
         <v>42490</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>30</v>
       </c>
@@ -4948,7 +5359,7 @@
         <v>109600</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>31</v>
       </c>
@@ -4971,7 +5382,7 @@
         <v>82940</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>32</v>
       </c>
@@ -4994,12 +5405,12 @@
         <v>172880</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -5028,7 +5439,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>142</v>
       </c>
@@ -5039,10 +5450,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>296</v>
       </c>
@@ -5068,7 +5479,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>641</v>
       </c>
@@ -5085,7 +5496,7 @@
         <v>430860</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>297</v>
       </c>
@@ -5102,7 +5513,7 @@
         <v>592000</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>298</v>
       </c>
@@ -5119,7 +5530,7 @@
         <v>681000</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>299</v>
       </c>
@@ -5136,7 +5547,7 @@
         <v>2093000</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>300</v>
       </c>
@@ -5153,7 +5564,7 @@
         <v>1817000</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>301</v>
       </c>
@@ -5170,7 +5581,7 @@
         <v>2090500</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>302</v>
       </c>
@@ -5187,7 +5598,7 @@
         <v>1050280</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>303</v>
       </c>
@@ -5204,7 +5615,7 @@
         <v>499440</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>304</v>
       </c>
@@ -5221,7 +5632,7 @@
         <v>516200</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>305</v>
       </c>
@@ -5238,7 +5649,7 @@
         <v>408940</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>306</v>
       </c>
@@ -5255,7 +5666,7 @@
         <v>456980</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>307</v>
       </c>
@@ -5272,7 +5683,7 @@
         <v>549000</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>308</v>
       </c>
@@ -5289,7 +5700,7 @@
         <v>469000</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>309</v>
       </c>
@@ -5306,7 +5717,7 @@
         <v>458000</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>310</v>
       </c>
@@ -5323,7 +5734,7 @@
         <v>399000</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>610</v>
       </c>
@@ -5340,7 +5751,7 @@
         <v>384360</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>612</v>
       </c>
@@ -5357,7 +5768,7 @@
         <v>458100</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>614</v>
       </c>
@@ -5374,7 +5785,7 @@
         <v>1809000</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>616</v>
       </c>
@@ -5391,7 +5802,7 @@
         <v>1490000</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>618</v>
       </c>
@@ -5408,7 +5819,7 @@
         <v>1010000</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>620</v>
       </c>
@@ -5425,7 +5836,7 @@
         <v>616760</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>623</v>
       </c>
@@ -5442,7 +5853,7 @@
         <v>639660</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>625</v>
       </c>
@@ -5459,7 +5870,7 @@
         <v>1106150</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>627</v>
       </c>
@@ -5476,7 +5887,7 @@
         <v>460340</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>629</v>
       </c>
@@ -5493,7 +5904,7 @@
         <v>397770</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>631</v>
       </c>
@@ -5510,7 +5921,7 @@
         <v>396000</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>633</v>
       </c>
@@ -5527,7 +5938,7 @@
         <v>456980</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>635</v>
       </c>
@@ -5544,7 +5955,7 @@
         <v>486030</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>637</v>
       </c>
@@ -5561,7 +5972,7 @@
         <v>1620000</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>639</v>
       </c>
@@ -5578,12 +5989,12 @@
         <v>1531000</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>6</v>
       </c>
@@ -5606,7 +6017,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>144</v>
       </c>
@@ -5638,7 +6049,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>145</v>
       </c>
@@ -5652,10 +6063,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>296</v>
       </c>
@@ -5684,7 +6095,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5704,7 +6115,7 @@
         <v>54190</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>2</v>
       </c>
@@ -5724,7 +6135,7 @@
         <v>184130</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>3</v>
       </c>
@@ -5744,7 +6155,7 @@
         <v>356760</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>4</v>
       </c>
@@ -5764,7 +6175,7 @@
         <v>68490</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>5</v>
       </c>
@@ -5784,7 +6195,7 @@
         <v>102460</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>6</v>
       </c>
@@ -5804,7 +6215,7 @@
         <v>389000</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>7</v>
       </c>
@@ -5824,7 +6235,7 @@
         <v>199000</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>8</v>
       </c>
@@ -5844,7 +6255,7 @@
         <v>184360</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>9</v>
       </c>
@@ -5864,7 +6275,7 @@
         <v>67040</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>10</v>
       </c>
@@ -5884,7 +6295,7 @@
         <v>100560</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>11</v>
       </c>
@@ -5904,7 +6315,7 @@
         <v>184360</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>12</v>
       </c>
@@ -5924,7 +6335,7 @@
         <v>105030</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>13</v>
       </c>
@@ -5944,7 +6355,7 @@
         <v>36870</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>14</v>
       </c>
@@ -5964,7 +6375,7 @@
         <v>53500</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>15</v>
       </c>
@@ -5984,7 +6395,7 @@
         <v>37990</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>16</v>
       </c>
@@ -6004,7 +6415,7 @@
         <v>55870</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>17</v>
       </c>
@@ -6024,7 +6435,7 @@
         <v>179890</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>18</v>
       </c>
@@ -6044,7 +6455,7 @@
         <v>63690</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>19</v>
       </c>
@@ -6064,7 +6475,7 @@
         <v>94970</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>20</v>
       </c>
@@ -6084,7 +6495,7 @@
         <v>61450</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>21</v>
       </c>
@@ -6104,7 +6515,7 @@
         <v>98320</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>22</v>
       </c>
@@ -6124,7 +6535,7 @@
         <v>244690</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>23</v>
       </c>
@@ -6144,7 +6555,7 @@
         <v>75980</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>24</v>
       </c>
@@ -6164,7 +6575,7 @@
         <v>122910</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>25</v>
       </c>
@@ -6184,7 +6595,7 @@
         <v>290500</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>26</v>
       </c>
@@ -6204,7 +6615,7 @@
         <v>149720</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>27</v>
       </c>
@@ -6224,7 +6635,7 @@
         <v>340780</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>28</v>
       </c>
@@ -6244,12 +6655,12 @@
         <v>178770</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>6</v>
       </c>
@@ -6269,7 +6680,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>144</v>
       </c>
@@ -6298,7 +6709,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>163</v>
       </c>
@@ -6309,7 +6720,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>296</v>
       </c>
@@ -6338,7 +6749,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>317</v>
       </c>
@@ -6358,7 +6769,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>318</v>
       </c>
@@ -6378,7 +6789,7 @@
         <v>79440</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>651</v>
       </c>
@@ -6398,7 +6809,7 @@
         <v>109000</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>653</v>
       </c>
@@ -6418,7 +6829,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>656</v>
       </c>
@@ -6438,7 +6849,7 @@
         <v>259000</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>319</v>
       </c>
@@ -6458,7 +6869,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>320</v>
       </c>
@@ -6478,7 +6889,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>660</v>
       </c>
@@ -6498,7 +6909,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>663</v>
       </c>
@@ -6518,7 +6929,7 @@
         <v>74000</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>665</v>
       </c>
@@ -6538,7 +6949,7 @@
         <v>103910</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>667</v>
       </c>
@@ -6558,7 +6969,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>670</v>
       </c>
@@ -6578,7 +6989,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>672</v>
       </c>
@@ -6598,7 +7009,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>674</v>
       </c>
@@ -6618,7 +7029,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>676</v>
       </c>
@@ -6638,7 +7049,7 @@
         <v>189940</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>678</v>
       </c>
@@ -6658,7 +7069,7 @@
         <v>465120</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>680</v>
       </c>
@@ -6678,7 +7089,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>683</v>
       </c>
@@ -6698,7 +7109,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>685</v>
       </c>
@@ -6718,7 +7129,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>687</v>
       </c>
@@ -6738,7 +7149,7 @@
         <v>129000</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>689</v>
       </c>
@@ -6758,12 +7169,12 @@
         <v>174590</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>6</v>
       </c>
@@ -6792,7 +7203,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>188</v>
       </c>
@@ -6815,7 +7226,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>195</v>
       </c>
@@ -6832,7 +7243,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>296</v>
       </c>
@@ -6861,7 +7272,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>691</v>
       </c>
@@ -6881,7 +7292,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>695</v>
       </c>
@@ -6901,7 +7312,7 @@
         <v>40670</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>697</v>
       </c>
@@ -6921,7 +7332,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>700</v>
       </c>
@@ -6941,7 +7352,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>327</v>
       </c>
@@ -6961,7 +7372,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>704</v>
       </c>
@@ -6981,7 +7392,7 @@
         <v>85500</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>328</v>
       </c>
@@ -7001,7 +7412,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>329</v>
       </c>
@@ -7021,7 +7432,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>710</v>
       </c>
@@ -7041,7 +7452,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>330</v>
       </c>
@@ -7061,7 +7472,7 @@
         <v>22350</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>331</v>
       </c>
@@ -7081,7 +7492,7 @@
         <v>81560</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>717</v>
       </c>
@@ -7101,7 +7512,7 @@
         <v>81500</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>719</v>
       </c>
@@ -7121,7 +7532,7 @@
         <v>41340</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>722</v>
       </c>
@@ -7141,7 +7552,7 @@
         <v>44690</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>724</v>
       </c>
@@ -7161,7 +7572,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>726</v>
       </c>
@@ -7181,12 +7592,12 @@
         <v>37320</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
         <v>6</v>
       </c>
@@ -7215,7 +7626,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
         <v>207</v>
       </c>
@@ -7235,7 +7646,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
         <v>213</v>
       </c>
@@ -7252,7 +7663,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
         <v>218</v>
       </c>
@@ -7281,7 +7692,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>296</v>
       </c>
@@ -7313,7 +7724,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>1</v>
       </c>
@@ -7336,7 +7747,7 @@
         <v>62630</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>2</v>
       </c>
@@ -7359,7 +7770,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>3</v>
       </c>
@@ -7382,7 +7793,7 @@
         <v>72760</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>4</v>
       </c>
@@ -7405,7 +7816,7 @@
         <v>86860</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>5</v>
       </c>
@@ -7428,7 +7839,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>6</v>
       </c>
@@ -7451,7 +7862,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>7</v>
       </c>
@@ -7474,7 +7885,7 @@
         <v>78210</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>8</v>
       </c>
@@ -7497,7 +7908,7 @@
         <v>124580</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>9</v>
       </c>
@@ -7520,7 +7931,7 @@
         <v>47500</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>10</v>
       </c>
@@ -7543,7 +7954,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>11</v>
       </c>
@@ -7566,7 +7977,7 @@
         <v>77090</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>12</v>
       </c>
@@ -7589,7 +8000,7 @@
         <v>75500</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>13</v>
       </c>
@@ -7612,7 +8023,7 @@
         <v>73500</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>14</v>
       </c>
@@ -7635,7 +8046,7 @@
         <v>86500</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>15</v>
       </c>
@@ -7658,7 +8069,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>16</v>
       </c>
@@ -7681,7 +8092,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>17</v>
       </c>
@@ -7704,7 +8115,7 @@
         <v>151000</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>18</v>
       </c>
@@ -7727,7 +8138,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>19</v>
       </c>
@@ -7750,7 +8161,7 @@
         <v>294040</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>20</v>
       </c>
@@ -7773,7 +8184,7 @@
         <v>469270</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>21</v>
       </c>
@@ -7796,7 +8207,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>22</v>
       </c>
@@ -7819,7 +8230,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>23</v>
       </c>
@@ -7842,7 +8253,7 @@
         <v>40340</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>24</v>
       </c>
@@ -7865,7 +8276,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>25</v>
       </c>
@@ -7888,7 +8299,7 @@
         <v>63580</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>26</v>
       </c>
@@ -7911,7 +8322,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>27</v>
       </c>
@@ -7934,7 +8345,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>28</v>
       </c>
@@ -7957,12 +8368,12 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A291" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
         <v>228</v>
       </c>
@@ -7970,17 +8381,17 @@
         <v>229</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B293" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B294" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -7988,7 +8399,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>333</v>
       </c>
@@ -7996,7 +8407,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>334</v>
       </c>
@@ -8004,7 +8415,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>335</v>
       </c>
@@ -8020,20 +8431,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>340</v>
       </c>
@@ -8041,7 +8452,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>356</v>
       </c>
@@ -8079,7 +8490,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8117,7 +8528,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8155,7 +8566,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8193,7 +8604,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8231,7 +8642,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8260,7 +8671,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>341</v>
       </c>
@@ -8268,7 +8679,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -8300,7 +8711,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0</v>
       </c>
@@ -8329,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1</v>
       </c>
@@ -8355,7 +8766,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8381,7 +8792,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>3</v>
       </c>
@@ -8401,7 +8812,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>4</v>
       </c>
@@ -8421,7 +8832,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8441,17 +8852,17 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="K22" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>293</v>
       </c>
@@ -8465,7 +8876,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1</v>
       </c>
@@ -8479,7 +8890,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2</v>
       </c>
@@ -8493,7 +8904,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>3</v>
       </c>
@@ -8515,41 +8926,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>395</v>
       </c>
@@ -8557,7 +8968,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>397</v>
       </c>

--- a/WebContent/hsw/상품 데이터.xlsx
+++ b/WebContent/hsw/상품 데이터.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A2C3B8-16B3-4FD3-A1C8-74A6B99C1DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8844" yWindow="12" windowWidth="14064" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="15" windowWidth="14070" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="810">
   <si>
     <t>컴퓨터 부품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2704,10 +2703,6 @@
     <t>ASRock B450M-HDV R4.0</t>
   </si>
   <si>
-    <t>저장필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ASRock H310CM-HDV Plus</t>
   </si>
   <si>
@@ -2753,16 +2748,219 @@
   </si>
   <si>
     <t>ASUS TUF Gaming X570-PLUS</t>
+  </si>
+  <si>
+    <t>BIOSTAR A320MH</t>
+  </si>
+  <si>
+    <t>mb18</t>
+  </si>
+  <si>
+    <t>mb19</t>
+  </si>
+  <si>
+    <t>mb20</t>
+  </si>
+  <si>
+    <t>mb21</t>
+  </si>
+  <si>
+    <t>mb22</t>
+  </si>
+  <si>
+    <t>mb23</t>
+  </si>
+  <si>
+    <t>mb24</t>
+  </si>
+  <si>
+    <t>mb25</t>
+  </si>
+  <si>
+    <t>mb26</t>
+  </si>
+  <si>
+    <t>mb27</t>
+  </si>
+  <si>
+    <t>mb28</t>
+  </si>
+  <si>
+    <t>mb29</t>
+  </si>
+  <si>
+    <t>mb30</t>
+  </si>
+  <si>
+    <t>BIOSTAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AMD) A320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIOSTAR B450MH</t>
+  </si>
+  <si>
+    <t>(AMD) B450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIOSTAR H81A BTC</t>
+  </si>
+  <si>
+    <t>(인텔) H81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIOSTAR H310MHD PRO2</t>
+  </si>
+  <si>
+    <t>(인텔) H310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIOSTAR H310MHP</t>
+  </si>
+  <si>
+    <t>BIOSTAR RACING B450GT3</t>
+  </si>
+  <si>
+    <t>(AMD) B450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIOSTAR RACING X570GT</t>
+  </si>
+  <si>
+    <t>(AMD) X570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb31</t>
+  </si>
+  <si>
+    <t>mb32</t>
+  </si>
+  <si>
+    <t>mb33</t>
+  </si>
+  <si>
+    <t>mb34</t>
+  </si>
+  <si>
+    <t>mb35</t>
+  </si>
+  <si>
+    <t>GIGABYTE B365M DS3H 듀러블에디션</t>
+  </si>
+  <si>
+    <t>(인텔) B365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIGABYTE GA-A320M-S2H 듀러블에디션</t>
+  </si>
+  <si>
+    <t>(AMD) A320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIGABYTE H310M DS2V 2.0 듀러블에디션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(인텔) H310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIGABYTE X570 AORUS ELITE</t>
+  </si>
+  <si>
+    <t>(AMD) X570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIGABYTE X570 AORUS MASTER</t>
+  </si>
+  <si>
+    <t>(AMD) X570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIGABYTE X570 I AORUS PRO WIFI</t>
+  </si>
+  <si>
+    <t>(AMD) X570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIGABYTE Z390 AORUS ELITE</t>
+  </si>
+  <si>
+    <t>(인텔) Z390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI A320M-A PRO</t>
+  </si>
+  <si>
+    <t>(AMD) A320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI B360M 박격포</t>
+  </si>
+  <si>
+    <t>(인텔) B360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI B450 게이밍 프로 카본 AC</t>
+  </si>
+  <si>
+    <t>(AMD) B450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI H310M PRO-VD PLUS</t>
+  </si>
+  <si>
+    <t>(인텔) H310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI MAG B365M 박격포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI MAG B450M 박격포</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AMD) B450 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI X570-A PRO</t>
+  </si>
+  <si>
+    <t>(AMD) X570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDR4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2781,6 +2979,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2817,7 +3023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2829,6 +3035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2922,23 +3129,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2974,23 +3164,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3166,30 +3339,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T298"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="B78" sqref="A68:K85"/>
+    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3200,7 +3373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -3220,7 +3393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -3282,7 +3455,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3302,7 +3475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3316,7 +3489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -3336,7 +3509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -3374,7 +3547,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -3403,7 +3576,7 @@
         <v>121890</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -3432,7 +3605,7 @@
         <v>137280</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -3461,7 +3634,7 @@
         <v>189350</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -3490,7 +3663,7 @@
         <v>204090</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>260</v>
       </c>
@@ -3519,7 +3692,7 @@
         <v>272830</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>261</v>
       </c>
@@ -3548,7 +3721,7 @@
         <v>438420</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>262</v>
       </c>
@@ -3577,7 +3750,7 @@
         <v>702790</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -3606,7 +3779,7 @@
         <v>99170</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>264</v>
       </c>
@@ -3635,7 +3808,7 @@
         <v>253800</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>265</v>
       </c>
@@ -3664,7 +3837,7 @@
         <v>265030</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>266</v>
       </c>
@@ -3693,7 +3866,7 @@
         <v>433790</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>267</v>
       </c>
@@ -3722,7 +3895,7 @@
         <v>558660</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -3751,7 +3924,7 @@
         <v>720330</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>269</v>
       </c>
@@ -3780,42 +3953,42 @@
         <v>1340780</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -3844,7 +4017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -3867,7 +4040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -3878,7 +4051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -3898,7 +4071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -3936,112 +4109,112 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -4064,7 +4237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
@@ -4093,7 +4266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
@@ -4104,7 +4277,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>52</v>
       </c>
@@ -4118,7 +4291,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>53</v>
       </c>
@@ -4135,7 +4308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>96</v>
       </c>
@@ -4170,7 +4343,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>276</v>
       </c>
@@ -4196,7 +4369,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>277</v>
       </c>
@@ -4222,7 +4395,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>278</v>
       </c>
@@ -4248,7 +4421,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>279</v>
       </c>
@@ -4274,7 +4447,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>280</v>
       </c>
@@ -4299,22 +4472,19 @@
       <c r="H73">
         <v>93000</v>
       </c>
-      <c r="J73" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C74" t="s">
         <v>54</v>
       </c>
       <c r="D74" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E74" t="s">
         <v>101</v>
@@ -4326,18 +4496,18 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C75" t="s">
         <v>54</v>
       </c>
       <c r="D75" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E75" t="s">
         <v>101</v>
@@ -4352,18 +4522,18 @@
         <v>239000</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>283</v>
       </c>
       <c r="B76" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C76" t="s">
         <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E76" t="s">
         <v>101</v>
@@ -4378,12 +4548,12 @@
         <v>94970</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>284</v>
       </c>
       <c r="B77" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C77" t="s">
         <v>55</v>
@@ -4404,18 +4574,18 @@
         <v>121790</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>285</v>
       </c>
       <c r="B78" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C78" t="s">
         <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E78" t="s">
         <v>101</v>
@@ -4430,18 +4600,18 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>286</v>
       </c>
       <c r="B79" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C79" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D79" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E79" t="s">
         <v>101</v>
@@ -4456,18 +4626,18 @@
         <v>275980</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>287</v>
       </c>
       <c r="B80" t="s">
+        <v>745</v>
+      </c>
+      <c r="C80" t="s">
         <v>746</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>747</v>
-      </c>
-      <c r="D80" t="s">
-        <v>748</v>
       </c>
       <c r="E80" t="s">
         <v>101</v>
@@ -4482,15 +4652,15 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>288</v>
       </c>
       <c r="B81" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C81" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D81" t="s">
         <v>730</v>
@@ -4508,18 +4678,18 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>289</v>
       </c>
       <c r="B82" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C82" t="s">
+        <v>746</v>
+      </c>
+      <c r="D82" t="s">
         <v>747</v>
-      </c>
-      <c r="D82" t="s">
-        <v>748</v>
       </c>
       <c r="E82" t="s">
         <v>101</v>
@@ -4534,567 +4704,689 @@
         <v>316000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>750</v>
+      </c>
+      <c r="C83" t="s">
+        <v>764</v>
+      </c>
+      <c r="D83" t="s">
+        <v>765</v>
+      </c>
+      <c r="E83" t="s">
+        <v>101</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>61450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
+        <v>766</v>
+      </c>
+      <c r="C84" t="s">
+        <v>764</v>
+      </c>
+      <c r="D84" t="s">
+        <v>767</v>
+      </c>
+      <c r="E84" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>85470</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A88" s="2" t="s">
+      <c r="B85" t="s">
+        <v>768</v>
+      </c>
+      <c r="C85" t="s">
+        <v>764</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="E85" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>65920</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>751</v>
+      </c>
+      <c r="B86" t="s">
+        <v>770</v>
+      </c>
+      <c r="C86" t="s">
+        <v>764</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="E86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>70950</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>752</v>
+      </c>
+      <c r="B87" t="s">
+        <v>772</v>
+      </c>
+      <c r="C87" t="s">
+        <v>764</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="E87" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>67040</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>753</v>
+      </c>
+      <c r="B88" t="s">
+        <v>773</v>
+      </c>
+      <c r="C88" t="s">
+        <v>764</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="E88" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>103910</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>754</v>
+      </c>
+      <c r="B89" t="s">
+        <v>775</v>
+      </c>
+      <c r="C89" t="s">
+        <v>764</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="E89" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>169830</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>755</v>
+      </c>
+      <c r="B90" t="s">
+        <v>782</v>
+      </c>
+      <c r="C90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="E90" t="s">
+        <v>101</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>99440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>756</v>
+      </c>
+      <c r="B91" t="s">
+        <v>784</v>
+      </c>
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="E91" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>75980</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>757</v>
+      </c>
+      <c r="B92" t="s">
+        <v>786</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="E92" t="s">
+        <v>101</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>78210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>758</v>
+      </c>
+      <c r="B93" t="s">
+        <v>788</v>
+      </c>
+      <c r="C93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E93" t="s">
+        <v>101</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>299000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>759</v>
+      </c>
+      <c r="B94" t="s">
+        <v>790</v>
+      </c>
+      <c r="C94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="E94" t="s">
+        <v>101</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>532000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>760</v>
+      </c>
+      <c r="B95" t="s">
+        <v>792</v>
+      </c>
+      <c r="C95" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="E95" t="s">
+        <v>101</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>729</v>
+      </c>
+      <c r="H95">
+        <v>363000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>761</v>
+      </c>
+      <c r="B96" t="s">
+        <v>794</v>
+      </c>
+      <c r="C96" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="E96" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>762</v>
+      </c>
+      <c r="B97" t="s">
+        <v>796</v>
+      </c>
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="E97" t="s">
+        <v>101</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>763</v>
+      </c>
+      <c r="B98" t="s">
+        <v>798</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="E98" t="s">
+        <v>101</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>116200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>777</v>
+      </c>
+      <c r="B99" t="s">
+        <v>800</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E99" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>164000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>778</v>
+      </c>
+      <c r="B100" t="s">
+        <v>802</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="E100" t="s">
+        <v>101</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>779</v>
+      </c>
+      <c r="B101" t="s">
+        <v>804</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="E101" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>113970</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>780</v>
+      </c>
+      <c r="B102" t="s">
+        <v>805</v>
+      </c>
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="E102" t="s">
+        <v>101</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>121000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>781</v>
+      </c>
+      <c r="B103" t="s">
+        <v>807</v>
+      </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="E103" t="s">
+        <v>809</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>209000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B106" t="s">
         <v>111</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C106" t="s">
         <v>112</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D106" t="s">
         <v>113</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E106" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B107" t="s">
         <v>115</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C107" t="s">
         <v>116</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D107" t="s">
         <v>117</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E107" t="s">
         <v>118</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F107" t="s">
         <v>119</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G107" t="s">
         <v>120</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H107" t="s">
         <v>121</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I107" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B108" t="s">
         <v>123</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C108" t="s">
         <v>124</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D108" t="s">
         <v>125</v>
-      </c>
-      <c r="E91" t="s">
-        <v>126</v>
-      </c>
-      <c r="F91" t="s">
-        <v>127</v>
-      </c>
-      <c r="G91" t="s">
-        <v>128</v>
-      </c>
-      <c r="H91" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A92" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>293</v>
-      </c>
-      <c r="B94" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" t="s">
-        <v>105</v>
-      </c>
-      <c r="E94" t="s">
-        <v>295</v>
-      </c>
-      <c r="F94" t="s">
-        <v>49</v>
-      </c>
-      <c r="G94" t="s">
-        <v>336</v>
-      </c>
-      <c r="H94" t="s">
-        <v>337</v>
-      </c>
-      <c r="I94" t="s">
-        <v>339</v>
-      </c>
-      <c r="J94" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95" t="s">
-        <v>466</v>
-      </c>
-      <c r="C95" t="s">
-        <v>467</v>
-      </c>
-      <c r="D95" t="s">
-        <v>118</v>
-      </c>
-      <c r="E95" t="s">
-        <v>127</v>
-      </c>
-      <c r="F95" t="s">
-        <v>101</v>
-      </c>
-      <c r="G95">
-        <v>57060</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A96">
-        <v>2</v>
-      </c>
-      <c r="B96" t="s">
-        <v>468</v>
-      </c>
-      <c r="C96" t="s">
-        <v>467</v>
-      </c>
-      <c r="D96" t="s">
-        <v>118</v>
-      </c>
-      <c r="E96" t="s">
-        <v>126</v>
-      </c>
-      <c r="F96" t="s">
-        <v>101</v>
-      </c>
-      <c r="G96">
-        <v>107340</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A97">
-        <v>3</v>
-      </c>
-      <c r="B97" t="s">
-        <v>469</v>
-      </c>
-      <c r="C97" t="s">
-        <v>467</v>
-      </c>
-      <c r="D97" t="s">
-        <v>115</v>
-      </c>
-      <c r="E97" t="s">
-        <v>126</v>
-      </c>
-      <c r="F97" t="s">
-        <v>101</v>
-      </c>
-      <c r="G97">
-        <v>143500</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A98">
-        <v>4</v>
-      </c>
-      <c r="B98" t="s">
-        <v>470</v>
-      </c>
-      <c r="C98" t="s">
-        <v>467</v>
-      </c>
-      <c r="D98" t="s">
-        <v>115</v>
-      </c>
-      <c r="E98" t="s">
-        <v>126</v>
-      </c>
-      <c r="F98" t="s">
-        <v>101</v>
-      </c>
-      <c r="G98">
-        <v>141240</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A99">
-        <v>5</v>
-      </c>
-      <c r="B99" t="s">
-        <v>471</v>
-      </c>
-      <c r="C99" t="s">
-        <v>467</v>
-      </c>
-      <c r="D99" t="s">
-        <v>492</v>
-      </c>
-      <c r="E99" t="s">
-        <v>126</v>
-      </c>
-      <c r="F99" t="s">
-        <v>101</v>
-      </c>
-      <c r="G99">
-        <v>210730</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <v>6</v>
-      </c>
-      <c r="B100" t="s">
-        <v>472</v>
-      </c>
-      <c r="C100" t="s">
-        <v>467</v>
-      </c>
-      <c r="D100" t="s">
-        <v>492</v>
-      </c>
-      <c r="E100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F100" t="s">
-        <v>101</v>
-      </c>
-      <c r="G100">
-        <v>201130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A101">
-        <v>7</v>
-      </c>
-      <c r="B101" t="s">
-        <v>473</v>
-      </c>
-      <c r="C101" t="s">
-        <v>467</v>
-      </c>
-      <c r="D101" t="s">
-        <v>493</v>
-      </c>
-      <c r="E101" t="s">
-        <v>126</v>
-      </c>
-      <c r="F101" t="s">
-        <v>101</v>
-      </c>
-      <c r="G101">
-        <v>248590</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A102">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>474</v>
-      </c>
-      <c r="C102" t="s">
-        <v>454</v>
-      </c>
-      <c r="D102" t="s">
-        <v>118</v>
-      </c>
-      <c r="E102" t="s">
-        <v>128</v>
-      </c>
-      <c r="F102" t="s">
-        <v>101</v>
-      </c>
-      <c r="G102">
-        <v>24290</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A103">
-        <v>9</v>
-      </c>
-      <c r="B103" t="s">
-        <v>475</v>
-      </c>
-      <c r="C103" t="s">
-        <v>454</v>
-      </c>
-      <c r="D103" t="s">
-        <v>119</v>
-      </c>
-      <c r="E103" t="s">
-        <v>127</v>
-      </c>
-      <c r="F103" t="s">
-        <v>101</v>
-      </c>
-      <c r="G103">
-        <v>47800</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A104">
-        <v>10</v>
-      </c>
-      <c r="B104" t="s">
-        <v>476</v>
-      </c>
-      <c r="C104" t="s">
-        <v>454</v>
-      </c>
-      <c r="D104" t="s">
-        <v>118</v>
-      </c>
-      <c r="E104" t="s">
-        <v>127</v>
-      </c>
-      <c r="F104" t="s">
-        <v>101</v>
-      </c>
-      <c r="G104">
-        <v>42490</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A105">
-        <v>11</v>
-      </c>
-      <c r="B105" t="s">
-        <v>477</v>
-      </c>
-      <c r="C105" t="s">
-        <v>454</v>
-      </c>
-      <c r="D105" t="s">
-        <v>116</v>
-      </c>
-      <c r="E105" t="s">
-        <v>127</v>
-      </c>
-      <c r="F105" t="s">
-        <v>101</v>
-      </c>
-      <c r="G105">
-        <v>50960</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A106">
-        <v>12</v>
-      </c>
-      <c r="B106" t="s">
-        <v>478</v>
-      </c>
-      <c r="C106" t="s">
-        <v>454</v>
-      </c>
-      <c r="D106" t="s">
-        <v>115</v>
-      </c>
-      <c r="E106" t="s">
-        <v>127</v>
-      </c>
-      <c r="F106" t="s">
-        <v>101</v>
-      </c>
-      <c r="G106">
-        <v>47260</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A107">
-        <v>13</v>
-      </c>
-      <c r="B107" t="s">
-        <v>453</v>
-      </c>
-      <c r="C107" t="s">
-        <v>455</v>
-      </c>
-      <c r="D107" t="s">
-        <v>115</v>
-      </c>
-      <c r="E107" t="s">
-        <v>126</v>
-      </c>
-      <c r="F107" t="s">
-        <v>101</v>
-      </c>
-      <c r="G107">
-        <v>127460</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A108">
-        <v>14</v>
-      </c>
-      <c r="B108" t="s">
-        <v>456</v>
-      </c>
-      <c r="C108" t="s">
-        <v>454</v>
-      </c>
-      <c r="D108" t="s">
-        <v>115</v>
       </c>
       <c r="E108" t="s">
         <v>126</v>
       </c>
       <c r="F108" t="s">
+        <v>127</v>
+      </c>
+      <c r="G108" t="s">
+        <v>128</v>
+      </c>
+      <c r="H108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
         <v>101</v>
       </c>
-      <c r="G108">
-        <v>122150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A109">
-        <v>15</v>
-      </c>
-      <c r="B109" t="s">
-        <v>457</v>
-      </c>
       <c r="C109" t="s">
-        <v>458</v>
-      </c>
-      <c r="D109" t="s">
-        <v>115</v>
-      </c>
-      <c r="E109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>293</v>
+      </c>
+      <c r="B111" t="s">
+        <v>294</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>105</v>
+      </c>
+      <c r="E111" t="s">
+        <v>295</v>
+      </c>
+      <c r="F111" t="s">
+        <v>49</v>
+      </c>
+      <c r="G111" t="s">
+        <v>336</v>
+      </c>
+      <c r="H111" t="s">
+        <v>337</v>
+      </c>
+      <c r="I111" t="s">
+        <v>339</v>
+      </c>
+      <c r="J111" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>466</v>
+      </c>
+      <c r="C112" t="s">
+        <v>467</v>
+      </c>
+      <c r="D112" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" t="s">
         <v>127</v>
-      </c>
-      <c r="F109" t="s">
-        <v>101</v>
-      </c>
-      <c r="G109">
-        <v>49720</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A110">
-        <v>16</v>
-      </c>
-      <c r="B110" t="s">
-        <v>459</v>
-      </c>
-      <c r="C110" t="s">
-        <v>460</v>
-      </c>
-      <c r="D110" t="s">
-        <v>118</v>
-      </c>
-      <c r="E110" t="s">
-        <v>127</v>
-      </c>
-      <c r="F110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G110">
-        <v>58420</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A111">
-        <v>17</v>
-      </c>
-      <c r="B111" t="s">
-        <v>461</v>
-      </c>
-      <c r="C111" t="s">
-        <v>458</v>
-      </c>
-      <c r="D111" t="s">
-        <v>115</v>
-      </c>
-      <c r="E111" t="s">
-        <v>126</v>
-      </c>
-      <c r="F111" t="s">
-        <v>101</v>
-      </c>
-      <c r="G111">
-        <v>127460</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A112">
-        <v>18</v>
-      </c>
-      <c r="B112" t="s">
-        <v>462</v>
-      </c>
-      <c r="C112" t="s">
-        <v>458</v>
-      </c>
-      <c r="D112" t="s">
-        <v>115</v>
-      </c>
-      <c r="E112" t="s">
-        <v>126</v>
       </c>
       <c r="F112" t="s">
         <v>101</v>
       </c>
       <c r="G112">
-        <v>127460</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+        <v>57060</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C113" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D113" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E113" t="s">
         <v>126</v>
@@ -5103,67 +5395,67 @@
         <v>101</v>
       </c>
       <c r="G113">
-        <v>169940</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+        <v>107340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C114" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D114" t="s">
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F114" t="s">
         <v>101</v>
       </c>
       <c r="G114">
-        <v>238980</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+        <v>143500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C115" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D115" t="s">
         <v>115</v>
       </c>
       <c r="E115" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F115" t="s">
         <v>101</v>
       </c>
       <c r="G115">
-        <v>238980</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+        <v>141240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C116" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D116" t="s">
-        <v>118</v>
+        <v>492</v>
       </c>
       <c r="E116" t="s">
         <v>126</v>
@@ -5172,21 +5464,21 @@
         <v>101</v>
       </c>
       <c r="G116">
-        <v>112990</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+        <v>210730</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C117" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D117" t="s">
-        <v>115</v>
+        <v>492</v>
       </c>
       <c r="E117" t="s">
         <v>126</v>
@@ -5195,21 +5487,21 @@
         <v>101</v>
       </c>
       <c r="G117">
-        <v>143020</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+        <v>201130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C118" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D118" t="s">
-        <v>115</v>
+        <v>493</v>
       </c>
       <c r="E118" t="s">
         <v>126</v>
@@ -5218,90 +5510,90 @@
         <v>101</v>
       </c>
       <c r="G118">
-        <v>143020</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+        <v>248590</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C119" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="D119" t="s">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F119" t="s">
         <v>101</v>
       </c>
       <c r="G119">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+        <v>24290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C120" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="D120" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E120" t="s">
         <v>127</v>
       </c>
       <c r="F120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G120">
-        <v>66670</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+        <v>47800</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C121" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="D121" t="s">
         <v>118</v>
       </c>
       <c r="E121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F121" t="s">
         <v>101</v>
       </c>
       <c r="G121">
-        <v>21130</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+        <v>42490</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C122" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="D122" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E122" t="s">
         <v>127</v>
@@ -5310,21 +5602,21 @@
         <v>101</v>
       </c>
       <c r="G122">
-        <v>55370</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+        <v>50960</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C123" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="D123" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E123" t="s">
         <v>127</v>
@@ -5333,21 +5625,21 @@
         <v>101</v>
       </c>
       <c r="G123">
-        <v>42490</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+        <v>47260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="C124" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="D124" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E124" t="s">
         <v>126</v>
@@ -5356,21 +5648,21 @@
         <v>101</v>
       </c>
       <c r="G124">
-        <v>109600</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+        <v>127460</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="C125" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="D125" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E125" t="s">
         <v>126</v>
@@ -5379,1725 +5671,1776 @@
         <v>101</v>
       </c>
       <c r="G125">
-        <v>82940</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+        <v>122150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="C126" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="D126" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E126" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F126" t="s">
         <v>101</v>
       </c>
       <c r="G126">
+        <v>49720</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>459</v>
+      </c>
+      <c r="C127" t="s">
+        <v>460</v>
+      </c>
+      <c r="D127" t="s">
+        <v>118</v>
+      </c>
+      <c r="E127" t="s">
+        <v>127</v>
+      </c>
+      <c r="F127" t="s">
+        <v>101</v>
+      </c>
+      <c r="G127">
+        <v>58420</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>461</v>
+      </c>
+      <c r="C128" t="s">
+        <v>458</v>
+      </c>
+      <c r="D128" t="s">
+        <v>115</v>
+      </c>
+      <c r="E128" t="s">
+        <v>126</v>
+      </c>
+      <c r="F128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G128">
+        <v>127460</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>462</v>
+      </c>
+      <c r="C129" t="s">
+        <v>458</v>
+      </c>
+      <c r="D129" t="s">
+        <v>115</v>
+      </c>
+      <c r="E129" t="s">
+        <v>126</v>
+      </c>
+      <c r="F129" t="s">
+        <v>101</v>
+      </c>
+      <c r="G129">
+        <v>127460</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>463</v>
+      </c>
+      <c r="C130" t="s">
+        <v>458</v>
+      </c>
+      <c r="D130" t="s">
+        <v>115</v>
+      </c>
+      <c r="E130" t="s">
+        <v>126</v>
+      </c>
+      <c r="F130" t="s">
+        <v>101</v>
+      </c>
+      <c r="G130">
+        <v>169940</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>464</v>
+      </c>
+      <c r="C131" t="s">
+        <v>458</v>
+      </c>
+      <c r="D131" t="s">
+        <v>115</v>
+      </c>
+      <c r="E131" t="s">
+        <v>125</v>
+      </c>
+      <c r="F131" t="s">
+        <v>101</v>
+      </c>
+      <c r="G131">
+        <v>238980</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>465</v>
+      </c>
+      <c r="C132" t="s">
+        <v>458</v>
+      </c>
+      <c r="D132" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" t="s">
+        <v>125</v>
+      </c>
+      <c r="F132" t="s">
+        <v>101</v>
+      </c>
+      <c r="G132">
+        <v>238980</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>22</v>
+      </c>
+      <c r="B133" t="s">
+        <v>479</v>
+      </c>
+      <c r="C133" t="s">
+        <v>480</v>
+      </c>
+      <c r="D133" t="s">
+        <v>118</v>
+      </c>
+      <c r="E133" t="s">
+        <v>126</v>
+      </c>
+      <c r="F133" t="s">
+        <v>101</v>
+      </c>
+      <c r="G133">
+        <v>112990</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>481</v>
+      </c>
+      <c r="C134" t="s">
+        <v>480</v>
+      </c>
+      <c r="D134" t="s">
+        <v>115</v>
+      </c>
+      <c r="E134" t="s">
+        <v>126</v>
+      </c>
+      <c r="F134" t="s">
+        <v>101</v>
+      </c>
+      <c r="G134">
+        <v>143020</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>24</v>
+      </c>
+      <c r="B135" t="s">
+        <v>482</v>
+      </c>
+      <c r="C135" t="s">
+        <v>480</v>
+      </c>
+      <c r="D135" t="s">
+        <v>115</v>
+      </c>
+      <c r="E135" t="s">
+        <v>126</v>
+      </c>
+      <c r="F135" t="s">
+        <v>101</v>
+      </c>
+      <c r="G135">
+        <v>143020</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>25</v>
+      </c>
+      <c r="B136" t="s">
+        <v>483</v>
+      </c>
+      <c r="C136" t="s">
+        <v>480</v>
+      </c>
+      <c r="D136" t="s">
+        <v>118</v>
+      </c>
+      <c r="E136" t="s">
+        <v>127</v>
+      </c>
+      <c r="F136" t="s">
+        <v>101</v>
+      </c>
+      <c r="G136">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>26</v>
+      </c>
+      <c r="B137" t="s">
+        <v>484</v>
+      </c>
+      <c r="C137" t="s">
+        <v>485</v>
+      </c>
+      <c r="D137" t="s">
+        <v>122</v>
+      </c>
+      <c r="E137" t="s">
+        <v>127</v>
+      </c>
+      <c r="F137" t="s">
+        <v>102</v>
+      </c>
+      <c r="G137">
+        <v>66670</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>27</v>
+      </c>
+      <c r="B138" t="s">
+        <v>486</v>
+      </c>
+      <c r="C138" t="s">
+        <v>485</v>
+      </c>
+      <c r="D138" t="s">
+        <v>118</v>
+      </c>
+      <c r="E138" t="s">
+        <v>128</v>
+      </c>
+      <c r="F138" t="s">
+        <v>101</v>
+      </c>
+      <c r="G138">
+        <v>21130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>28</v>
+      </c>
+      <c r="B139" t="s">
+        <v>487</v>
+      </c>
+      <c r="C139" t="s">
+        <v>485</v>
+      </c>
+      <c r="D139" t="s">
+        <v>119</v>
+      </c>
+      <c r="E139" t="s">
+        <v>127</v>
+      </c>
+      <c r="F139" t="s">
+        <v>101</v>
+      </c>
+      <c r="G139">
+        <v>55370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>29</v>
+      </c>
+      <c r="B140" t="s">
+        <v>488</v>
+      </c>
+      <c r="C140" t="s">
+        <v>485</v>
+      </c>
+      <c r="D140" t="s">
+        <v>118</v>
+      </c>
+      <c r="E140" t="s">
+        <v>127</v>
+      </c>
+      <c r="F140" t="s">
+        <v>101</v>
+      </c>
+      <c r="G140">
+        <v>42490</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>30</v>
+      </c>
+      <c r="B141" t="s">
+        <v>489</v>
+      </c>
+      <c r="C141" t="s">
+        <v>485</v>
+      </c>
+      <c r="D141" t="s">
+        <v>119</v>
+      </c>
+      <c r="E141" t="s">
+        <v>126</v>
+      </c>
+      <c r="F141" t="s">
+        <v>101</v>
+      </c>
+      <c r="G141">
+        <v>109600</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>31</v>
+      </c>
+      <c r="B142" t="s">
+        <v>490</v>
+      </c>
+      <c r="C142" t="s">
+        <v>485</v>
+      </c>
+      <c r="D142" t="s">
+        <v>118</v>
+      </c>
+      <c r="E142" t="s">
+        <v>126</v>
+      </c>
+      <c r="F142" t="s">
+        <v>101</v>
+      </c>
+      <c r="G142">
+        <v>82940</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>32</v>
+      </c>
+      <c r="B143" t="s">
+        <v>491</v>
+      </c>
+      <c r="C143" t="s">
+        <v>485</v>
+      </c>
+      <c r="D143" t="s">
+        <v>118</v>
+      </c>
+      <c r="E143" t="s">
+        <v>125</v>
+      </c>
+      <c r="F143" t="s">
+        <v>101</v>
+      </c>
+      <c r="G143">
         <v>172880</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A130" s="2" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A131" s="1" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B148" t="s">
         <v>130</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C148" t="s">
         <v>131</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D148" t="s">
         <v>132</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E148" t="s">
         <v>133</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F148" t="s">
         <v>134</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G148" t="s">
         <v>135</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H148" t="s">
         <v>136</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I148" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A132" s="1" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B149" t="s">
         <v>139</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C149" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>296</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B152" t="s">
         <v>294</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C152" t="s">
         <v>6</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D152" t="s">
         <v>142</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E152" t="s">
         <v>336</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F152" t="s">
         <v>337</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G152" t="s">
         <v>339</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H152" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>641</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B153" t="s">
         <v>594</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C153" t="s">
         <v>54</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D153" t="s">
         <v>13</v>
       </c>
-      <c r="E136">
+      <c r="E153">
         <v>430860</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>297</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B154" t="s">
         <v>595</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C154" t="s">
         <v>642</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D154" t="s">
         <v>13</v>
       </c>
-      <c r="E137">
+      <c r="E154">
         <v>592000</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>298</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B155" t="s">
         <v>596</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C155" t="s">
         <v>642</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D155" t="s">
         <v>643</v>
       </c>
-      <c r="E138">
+      <c r="E155">
         <v>681000</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>299</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B156" t="s">
         <v>597</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C156" t="s">
         <v>642</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D156" t="s">
         <v>644</v>
       </c>
-      <c r="E139">
+      <c r="E156">
         <v>2093000</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>300</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B157" t="s">
         <v>598</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C157" t="s">
         <v>136</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D157" t="s">
         <v>139</v>
       </c>
-      <c r="E140">
+      <c r="E157">
         <v>1817000</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>301</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B158" t="s">
         <v>599</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C158" t="s">
         <v>600</v>
-      </c>
-      <c r="D141" t="s">
-        <v>139</v>
-      </c>
-      <c r="E141">
-        <v>2090500</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>302</v>
-      </c>
-      <c r="B142" t="s">
-        <v>601</v>
-      </c>
-      <c r="C142" t="s">
-        <v>57</v>
-      </c>
-      <c r="D142" t="s">
-        <v>139</v>
-      </c>
-      <c r="E142">
-        <v>1050280</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>303</v>
-      </c>
-      <c r="B143" t="s">
-        <v>602</v>
-      </c>
-      <c r="C143" t="s">
-        <v>57</v>
-      </c>
-      <c r="D143" t="s">
-        <v>643</v>
-      </c>
-      <c r="E143">
-        <v>499440</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>304</v>
-      </c>
-      <c r="B144" t="s">
-        <v>603</v>
-      </c>
-      <c r="C144" t="s">
-        <v>57</v>
-      </c>
-      <c r="D144" t="s">
-        <v>643</v>
-      </c>
-      <c r="E144">
-        <v>516200</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>305</v>
-      </c>
-      <c r="B145" t="s">
-        <v>604</v>
-      </c>
-      <c r="C145" t="s">
-        <v>57</v>
-      </c>
-      <c r="D145" t="s">
-        <v>644</v>
-      </c>
-      <c r="E145">
-        <v>408940</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>306</v>
-      </c>
-      <c r="B146" t="s">
-        <v>605</v>
-      </c>
-      <c r="C146" t="s">
-        <v>57</v>
-      </c>
-      <c r="D146" t="s">
-        <v>644</v>
-      </c>
-      <c r="E146">
-        <v>456980</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>307</v>
-      </c>
-      <c r="B147" t="s">
-        <v>606</v>
-      </c>
-      <c r="C147" t="s">
-        <v>56</v>
-      </c>
-      <c r="D147" t="s">
-        <v>643</v>
-      </c>
-      <c r="E147">
-        <v>549000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>308</v>
-      </c>
-      <c r="B148" t="s">
-        <v>607</v>
-      </c>
-      <c r="C148" t="s">
-        <v>645</v>
-      </c>
-      <c r="D148" t="s">
-        <v>13</v>
-      </c>
-      <c r="E148">
-        <v>469000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>309</v>
-      </c>
-      <c r="B149" t="s">
-        <v>608</v>
-      </c>
-      <c r="C149" t="s">
-        <v>645</v>
-      </c>
-      <c r="D149" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149">
-        <v>458000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>310</v>
-      </c>
-      <c r="B150" t="s">
-        <v>609</v>
-      </c>
-      <c r="C150" t="s">
-        <v>645</v>
-      </c>
-      <c r="D150" t="s">
-        <v>13</v>
-      </c>
-      <c r="E150">
-        <v>399000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
-        <v>610</v>
-      </c>
-      <c r="B151" t="s">
-        <v>611</v>
-      </c>
-      <c r="C151" t="s">
-        <v>56</v>
-      </c>
-      <c r="D151" t="s">
-        <v>139</v>
-      </c>
-      <c r="E151">
-        <v>384360</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>612</v>
-      </c>
-      <c r="B152" t="s">
-        <v>613</v>
-      </c>
-      <c r="C152" t="s">
-        <v>645</v>
-      </c>
-      <c r="D152" t="s">
-        <v>139</v>
-      </c>
-      <c r="E152">
-        <v>458100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>614</v>
-      </c>
-      <c r="B153" t="s">
-        <v>615</v>
-      </c>
-      <c r="C153" t="s">
-        <v>56</v>
-      </c>
-      <c r="D153" t="s">
-        <v>644</v>
-      </c>
-      <c r="E153">
-        <v>1809000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>616</v>
-      </c>
-      <c r="B154" t="s">
-        <v>617</v>
-      </c>
-      <c r="C154" t="s">
-        <v>56</v>
-      </c>
-      <c r="D154" t="s">
-        <v>139</v>
-      </c>
-      <c r="E154">
-        <v>1490000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
-        <v>618</v>
-      </c>
-      <c r="B155" t="s">
-        <v>619</v>
-      </c>
-      <c r="C155" t="s">
-        <v>56</v>
-      </c>
-      <c r="D155" t="s">
-        <v>139</v>
-      </c>
-      <c r="E155">
-        <v>1010000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
-        <v>620</v>
-      </c>
-      <c r="B156" t="s">
-        <v>621</v>
-      </c>
-      <c r="C156" t="s">
-        <v>646</v>
-      </c>
-      <c r="D156" t="s">
-        <v>643</v>
-      </c>
-      <c r="E156">
-        <v>616760</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
-        <v>623</v>
-      </c>
-      <c r="B157" t="s">
-        <v>624</v>
-      </c>
-      <c r="C157" t="s">
-        <v>622</v>
-      </c>
-      <c r="D157" t="s">
-        <v>643</v>
-      </c>
-      <c r="E157">
-        <v>639660</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
-        <v>625</v>
-      </c>
-      <c r="B158" t="s">
-        <v>626</v>
-      </c>
-      <c r="C158" t="s">
-        <v>647</v>
       </c>
       <c r="D158" t="s">
         <v>139</v>
       </c>
       <c r="E158">
+        <v>2090500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>302</v>
+      </c>
+      <c r="B159" t="s">
+        <v>601</v>
+      </c>
+      <c r="C159" t="s">
+        <v>57</v>
+      </c>
+      <c r="D159" t="s">
+        <v>139</v>
+      </c>
+      <c r="E159">
+        <v>1050280</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>303</v>
+      </c>
+      <c r="B160" t="s">
+        <v>602</v>
+      </c>
+      <c r="C160" t="s">
+        <v>57</v>
+      </c>
+      <c r="D160" t="s">
+        <v>643</v>
+      </c>
+      <c r="E160">
+        <v>499440</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>304</v>
+      </c>
+      <c r="B161" t="s">
+        <v>603</v>
+      </c>
+      <c r="C161" t="s">
+        <v>57</v>
+      </c>
+      <c r="D161" t="s">
+        <v>643</v>
+      </c>
+      <c r="E161">
+        <v>516200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>305</v>
+      </c>
+      <c r="B162" t="s">
+        <v>604</v>
+      </c>
+      <c r="C162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D162" t="s">
+        <v>644</v>
+      </c>
+      <c r="E162">
+        <v>408940</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>306</v>
+      </c>
+      <c r="B163" t="s">
+        <v>605</v>
+      </c>
+      <c r="C163" t="s">
+        <v>57</v>
+      </c>
+      <c r="D163" t="s">
+        <v>644</v>
+      </c>
+      <c r="E163">
+        <v>456980</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>307</v>
+      </c>
+      <c r="B164" t="s">
+        <v>606</v>
+      </c>
+      <c r="C164" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" t="s">
+        <v>643</v>
+      </c>
+      <c r="E164">
+        <v>549000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>308</v>
+      </c>
+      <c r="B165" t="s">
+        <v>607</v>
+      </c>
+      <c r="C165" t="s">
+        <v>645</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165">
+        <v>469000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>309</v>
+      </c>
+      <c r="B166" t="s">
+        <v>608</v>
+      </c>
+      <c r="C166" t="s">
+        <v>645</v>
+      </c>
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166">
+        <v>458000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>310</v>
+      </c>
+      <c r="B167" t="s">
+        <v>609</v>
+      </c>
+      <c r="C167" t="s">
+        <v>645</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167">
+        <v>399000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>610</v>
+      </c>
+      <c r="B168" t="s">
+        <v>611</v>
+      </c>
+      <c r="C168" t="s">
+        <v>56</v>
+      </c>
+      <c r="D168" t="s">
+        <v>139</v>
+      </c>
+      <c r="E168">
+        <v>384360</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>612</v>
+      </c>
+      <c r="B169" t="s">
+        <v>613</v>
+      </c>
+      <c r="C169" t="s">
+        <v>645</v>
+      </c>
+      <c r="D169" t="s">
+        <v>139</v>
+      </c>
+      <c r="E169">
+        <v>458100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>614</v>
+      </c>
+      <c r="B170" t="s">
+        <v>615</v>
+      </c>
+      <c r="C170" t="s">
+        <v>56</v>
+      </c>
+      <c r="D170" t="s">
+        <v>644</v>
+      </c>
+      <c r="E170">
+        <v>1809000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>616</v>
+      </c>
+      <c r="B171" t="s">
+        <v>617</v>
+      </c>
+      <c r="C171" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" t="s">
+        <v>139</v>
+      </c>
+      <c r="E171">
+        <v>1490000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>618</v>
+      </c>
+      <c r="B172" t="s">
+        <v>619</v>
+      </c>
+      <c r="C172" t="s">
+        <v>56</v>
+      </c>
+      <c r="D172" t="s">
+        <v>139</v>
+      </c>
+      <c r="E172">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>620</v>
+      </c>
+      <c r="B173" t="s">
+        <v>621</v>
+      </c>
+      <c r="C173" t="s">
+        <v>646</v>
+      </c>
+      <c r="D173" t="s">
+        <v>643</v>
+      </c>
+      <c r="E173">
+        <v>616760</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>623</v>
+      </c>
+      <c r="B174" t="s">
+        <v>624</v>
+      </c>
+      <c r="C174" t="s">
+        <v>622</v>
+      </c>
+      <c r="D174" t="s">
+        <v>643</v>
+      </c>
+      <c r="E174">
+        <v>639660</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>625</v>
+      </c>
+      <c r="B175" t="s">
+        <v>626</v>
+      </c>
+      <c r="C175" t="s">
+        <v>647</v>
+      </c>
+      <c r="D175" t="s">
+        <v>139</v>
+      </c>
+      <c r="E175">
         <v>1106150</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>627</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B176" t="s">
         <v>628</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C176" t="s">
         <v>132</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D176" t="s">
         <v>644</v>
       </c>
-      <c r="E159">
+      <c r="E176">
         <v>460340</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>629</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B177" t="s">
         <v>630</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C177" t="s">
         <v>132</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D177" t="s">
         <v>644</v>
       </c>
-      <c r="E160">
+      <c r="E177">
         <v>397770</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>631</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B178" t="s">
         <v>632</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C178" t="s">
         <v>132</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D178" t="s">
         <v>644</v>
       </c>
-      <c r="E161">
+      <c r="E178">
         <v>396000</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>633</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B179" t="s">
         <v>634</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C179" t="s">
         <v>648</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D179" t="s">
         <v>139</v>
       </c>
-      <c r="E162">
+      <c r="E179">
         <v>456980</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>635</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B180" t="s">
         <v>636</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C180" t="s">
         <v>132</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D180" t="s">
         <v>139</v>
       </c>
-      <c r="E163">
+      <c r="E180">
         <v>486030</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>637</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B181" t="s">
         <v>638</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C181" t="s">
         <v>132</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D181" t="s">
         <v>139</v>
       </c>
-      <c r="E164">
+      <c r="E181">
         <v>1620000</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>639</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B182" t="s">
         <v>640</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C182" t="s">
         <v>648</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D182" t="s">
         <v>139</v>
       </c>
-      <c r="E165">
+      <c r="E182">
         <v>1531000</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A167" s="2" t="s">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A168" s="1" t="s">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B185" t="s">
         <v>146</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C185" t="s">
         <v>147</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D185" t="s">
         <v>148</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E185" t="s">
         <v>149</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F185" t="s">
         <v>150</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G185" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A169" s="1" t="s">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B186" t="s">
         <v>151</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C186" t="s">
         <v>152</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D186" t="s">
         <v>153</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E186" t="s">
         <v>154</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F186" t="s">
         <v>155</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G186" t="s">
         <v>156</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H186" t="s">
         <v>157</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I186" t="s">
         <v>158</v>
       </c>
-      <c r="J169" t="s">
+      <c r="J186" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A170" s="1" t="s">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B187" t="s">
         <v>53</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C187" t="s">
         <v>160</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D187" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A171" s="1"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>296</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B190" t="s">
         <v>311</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C190" t="s">
         <v>6</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D190" t="s">
         <v>312</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E190" t="s">
         <v>313</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F190" t="s">
         <v>336</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G190" t="s">
         <v>337</v>
       </c>
-      <c r="H173" t="s">
+      <c r="H190" t="s">
         <v>339</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I190" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A174">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191">
         <v>1</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B191" t="s">
         <v>413</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C191" t="s">
         <v>414</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D191" t="s">
         <v>415</v>
-      </c>
-      <c r="E174" t="s">
-        <v>416</v>
-      </c>
-      <c r="F174">
-        <v>54190</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A175">
-        <v>2</v>
-      </c>
-      <c r="B175" t="s">
-        <v>417</v>
-      </c>
-      <c r="C175" t="s">
-        <v>414</v>
-      </c>
-      <c r="D175" t="s">
-        <v>418</v>
-      </c>
-      <c r="E175" t="s">
-        <v>416</v>
-      </c>
-      <c r="F175">
-        <v>184130</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A176">
-        <v>3</v>
-      </c>
-      <c r="B176" t="s">
-        <v>419</v>
-      </c>
-      <c r="C176" t="s">
-        <v>414</v>
-      </c>
-      <c r="D176" t="s">
-        <v>439</v>
-      </c>
-      <c r="E176" t="s">
-        <v>416</v>
-      </c>
-      <c r="F176">
-        <v>356760</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A177">
-        <v>4</v>
-      </c>
-      <c r="B177" t="s">
-        <v>420</v>
-      </c>
-      <c r="C177" t="s">
-        <v>414</v>
-      </c>
-      <c r="D177" t="s">
-        <v>440</v>
-      </c>
-      <c r="E177" t="s">
-        <v>416</v>
-      </c>
-      <c r="F177">
-        <v>68490</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A178">
-        <v>5</v>
-      </c>
-      <c r="B178" t="s">
-        <v>421</v>
-      </c>
-      <c r="C178" t="s">
-        <v>414</v>
-      </c>
-      <c r="D178" t="s">
-        <v>441</v>
-      </c>
-      <c r="E178" t="s">
-        <v>416</v>
-      </c>
-      <c r="F178">
-        <v>102460</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A179">
-        <v>6</v>
-      </c>
-      <c r="B179" t="s">
-        <v>422</v>
-      </c>
-      <c r="C179" t="s">
-        <v>414</v>
-      </c>
-      <c r="D179" t="s">
-        <v>418</v>
-      </c>
-      <c r="E179" t="s">
-        <v>446</v>
-      </c>
-      <c r="F179">
-        <v>389000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A180">
-        <v>7</v>
-      </c>
-      <c r="B180" t="s">
-        <v>423</v>
-      </c>
-      <c r="C180" t="s">
-        <v>414</v>
-      </c>
-      <c r="D180" t="s">
-        <v>441</v>
-      </c>
-      <c r="E180" t="s">
-        <v>446</v>
-      </c>
-      <c r="F180">
-        <v>199000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A181">
-        <v>8</v>
-      </c>
-      <c r="B181" t="s">
-        <v>424</v>
-      </c>
-      <c r="C181" t="s">
-        <v>148</v>
-      </c>
-      <c r="D181" t="s">
-        <v>418</v>
-      </c>
-      <c r="E181" t="s">
-        <v>416</v>
-      </c>
-      <c r="F181">
-        <v>184360</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A182">
-        <v>9</v>
-      </c>
-      <c r="B182" t="s">
-        <v>425</v>
-      </c>
-      <c r="C182" t="s">
-        <v>148</v>
-      </c>
-      <c r="D182" t="s">
-        <v>440</v>
-      </c>
-      <c r="E182" t="s">
-        <v>416</v>
-      </c>
-      <c r="F182">
-        <v>67040</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A183">
-        <v>10</v>
-      </c>
-      <c r="B183" t="s">
-        <v>426</v>
-      </c>
-      <c r="C183" t="s">
-        <v>148</v>
-      </c>
-      <c r="D183" t="s">
-        <v>441</v>
-      </c>
-      <c r="E183" t="s">
-        <v>416</v>
-      </c>
-      <c r="F183">
-        <v>100560</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A184">
-        <v>11</v>
-      </c>
-      <c r="B184" t="s">
-        <v>427</v>
-      </c>
-      <c r="C184" t="s">
-        <v>148</v>
-      </c>
-      <c r="D184" t="s">
-        <v>418</v>
-      </c>
-      <c r="E184" t="s">
-        <v>446</v>
-      </c>
-      <c r="F184">
-        <v>184360</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A185">
-        <v>12</v>
-      </c>
-      <c r="B185" t="s">
-        <v>428</v>
-      </c>
-      <c r="C185" t="s">
-        <v>148</v>
-      </c>
-      <c r="D185" t="s">
-        <v>441</v>
-      </c>
-      <c r="E185" t="s">
-        <v>446</v>
-      </c>
-      <c r="F185">
-        <v>105030</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A186">
-        <v>13</v>
-      </c>
-      <c r="B186" t="s">
-        <v>429</v>
-      </c>
-      <c r="C186" t="s">
-        <v>148</v>
-      </c>
-      <c r="D186" t="s">
-        <v>442</v>
-      </c>
-      <c r="E186" t="s">
-        <v>416</v>
-      </c>
-      <c r="F186">
-        <v>36870</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A187">
-        <v>14</v>
-      </c>
-      <c r="B187" t="s">
-        <v>430</v>
-      </c>
-      <c r="C187" t="s">
-        <v>148</v>
-      </c>
-      <c r="D187" t="s">
-        <v>443</v>
-      </c>
-      <c r="E187" t="s">
-        <v>416</v>
-      </c>
-      <c r="F187">
-        <v>53500</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A188">
-        <v>15</v>
-      </c>
-      <c r="B188" t="s">
-        <v>431</v>
-      </c>
-      <c r="C188" t="s">
-        <v>112</v>
-      </c>
-      <c r="D188" t="s">
-        <v>444</v>
-      </c>
-      <c r="E188" t="s">
-        <v>416</v>
-      </c>
-      <c r="F188">
-        <v>37990</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A189">
-        <v>16</v>
-      </c>
-      <c r="B189" t="s">
-        <v>432</v>
-      </c>
-      <c r="C189" t="s">
-        <v>112</v>
-      </c>
-      <c r="D189" t="s">
-        <v>445</v>
-      </c>
-      <c r="E189" t="s">
-        <v>416</v>
-      </c>
-      <c r="F189">
-        <v>55870</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A190">
-        <v>17</v>
-      </c>
-      <c r="B190" t="s">
-        <v>433</v>
-      </c>
-      <c r="C190" t="s">
-        <v>112</v>
-      </c>
-      <c r="D190" t="s">
-        <v>418</v>
-      </c>
-      <c r="E190" t="s">
-        <v>416</v>
-      </c>
-      <c r="F190">
-        <v>179890</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A191">
-        <v>18</v>
-      </c>
-      <c r="B191" t="s">
-        <v>434</v>
-      </c>
-      <c r="C191" t="s">
-        <v>112</v>
-      </c>
-      <c r="D191" t="s">
-        <v>440</v>
       </c>
       <c r="E191" t="s">
         <v>416</v>
       </c>
       <c r="F191">
-        <v>63690</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+        <v>54190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C192" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="D192" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="E192" t="s">
         <v>416</v>
       </c>
       <c r="F192">
-        <v>94970</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+        <v>184130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B193" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C193" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="D193" t="s">
+        <v>439</v>
+      </c>
+      <c r="E193" t="s">
+        <v>416</v>
+      </c>
+      <c r="F193">
+        <v>356760</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194" t="s">
+        <v>420</v>
+      </c>
+      <c r="C194" t="s">
+        <v>414</v>
+      </c>
+      <c r="D194" t="s">
         <v>440</v>
       </c>
-      <c r="E193" t="s">
-        <v>446</v>
-      </c>
-      <c r="F193">
-        <v>61450</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A194">
-        <v>21</v>
-      </c>
-      <c r="B194" t="s">
-        <v>437</v>
-      </c>
-      <c r="C194" t="s">
-        <v>112</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
+        <v>416</v>
+      </c>
+      <c r="F194">
+        <v>68490</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>421</v>
+      </c>
+      <c r="C195" t="s">
+        <v>414</v>
+      </c>
+      <c r="D195" t="s">
         <v>441</v>
-      </c>
-      <c r="E194" t="s">
-        <v>446</v>
-      </c>
-      <c r="F194">
-        <v>98320</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A195">
-        <v>22</v>
-      </c>
-      <c r="B195" t="s">
-        <v>438</v>
-      </c>
-      <c r="C195" t="s">
-        <v>111</v>
-      </c>
-      <c r="D195" t="s">
-        <v>418</v>
       </c>
       <c r="E195" t="s">
         <v>416</v>
       </c>
       <c r="F195">
-        <v>244690</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+        <v>102460</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="C196" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
       <c r="D196" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="E196" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="F196">
-        <v>75980</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+        <v>389000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B197" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="C197" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
       <c r="D197" t="s">
         <v>441</v>
       </c>
       <c r="E197" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="F197">
-        <v>122910</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+        <v>199000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="C198" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="D198" t="s">
         <v>418</v>
       </c>
       <c r="E198" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="F198">
-        <v>290500</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+        <v>184360</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="C199" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="D199" t="s">
+        <v>440</v>
+      </c>
+      <c r="E199" t="s">
+        <v>416</v>
+      </c>
+      <c r="F199">
+        <v>67040</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>426</v>
+      </c>
+      <c r="C200" t="s">
+        <v>148</v>
+      </c>
+      <c r="D200" t="s">
         <v>441</v>
       </c>
-      <c r="E199" t="s">
-        <v>446</v>
-      </c>
-      <c r="F199">
-        <v>149720</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A200">
-        <v>27</v>
-      </c>
-      <c r="B200" t="s">
-        <v>451</v>
-      </c>
-      <c r="C200" t="s">
-        <v>111</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
+        <v>416</v>
+      </c>
+      <c r="F200">
+        <v>100560</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>11</v>
+      </c>
+      <c r="B201" t="s">
+        <v>427</v>
+      </c>
+      <c r="C201" t="s">
+        <v>148</v>
+      </c>
+      <c r="D201" t="s">
         <v>418</v>
-      </c>
-      <c r="E200" t="s">
-        <v>446</v>
-      </c>
-      <c r="F200">
-        <v>340780</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A201">
-        <v>28</v>
-      </c>
-      <c r="B201" t="s">
-        <v>452</v>
-      </c>
-      <c r="C201" t="s">
-        <v>111</v>
-      </c>
-      <c r="D201" t="s">
-        <v>441</v>
       </c>
       <c r="E201" t="s">
         <v>446</v>
       </c>
       <c r="F201">
+        <v>184360</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>12</v>
+      </c>
+      <c r="B202" t="s">
+        <v>428</v>
+      </c>
+      <c r="C202" t="s">
+        <v>148</v>
+      </c>
+      <c r="D202" t="s">
+        <v>441</v>
+      </c>
+      <c r="E202" t="s">
+        <v>446</v>
+      </c>
+      <c r="F202">
+        <v>105030</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>13</v>
+      </c>
+      <c r="B203" t="s">
+        <v>429</v>
+      </c>
+      <c r="C203" t="s">
+        <v>148</v>
+      </c>
+      <c r="D203" t="s">
+        <v>442</v>
+      </c>
+      <c r="E203" t="s">
+        <v>416</v>
+      </c>
+      <c r="F203">
+        <v>36870</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>14</v>
+      </c>
+      <c r="B204" t="s">
+        <v>430</v>
+      </c>
+      <c r="C204" t="s">
+        <v>148</v>
+      </c>
+      <c r="D204" t="s">
+        <v>443</v>
+      </c>
+      <c r="E204" t="s">
+        <v>416</v>
+      </c>
+      <c r="F204">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>15</v>
+      </c>
+      <c r="B205" t="s">
+        <v>431</v>
+      </c>
+      <c r="C205" t="s">
+        <v>112</v>
+      </c>
+      <c r="D205" t="s">
+        <v>444</v>
+      </c>
+      <c r="E205" t="s">
+        <v>416</v>
+      </c>
+      <c r="F205">
+        <v>37990</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>16</v>
+      </c>
+      <c r="B206" t="s">
+        <v>432</v>
+      </c>
+      <c r="C206" t="s">
+        <v>112</v>
+      </c>
+      <c r="D206" t="s">
+        <v>445</v>
+      </c>
+      <c r="E206" t="s">
+        <v>416</v>
+      </c>
+      <c r="F206">
+        <v>55870</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>17</v>
+      </c>
+      <c r="B207" t="s">
+        <v>433</v>
+      </c>
+      <c r="C207" t="s">
+        <v>112</v>
+      </c>
+      <c r="D207" t="s">
+        <v>418</v>
+      </c>
+      <c r="E207" t="s">
+        <v>416</v>
+      </c>
+      <c r="F207">
+        <v>179890</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>18</v>
+      </c>
+      <c r="B208" t="s">
+        <v>434</v>
+      </c>
+      <c r="C208" t="s">
+        <v>112</v>
+      </c>
+      <c r="D208" t="s">
+        <v>440</v>
+      </c>
+      <c r="E208" t="s">
+        <v>416</v>
+      </c>
+      <c r="F208">
+        <v>63690</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>19</v>
+      </c>
+      <c r="B209" t="s">
+        <v>435</v>
+      </c>
+      <c r="C209" t="s">
+        <v>112</v>
+      </c>
+      <c r="D209" t="s">
+        <v>441</v>
+      </c>
+      <c r="E209" t="s">
+        <v>416</v>
+      </c>
+      <c r="F209">
+        <v>94970</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>20</v>
+      </c>
+      <c r="B210" t="s">
+        <v>436</v>
+      </c>
+      <c r="C210" t="s">
+        <v>112</v>
+      </c>
+      <c r="D210" t="s">
+        <v>440</v>
+      </c>
+      <c r="E210" t="s">
+        <v>446</v>
+      </c>
+      <c r="F210">
+        <v>61450</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>21</v>
+      </c>
+      <c r="B211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C211" t="s">
+        <v>112</v>
+      </c>
+      <c r="D211" t="s">
+        <v>441</v>
+      </c>
+      <c r="E211" t="s">
+        <v>446</v>
+      </c>
+      <c r="F211">
+        <v>98320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>22</v>
+      </c>
+      <c r="B212" t="s">
+        <v>438</v>
+      </c>
+      <c r="C212" t="s">
+        <v>111</v>
+      </c>
+      <c r="D212" t="s">
+        <v>418</v>
+      </c>
+      <c r="E212" t="s">
+        <v>416</v>
+      </c>
+      <c r="F212">
+        <v>244690</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>23</v>
+      </c>
+      <c r="B213" t="s">
+        <v>447</v>
+      </c>
+      <c r="C213" t="s">
+        <v>111</v>
+      </c>
+      <c r="D213" t="s">
+        <v>440</v>
+      </c>
+      <c r="E213" t="s">
+        <v>416</v>
+      </c>
+      <c r="F213">
+        <v>75980</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>24</v>
+      </c>
+      <c r="B214" t="s">
+        <v>448</v>
+      </c>
+      <c r="C214" t="s">
+        <v>111</v>
+      </c>
+      <c r="D214" t="s">
+        <v>441</v>
+      </c>
+      <c r="E214" t="s">
+        <v>416</v>
+      </c>
+      <c r="F214">
+        <v>122910</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>25</v>
+      </c>
+      <c r="B215" t="s">
+        <v>449</v>
+      </c>
+      <c r="C215" t="s">
+        <v>111</v>
+      </c>
+      <c r="D215" t="s">
+        <v>418</v>
+      </c>
+      <c r="E215" t="s">
+        <v>446</v>
+      </c>
+      <c r="F215">
+        <v>290500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>26</v>
+      </c>
+      <c r="B216" t="s">
+        <v>450</v>
+      </c>
+      <c r="C216" t="s">
+        <v>111</v>
+      </c>
+      <c r="D216" t="s">
+        <v>441</v>
+      </c>
+      <c r="E216" t="s">
+        <v>446</v>
+      </c>
+      <c r="F216">
+        <v>149720</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>27</v>
+      </c>
+      <c r="B217" t="s">
+        <v>451</v>
+      </c>
+      <c r="C217" t="s">
+        <v>111</v>
+      </c>
+      <c r="D217" t="s">
+        <v>418</v>
+      </c>
+      <c r="E217" t="s">
+        <v>446</v>
+      </c>
+      <c r="F217">
+        <v>340780</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>28</v>
+      </c>
+      <c r="B218" t="s">
+        <v>452</v>
+      </c>
+      <c r="C218" t="s">
+        <v>111</v>
+      </c>
+      <c r="D218" t="s">
+        <v>441</v>
+      </c>
+      <c r="E218" t="s">
+        <v>446</v>
+      </c>
+      <c r="F218">
         <v>178770</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A203" s="2" t="s">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A204" s="1" t="s">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B221" t="s">
         <v>164</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C221" t="s">
         <v>165</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D221" t="s">
         <v>166</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E221" t="s">
         <v>167</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F221" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A205" s="1" t="s">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B222" t="s">
         <v>169</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C222" t="s">
         <v>170</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D222" t="s">
         <v>171</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E222" t="s">
         <v>172</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F222" t="s">
         <v>173</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G222" t="s">
         <v>174</v>
       </c>
-      <c r="H205" t="s">
+      <c r="H222" t="s">
         <v>175</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I222" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A206" s="1" t="s">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B223" t="s">
         <v>177</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C223" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A208" t="s">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>296</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B225" t="s">
         <v>314</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C225" t="s">
         <v>107</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D225" t="s">
         <v>315</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E225" t="s">
         <v>316</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F225" t="s">
         <v>336</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G225" t="s">
         <v>337</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H225" t="s">
         <v>339</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I225" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A209" t="s">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>317</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B226" t="s">
         <v>649</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C226" t="s">
         <v>149</v>
-      </c>
-      <c r="D209">
-        <v>1</v>
-      </c>
-      <c r="E209">
-        <v>7200</v>
-      </c>
-      <c r="F209">
-        <v>61000</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
-        <v>318</v>
-      </c>
-      <c r="B210" t="s">
-        <v>650</v>
-      </c>
-      <c r="C210" t="s">
-        <v>149</v>
-      </c>
-      <c r="D210">
-        <v>2</v>
-      </c>
-      <c r="E210">
-        <v>7200</v>
-      </c>
-      <c r="F210">
-        <v>79440</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A211" t="s">
-        <v>651</v>
-      </c>
-      <c r="B211" t="s">
-        <v>652</v>
-      </c>
-      <c r="C211" t="s">
-        <v>149</v>
-      </c>
-      <c r="D211">
-        <v>3</v>
-      </c>
-      <c r="E211">
-        <v>5400</v>
-      </c>
-      <c r="F211">
-        <v>109000</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A212" t="s">
-        <v>653</v>
-      </c>
-      <c r="B212" t="s">
-        <v>654</v>
-      </c>
-      <c r="C212" t="s">
-        <v>655</v>
-      </c>
-      <c r="D212">
-        <v>4</v>
-      </c>
-      <c r="E212">
-        <v>5400</v>
-      </c>
-      <c r="F212">
-        <v>126000</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A213" t="s">
-        <v>656</v>
-      </c>
-      <c r="B213" t="s">
-        <v>657</v>
-      </c>
-      <c r="C213" t="s">
-        <v>149</v>
-      </c>
-      <c r="D213">
-        <v>4</v>
-      </c>
-      <c r="E213">
-        <v>7200</v>
-      </c>
-      <c r="F213">
-        <v>259000</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A214" t="s">
-        <v>319</v>
-      </c>
-      <c r="B214" t="s">
-        <v>658</v>
-      </c>
-      <c r="C214" t="s">
-        <v>655</v>
-      </c>
-      <c r="D214">
-        <v>4</v>
-      </c>
-      <c r="E214">
-        <v>5900</v>
-      </c>
-      <c r="F214">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A215" t="s">
-        <v>320</v>
-      </c>
-      <c r="B215" t="s">
-        <v>659</v>
-      </c>
-      <c r="C215" t="s">
-        <v>655</v>
-      </c>
-      <c r="D215">
-        <v>8</v>
-      </c>
-      <c r="E215">
-        <v>5400</v>
-      </c>
-      <c r="F215">
-        <v>275000</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A216" t="s">
-        <v>660</v>
-      </c>
-      <c r="B216" t="s">
-        <v>661</v>
-      </c>
-      <c r="C216" t="s">
-        <v>662</v>
-      </c>
-      <c r="D216">
-        <v>1</v>
-      </c>
-      <c r="E216">
-        <v>7200</v>
-      </c>
-      <c r="F216">
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A217" t="s">
-        <v>663</v>
-      </c>
-      <c r="B217" t="s">
-        <v>664</v>
-      </c>
-      <c r="C217" t="s">
-        <v>662</v>
-      </c>
-      <c r="D217">
-        <v>2</v>
-      </c>
-      <c r="E217">
-        <v>7200</v>
-      </c>
-      <c r="F217">
-        <v>74000</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A218" t="s">
-        <v>665</v>
-      </c>
-      <c r="B218" t="s">
-        <v>666</v>
-      </c>
-      <c r="C218" t="s">
-        <v>662</v>
-      </c>
-      <c r="D218">
-        <v>3</v>
-      </c>
-      <c r="E218">
-        <v>7200</v>
-      </c>
-      <c r="F218">
-        <v>103910</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A219" t="s">
-        <v>667</v>
-      </c>
-      <c r="B219" t="s">
-        <v>668</v>
-      </c>
-      <c r="C219" t="s">
-        <v>669</v>
-      </c>
-      <c r="D219">
-        <v>3</v>
-      </c>
-      <c r="E219">
-        <v>7200</v>
-      </c>
-      <c r="F219">
-        <v>103000</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A220" t="s">
-        <v>670</v>
-      </c>
-      <c r="B220" t="s">
-        <v>671</v>
-      </c>
-      <c r="C220" t="s">
-        <v>166</v>
-      </c>
-      <c r="D220">
-        <v>4</v>
-      </c>
-      <c r="E220">
-        <v>7200</v>
-      </c>
-      <c r="F220">
-        <v>155000</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A221" t="s">
-        <v>672</v>
-      </c>
-      <c r="B221" t="s">
-        <v>673</v>
-      </c>
-      <c r="C221" t="s">
-        <v>662</v>
-      </c>
-      <c r="D221">
-        <v>4</v>
-      </c>
-      <c r="E221">
-        <v>7200</v>
-      </c>
-      <c r="F221">
-        <v>145000</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A222" t="s">
-        <v>674</v>
-      </c>
-      <c r="B222" t="s">
-        <v>675</v>
-      </c>
-      <c r="C222" t="s">
-        <v>166</v>
-      </c>
-      <c r="D222">
-        <v>10</v>
-      </c>
-      <c r="E222">
-        <v>7200</v>
-      </c>
-      <c r="F222">
-        <v>410000</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
-        <v>676</v>
-      </c>
-      <c r="B223" t="s">
-        <v>677</v>
-      </c>
-      <c r="C223" t="s">
-        <v>148</v>
-      </c>
-      <c r="D223">
-        <v>4</v>
-      </c>
-      <c r="E223">
-        <v>7200</v>
-      </c>
-      <c r="F223">
-        <v>189940</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
-        <v>678</v>
-      </c>
-      <c r="B224" t="s">
-        <v>679</v>
-      </c>
-      <c r="C224" t="s">
-        <v>148</v>
-      </c>
-      <c r="D224">
-        <v>10</v>
-      </c>
-      <c r="E224">
-        <v>7200</v>
-      </c>
-      <c r="F224">
-        <v>465120</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
-        <v>680</v>
-      </c>
-      <c r="B225" t="s">
-        <v>681</v>
-      </c>
-      <c r="C225" t="s">
-        <v>682</v>
-      </c>
-      <c r="D225">
-        <v>12</v>
-      </c>
-      <c r="E225">
-        <v>7200</v>
-      </c>
-      <c r="F225">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
-        <v>683</v>
-      </c>
-      <c r="B226" t="s">
-        <v>684</v>
-      </c>
-      <c r="C226" t="s">
-        <v>682</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -7106,58 +7449,58 @@
         <v>7200</v>
       </c>
       <c r="F226">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>685</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
       <c r="C227" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D227">
         <v>2</v>
       </c>
       <c r="E227">
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="F227">
-        <v>78000</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+        <v>79440</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
       <c r="B228" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
       <c r="C228" t="s">
-        <v>682</v>
+        <v>149</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E228">
         <v>5400</v>
       </c>
       <c r="F228">
-        <v>129000</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
       <c r="B229" t="s">
-        <v>690</v>
+        <v>654</v>
       </c>
       <c r="C229" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D229">
         <v>4</v>
@@ -7166,1174 +7509,1123 @@
         <v>5400</v>
       </c>
       <c r="F229">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>656</v>
+      </c>
+      <c r="B230" t="s">
+        <v>657</v>
+      </c>
+      <c r="C230" t="s">
+        <v>149</v>
+      </c>
+      <c r="D230">
+        <v>4</v>
+      </c>
+      <c r="E230">
+        <v>7200</v>
+      </c>
+      <c r="F230">
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>319</v>
+      </c>
+      <c r="B231" t="s">
+        <v>658</v>
+      </c>
+      <c r="C231" t="s">
+        <v>655</v>
+      </c>
+      <c r="D231">
+        <v>4</v>
+      </c>
+      <c r="E231">
+        <v>5900</v>
+      </c>
+      <c r="F231">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>320</v>
+      </c>
+      <c r="B232" t="s">
+        <v>659</v>
+      </c>
+      <c r="C232" t="s">
+        <v>655</v>
+      </c>
+      <c r="D232">
+        <v>8</v>
+      </c>
+      <c r="E232">
+        <v>5400</v>
+      </c>
+      <c r="F232">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>660</v>
+      </c>
+      <c r="B233" t="s">
+        <v>661</v>
+      </c>
+      <c r="C233" t="s">
+        <v>662</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>7200</v>
+      </c>
+      <c r="F233">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>663</v>
+      </c>
+      <c r="B234" t="s">
+        <v>664</v>
+      </c>
+      <c r="C234" t="s">
+        <v>662</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>7200</v>
+      </c>
+      <c r="F234">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>665</v>
+      </c>
+      <c r="B235" t="s">
+        <v>666</v>
+      </c>
+      <c r="C235" t="s">
+        <v>662</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+      <c r="E235">
+        <v>7200</v>
+      </c>
+      <c r="F235">
+        <v>103910</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>667</v>
+      </c>
+      <c r="B236" t="s">
+        <v>668</v>
+      </c>
+      <c r="C236" t="s">
+        <v>669</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
+      </c>
+      <c r="E236">
+        <v>7200</v>
+      </c>
+      <c r="F236">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>670</v>
+      </c>
+      <c r="B237" t="s">
+        <v>671</v>
+      </c>
+      <c r="C237" t="s">
+        <v>166</v>
+      </c>
+      <c r="D237">
+        <v>4</v>
+      </c>
+      <c r="E237">
+        <v>7200</v>
+      </c>
+      <c r="F237">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>672</v>
+      </c>
+      <c r="B238" t="s">
+        <v>673</v>
+      </c>
+      <c r="C238" t="s">
+        <v>662</v>
+      </c>
+      <c r="D238">
+        <v>4</v>
+      </c>
+      <c r="E238">
+        <v>7200</v>
+      </c>
+      <c r="F238">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>674</v>
+      </c>
+      <c r="B239" t="s">
+        <v>675</v>
+      </c>
+      <c r="C239" t="s">
+        <v>166</v>
+      </c>
+      <c r="D239">
+        <v>10</v>
+      </c>
+      <c r="E239">
+        <v>7200</v>
+      </c>
+      <c r="F239">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>676</v>
+      </c>
+      <c r="B240" t="s">
+        <v>677</v>
+      </c>
+      <c r="C240" t="s">
+        <v>148</v>
+      </c>
+      <c r="D240">
+        <v>4</v>
+      </c>
+      <c r="E240">
+        <v>7200</v>
+      </c>
+      <c r="F240">
+        <v>189940</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>678</v>
+      </c>
+      <c r="B241" t="s">
+        <v>679</v>
+      </c>
+      <c r="C241" t="s">
+        <v>148</v>
+      </c>
+      <c r="D241">
+        <v>10</v>
+      </c>
+      <c r="E241">
+        <v>7200</v>
+      </c>
+      <c r="F241">
+        <v>465120</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>680</v>
+      </c>
+      <c r="B242" t="s">
+        <v>681</v>
+      </c>
+      <c r="C242" t="s">
+        <v>682</v>
+      </c>
+      <c r="D242">
+        <v>12</v>
+      </c>
+      <c r="E242">
+        <v>7200</v>
+      </c>
+      <c r="F242">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>683</v>
+      </c>
+      <c r="B243" t="s">
+        <v>684</v>
+      </c>
+      <c r="C243" t="s">
+        <v>682</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>7200</v>
+      </c>
+      <c r="F243">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>685</v>
+      </c>
+      <c r="B244" t="s">
+        <v>686</v>
+      </c>
+      <c r="C244" t="s">
+        <v>148</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>5400</v>
+      </c>
+      <c r="F244">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>687</v>
+      </c>
+      <c r="B245" t="s">
+        <v>688</v>
+      </c>
+      <c r="C245" t="s">
+        <v>682</v>
+      </c>
+      <c r="D245">
+        <v>4</v>
+      </c>
+      <c r="E245">
+        <v>5400</v>
+      </c>
+      <c r="F245">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>689</v>
+      </c>
+      <c r="B246" t="s">
+        <v>690</v>
+      </c>
+      <c r="C246" t="s">
+        <v>682</v>
+      </c>
+      <c r="D246">
+        <v>4</v>
+      </c>
+      <c r="E246">
+        <v>5400</v>
+      </c>
+      <c r="F246">
         <v>174590</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A231" s="2" t="s">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A232" s="1" t="s">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B249" t="s">
         <v>180</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C249" t="s">
         <v>181</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D249" t="s">
         <v>182</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E249" t="s">
         <v>183</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F249" t="s">
         <v>184</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G249" t="s">
         <v>185</v>
       </c>
-      <c r="H232" t="s">
+      <c r="H249" t="s">
         <v>186</v>
       </c>
-      <c r="I232" t="s">
+      <c r="I249" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A233" s="1" t="s">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B250" t="s">
         <v>189</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C250" t="s">
         <v>190</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D250" t="s">
         <v>191</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E250" t="s">
         <v>192</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F250" t="s">
         <v>193</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G250" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A234" s="1" t="s">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B251" t="s">
         <v>196</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C251" t="s">
         <v>197</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D251" t="s">
         <v>99</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E251" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>296</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B253" t="s">
         <v>294</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C253" t="s">
         <v>6</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D253" t="s">
         <v>325</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E253" t="s">
         <v>326</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F253" t="s">
         <v>336</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G253" t="s">
         <v>337</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H253" t="s">
         <v>339</v>
       </c>
-      <c r="I236" t="s">
+      <c r="I253" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A237" t="s">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>691</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B254" t="s">
         <v>692</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C254" t="s">
         <v>693</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D254" t="s">
         <v>694</v>
       </c>
-      <c r="E237">
+      <c r="E254">
         <v>3</v>
       </c>
-      <c r="F237">
+      <c r="F254">
         <v>59000</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>695</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B255" t="s">
         <v>696</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C255" t="s">
         <v>693</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D255" t="s">
         <v>191</v>
       </c>
-      <c r="E238">
+      <c r="E255">
         <v>3</v>
       </c>
-      <c r="F238">
+      <c r="F255">
         <v>40670</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A239" t="s">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>697</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B256" t="s">
         <v>698</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C256" t="s">
         <v>699</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D256" t="s">
         <v>191</v>
       </c>
-      <c r="E239">
+      <c r="E256">
         <v>2</v>
       </c>
-      <c r="F239">
+      <c r="F256">
         <v>33000</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A240" t="s">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>700</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B257" t="s">
         <v>701</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C257" t="s">
         <v>693</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D257" t="s">
         <v>702</v>
       </c>
-      <c r="E240">
+      <c r="E257">
         <v>3</v>
       </c>
-      <c r="F240">
+      <c r="F257">
         <v>43000</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A241" t="s">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>327</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B258" t="s">
         <v>703</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C258" t="s">
         <v>699</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D258" t="s">
         <v>191</v>
       </c>
-      <c r="E241">
+      <c r="E258">
         <v>2</v>
       </c>
-      <c r="F241">
+      <c r="F258">
         <v>92000</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A242" t="s">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>704</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B259" t="s">
         <v>705</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C259" t="s">
         <v>706</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D259" t="s">
         <v>702</v>
       </c>
-      <c r="E242">
+      <c r="E259">
         <v>7</v>
       </c>
-      <c r="F242">
+      <c r="F259">
         <v>85500</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>328</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B260" t="s">
         <v>707</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C260" t="s">
         <v>708</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D260" t="s">
         <v>702</v>
       </c>
-      <c r="E243">
+      <c r="E260">
         <v>2</v>
       </c>
-      <c r="F243">
+      <c r="F260">
         <v>50500</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>329</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B261" t="s">
         <v>709</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C261" t="s">
         <v>708</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D261" t="s">
         <v>191</v>
       </c>
-      <c r="E244">
+      <c r="E261">
         <v>2</v>
       </c>
-      <c r="F244">
+      <c r="F261">
         <v>32400</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>710</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B262" t="s">
         <v>711</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C262" t="s">
         <v>712</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D262" t="s">
         <v>702</v>
       </c>
-      <c r="E245">
+      <c r="E262">
         <v>4</v>
       </c>
-      <c r="F245">
+      <c r="F262">
         <v>43580</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>330</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B263" t="s">
         <v>713</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C263" t="s">
         <v>714</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D263" t="s">
         <v>191</v>
       </c>
-      <c r="E246">
+      <c r="E263">
         <v>2</v>
       </c>
-      <c r="F246">
+      <c r="F263">
         <v>22350</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A247" t="s">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>331</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B264" t="s">
         <v>715</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C264" t="s">
         <v>716</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D264" t="s">
         <v>191</v>
       </c>
-      <c r="E247">
+      <c r="E264">
         <v>4</v>
       </c>
-      <c r="F247">
+      <c r="F264">
         <v>81560</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>717</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B265" t="s">
         <v>718</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C265" t="s">
         <v>716</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D265" t="s">
         <v>694</v>
       </c>
-      <c r="E248">
+      <c r="E265">
         <v>4</v>
       </c>
-      <c r="F248">
+      <c r="F265">
         <v>81500</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>719</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B266" t="s">
         <v>720</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C266" t="s">
         <v>721</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D266" t="s">
         <v>702</v>
       </c>
-      <c r="E249">
+      <c r="E266">
         <v>4</v>
       </c>
-      <c r="F249">
+      <c r="F266">
         <v>41340</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A250" t="s">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>722</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B267" t="s">
         <v>723</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C267" t="s">
         <v>721</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D267" t="s">
         <v>694</v>
       </c>
-      <c r="E250">
+      <c r="E267">
         <v>2</v>
       </c>
-      <c r="F250">
+      <c r="F267">
         <v>44690</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>724</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B268" t="s">
         <v>725</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C268" t="s">
         <v>137</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D268" t="s">
         <v>191</v>
       </c>
-      <c r="E251">
+      <c r="E268">
         <v>4</v>
       </c>
-      <c r="F251">
+      <c r="F268">
         <v>40000</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A252" t="s">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>726</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B269" t="s">
         <v>727</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C269" t="s">
         <v>137</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D269" t="s">
         <v>191</v>
       </c>
-      <c r="E252">
+      <c r="E269">
         <v>4</v>
       </c>
-      <c r="F252">
+      <c r="F269">
         <v>37320</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A254" s="2" t="s">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A255" s="1" t="s">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B272" t="s">
         <v>200</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C272" t="s">
         <v>187</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D272" t="s">
         <v>201</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E272" t="s">
         <v>202</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F272" t="s">
         <v>203</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G272" t="s">
         <v>204</v>
       </c>
-      <c r="H255" t="s">
+      <c r="H272" t="s">
         <v>205</v>
       </c>
-      <c r="I255" t="s">
+      <c r="I272" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A256" s="1" t="s">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B273" t="s">
         <v>208</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C273" t="s">
         <v>209</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D273" t="s">
         <v>210</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E273" t="s">
         <v>211</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F273" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A257" s="1" t="s">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B274" t="s">
         <v>214</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C274" t="s">
         <v>215</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D274" t="s">
         <v>216</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E274" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A258" s="1" t="s">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B275" t="s">
         <v>219</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C275" t="s">
         <v>220</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D275" t="s">
         <v>221</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E275" t="s">
         <v>222</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F275" t="s">
         <v>223</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G275" t="s">
         <v>224</v>
       </c>
-      <c r="H258" t="s">
+      <c r="H275" t="s">
         <v>225</v>
       </c>
-      <c r="I258" t="s">
+      <c r="I275" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A260" t="s">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>296</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B277" t="s">
         <v>321</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C277" t="s">
         <v>322</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D277" t="s">
         <v>323</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E277" t="s">
         <v>324</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F277" t="s">
         <v>218</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G277" t="s">
         <v>336</v>
       </c>
-      <c r="H260" t="s">
+      <c r="H277" t="s">
         <v>337</v>
       </c>
-      <c r="I260" t="s">
+      <c r="I277" t="s">
         <v>339</v>
       </c>
-      <c r="J260" t="s">
+      <c r="J277" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A261">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278">
         <v>1</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B278" t="s">
         <v>494</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C278" t="s">
         <v>495</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D278" t="s">
         <v>544</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E278" t="s">
         <v>215</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F278" t="s">
         <v>496</v>
       </c>
-      <c r="G261">
+      <c r="G278">
         <v>62630</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A262">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279">
         <v>2</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B279" t="s">
         <v>497</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C279" t="s">
         <v>495</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D279" t="s">
         <v>545</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E279" t="s">
         <v>215</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F279" t="s">
         <v>496</v>
       </c>
-      <c r="G262">
+      <c r="G279">
         <v>77000</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A263">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280">
         <v>3</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B280" t="s">
         <v>498</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C280" t="s">
         <v>495</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D280" t="s">
         <v>546</v>
-      </c>
-      <c r="E263" t="s">
-        <v>214</v>
-      </c>
-      <c r="F263" t="s">
-        <v>499</v>
-      </c>
-      <c r="G263">
-        <v>72760</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A264">
-        <v>4</v>
-      </c>
-      <c r="B264" t="s">
-        <v>500</v>
-      </c>
-      <c r="C264" t="s">
-        <v>495</v>
-      </c>
-      <c r="D264" t="s">
-        <v>547</v>
-      </c>
-      <c r="E264" t="s">
-        <v>214</v>
-      </c>
-      <c r="F264" t="s">
-        <v>499</v>
-      </c>
-      <c r="G264">
-        <v>86860</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A265">
-        <v>5</v>
-      </c>
-      <c r="B265" t="s">
-        <v>501</v>
-      </c>
-      <c r="C265" t="s">
-        <v>495</v>
-      </c>
-      <c r="D265" t="s">
-        <v>548</v>
-      </c>
-      <c r="E265" t="s">
-        <v>214</v>
-      </c>
-      <c r="F265" t="s">
-        <v>502</v>
-      </c>
-      <c r="G265">
-        <v>45810</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A266">
-        <v>6</v>
-      </c>
-      <c r="B266" t="s">
-        <v>503</v>
-      </c>
-      <c r="C266" t="s">
-        <v>495</v>
-      </c>
-      <c r="D266" t="s">
-        <v>546</v>
-      </c>
-      <c r="E266" t="s">
-        <v>214</v>
-      </c>
-      <c r="F266" t="s">
-        <v>502</v>
-      </c>
-      <c r="G266">
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A267">
-        <v>7</v>
-      </c>
-      <c r="B267" t="s">
-        <v>504</v>
-      </c>
-      <c r="C267" t="s">
-        <v>495</v>
-      </c>
-      <c r="D267" t="s">
-        <v>547</v>
-      </c>
-      <c r="E267" t="s">
-        <v>214</v>
-      </c>
-      <c r="F267" t="s">
-        <v>502</v>
-      </c>
-      <c r="G267">
-        <v>78210</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A268">
-        <v>8</v>
-      </c>
-      <c r="B268" t="s">
-        <v>505</v>
-      </c>
-      <c r="C268" t="s">
-        <v>508</v>
-      </c>
-      <c r="D268" t="s">
-        <v>549</v>
-      </c>
-      <c r="E268" t="s">
-        <v>215</v>
-      </c>
-      <c r="F268" t="s">
-        <v>506</v>
-      </c>
-      <c r="G268">
-        <v>124580</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A269">
-        <v>9</v>
-      </c>
-      <c r="B269" t="s">
-        <v>507</v>
-      </c>
-      <c r="C269" t="s">
-        <v>508</v>
-      </c>
-      <c r="D269" t="s">
-        <v>548</v>
-      </c>
-      <c r="E269" t="s">
-        <v>215</v>
-      </c>
-      <c r="F269" t="s">
-        <v>509</v>
-      </c>
-      <c r="G269">
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A270">
-        <v>10</v>
-      </c>
-      <c r="B270" t="s">
-        <v>510</v>
-      </c>
-      <c r="C270" t="s">
-        <v>508</v>
-      </c>
-      <c r="D270" t="s">
-        <v>546</v>
-      </c>
-      <c r="E270" t="s">
-        <v>215</v>
-      </c>
-      <c r="F270" t="s">
-        <v>511</v>
-      </c>
-      <c r="G270">
-        <v>58000</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A271">
-        <v>11</v>
-      </c>
-      <c r="B271" t="s">
-        <v>512</v>
-      </c>
-      <c r="C271" t="s">
-        <v>508</v>
-      </c>
-      <c r="D271" t="s">
-        <v>545</v>
-      </c>
-      <c r="E271" t="s">
-        <v>215</v>
-      </c>
-      <c r="F271" t="s">
-        <v>513</v>
-      </c>
-      <c r="G271">
-        <v>77090</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A272">
-        <v>12</v>
-      </c>
-      <c r="B272" t="s">
-        <v>514</v>
-      </c>
-      <c r="C272" t="s">
-        <v>508</v>
-      </c>
-      <c r="D272" t="s">
-        <v>545</v>
-      </c>
-      <c r="E272" t="s">
-        <v>215</v>
-      </c>
-      <c r="F272" t="s">
-        <v>515</v>
-      </c>
-      <c r="G272">
-        <v>75500</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A273">
-        <v>13</v>
-      </c>
-      <c r="B273" t="s">
-        <v>516</v>
-      </c>
-      <c r="C273" t="s">
-        <v>508</v>
-      </c>
-      <c r="D273" t="s">
-        <v>547</v>
-      </c>
-      <c r="E273" t="s">
-        <v>215</v>
-      </c>
-      <c r="F273" t="s">
-        <v>517</v>
-      </c>
-      <c r="G273">
-        <v>73500</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A274">
-        <v>14</v>
-      </c>
-      <c r="B274" t="s">
-        <v>518</v>
-      </c>
-      <c r="C274" t="s">
-        <v>508</v>
-      </c>
-      <c r="D274" t="s">
-        <v>550</v>
-      </c>
-      <c r="E274" t="s">
-        <v>215</v>
-      </c>
-      <c r="F274" t="s">
-        <v>511</v>
-      </c>
-      <c r="G274">
-        <v>86500</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A275">
-        <v>15</v>
-      </c>
-      <c r="B275" t="s">
-        <v>519</v>
-      </c>
-      <c r="C275" t="s">
-        <v>520</v>
-      </c>
-      <c r="D275" t="s">
-        <v>545</v>
-      </c>
-      <c r="E275" t="s">
-        <v>214</v>
-      </c>
-      <c r="F275" t="s">
-        <v>521</v>
-      </c>
-      <c r="G275">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A276">
-        <v>16</v>
-      </c>
-      <c r="B276" t="s">
-        <v>522</v>
-      </c>
-      <c r="C276" t="s">
-        <v>520</v>
-      </c>
-      <c r="D276" t="s">
-        <v>545</v>
-      </c>
-      <c r="E276" t="s">
-        <v>214</v>
-      </c>
-      <c r="F276" t="s">
-        <v>523</v>
-      </c>
-      <c r="G276">
-        <v>133000</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A277">
-        <v>17</v>
-      </c>
-      <c r="B277" t="s">
-        <v>524</v>
-      </c>
-      <c r="C277" t="s">
-        <v>520</v>
-      </c>
-      <c r="D277" t="s">
-        <v>549</v>
-      </c>
-      <c r="E277" t="s">
-        <v>214</v>
-      </c>
-      <c r="F277" t="s">
-        <v>525</v>
-      </c>
-      <c r="G277">
-        <v>151000</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A278">
-        <v>18</v>
-      </c>
-      <c r="B278" t="s">
-        <v>526</v>
-      </c>
-      <c r="C278" t="s">
-        <v>520</v>
-      </c>
-      <c r="D278" t="s">
-        <v>551</v>
-      </c>
-      <c r="E278" t="s">
-        <v>214</v>
-      </c>
-      <c r="F278" t="s">
-        <v>521</v>
-      </c>
-      <c r="G278">
-        <v>172000</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A279">
-        <v>19</v>
-      </c>
-      <c r="B279" t="s">
-        <v>527</v>
-      </c>
-      <c r="C279" t="s">
-        <v>520</v>
-      </c>
-      <c r="D279" t="s">
-        <v>552</v>
-      </c>
-      <c r="E279" t="s">
-        <v>214</v>
-      </c>
-      <c r="F279" t="s">
-        <v>521</v>
-      </c>
-      <c r="G279">
-        <v>294040</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A280">
-        <v>20</v>
-      </c>
-      <c r="B280" t="s">
-        <v>528</v>
-      </c>
-      <c r="C280" t="s">
-        <v>520</v>
-      </c>
-      <c r="D280" t="s">
-        <v>552</v>
       </c>
       <c r="E280" t="s">
         <v>214</v>
       </c>
       <c r="F280" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="G280">
-        <v>469270</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
+        <v>72760</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="C281" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="D281" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E281" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F281" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="G281">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
+        <v>86860</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="C282" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="D282" t="s">
         <v>548</v>
       </c>
       <c r="E282" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F282" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="G282">
-        <v>32400</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="C283" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="D283" t="s">
         <v>546</v>
       </c>
       <c r="E283" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F283" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="G283">
-        <v>40340</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B284" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="C284" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="D284" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E284" t="s">
         <v>214</v>
       </c>
       <c r="F284" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="G284">
-        <v>52500</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
+        <v>78210</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B285" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="C285" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="D285" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E285" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F285" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="G285">
-        <v>63580</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
+        <v>124580</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="C286" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="D286" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E286" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F286" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="G286">
-        <v>73000</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B287" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="C287" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="D287" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E287" t="s">
         <v>215</v>
@@ -8342,84 +8634,475 @@
         <v>511</v>
       </c>
       <c r="G287">
-        <v>42500</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B288" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="C288" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="D288" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E288" t="s">
         <v>215</v>
       </c>
       <c r="F288" t="s">
+        <v>513</v>
+      </c>
+      <c r="G288">
+        <v>77090</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>12</v>
+      </c>
+      <c r="B289" t="s">
+        <v>514</v>
+      </c>
+      <c r="C289" t="s">
+        <v>508</v>
+      </c>
+      <c r="D289" t="s">
+        <v>545</v>
+      </c>
+      <c r="E289" t="s">
+        <v>215</v>
+      </c>
+      <c r="F289" t="s">
+        <v>515</v>
+      </c>
+      <c r="G289">
+        <v>75500</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>13</v>
+      </c>
+      <c r="B290" t="s">
+        <v>516</v>
+      </c>
+      <c r="C290" t="s">
+        <v>508</v>
+      </c>
+      <c r="D290" t="s">
+        <v>547</v>
+      </c>
+      <c r="E290" t="s">
+        <v>215</v>
+      </c>
+      <c r="F290" t="s">
+        <v>517</v>
+      </c>
+      <c r="G290">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>14</v>
+      </c>
+      <c r="B291" t="s">
+        <v>518</v>
+      </c>
+      <c r="C291" t="s">
+        <v>508</v>
+      </c>
+      <c r="D291" t="s">
+        <v>550</v>
+      </c>
+      <c r="E291" t="s">
+        <v>215</v>
+      </c>
+      <c r="F291" t="s">
+        <v>511</v>
+      </c>
+      <c r="G291">
+        <v>86500</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>15</v>
+      </c>
+      <c r="B292" t="s">
+        <v>519</v>
+      </c>
+      <c r="C292" t="s">
+        <v>520</v>
+      </c>
+      <c r="D292" t="s">
+        <v>545</v>
+      </c>
+      <c r="E292" t="s">
+        <v>214</v>
+      </c>
+      <c r="F292" t="s">
+        <v>521</v>
+      </c>
+      <c r="G292">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>16</v>
+      </c>
+      <c r="B293" t="s">
+        <v>522</v>
+      </c>
+      <c r="C293" t="s">
+        <v>520</v>
+      </c>
+      <c r="D293" t="s">
+        <v>545</v>
+      </c>
+      <c r="E293" t="s">
+        <v>214</v>
+      </c>
+      <c r="F293" t="s">
+        <v>523</v>
+      </c>
+      <c r="G293">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>17</v>
+      </c>
+      <c r="B294" t="s">
+        <v>524</v>
+      </c>
+      <c r="C294" t="s">
+        <v>520</v>
+      </c>
+      <c r="D294" t="s">
+        <v>549</v>
+      </c>
+      <c r="E294" t="s">
+        <v>214</v>
+      </c>
+      <c r="F294" t="s">
+        <v>525</v>
+      </c>
+      <c r="G294">
+        <v>151000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>18</v>
+      </c>
+      <c r="B295" t="s">
+        <v>526</v>
+      </c>
+      <c r="C295" t="s">
+        <v>520</v>
+      </c>
+      <c r="D295" t="s">
+        <v>551</v>
+      </c>
+      <c r="E295" t="s">
+        <v>214</v>
+      </c>
+      <c r="F295" t="s">
+        <v>521</v>
+      </c>
+      <c r="G295">
+        <v>172000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>19</v>
+      </c>
+      <c r="B296" t="s">
+        <v>527</v>
+      </c>
+      <c r="C296" t="s">
+        <v>520</v>
+      </c>
+      <c r="D296" t="s">
+        <v>552</v>
+      </c>
+      <c r="E296" t="s">
+        <v>214</v>
+      </c>
+      <c r="F296" t="s">
+        <v>521</v>
+      </c>
+      <c r="G296">
+        <v>294040</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>20</v>
+      </c>
+      <c r="B297" t="s">
+        <v>528</v>
+      </c>
+      <c r="C297" t="s">
+        <v>520</v>
+      </c>
+      <c r="D297" t="s">
+        <v>552</v>
+      </c>
+      <c r="E297" t="s">
+        <v>214</v>
+      </c>
+      <c r="F297" t="s">
+        <v>529</v>
+      </c>
+      <c r="G297">
+        <v>469270</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>21</v>
+      </c>
+      <c r="B298" t="s">
+        <v>530</v>
+      </c>
+      <c r="C298" t="s">
+        <v>520</v>
+      </c>
+      <c r="D298" t="s">
+        <v>544</v>
+      </c>
+      <c r="E298" t="s">
+        <v>215</v>
+      </c>
+      <c r="F298" t="s">
+        <v>531</v>
+      </c>
+      <c r="G298">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>22</v>
+      </c>
+      <c r="B299" t="s">
+        <v>532</v>
+      </c>
+      <c r="C299" t="s">
+        <v>533</v>
+      </c>
+      <c r="D299" t="s">
+        <v>548</v>
+      </c>
+      <c r="E299" t="s">
+        <v>215</v>
+      </c>
+      <c r="F299" t="s">
+        <v>534</v>
+      </c>
+      <c r="G299">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>23</v>
+      </c>
+      <c r="B300" t="s">
+        <v>535</v>
+      </c>
+      <c r="C300" t="s">
+        <v>533</v>
+      </c>
+      <c r="D300" t="s">
+        <v>546</v>
+      </c>
+      <c r="E300" t="s">
+        <v>215</v>
+      </c>
+      <c r="F300" t="s">
+        <v>536</v>
+      </c>
+      <c r="G300">
+        <v>40340</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>24</v>
+      </c>
+      <c r="B301" t="s">
+        <v>537</v>
+      </c>
+      <c r="C301" t="s">
+        <v>533</v>
+      </c>
+      <c r="D301" t="s">
+        <v>544</v>
+      </c>
+      <c r="E301" t="s">
+        <v>214</v>
+      </c>
+      <c r="F301" t="s">
+        <v>531</v>
+      </c>
+      <c r="G301">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>25</v>
+      </c>
+      <c r="B302" t="s">
+        <v>538</v>
+      </c>
+      <c r="C302" t="s">
+        <v>533</v>
+      </c>
+      <c r="D302" t="s">
+        <v>545</v>
+      </c>
+      <c r="E302" t="s">
+        <v>214</v>
+      </c>
+      <c r="F302" t="s">
+        <v>539</v>
+      </c>
+      <c r="G302">
+        <v>63580</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>26</v>
+      </c>
+      <c r="B303" t="s">
+        <v>540</v>
+      </c>
+      <c r="C303" t="s">
+        <v>533</v>
+      </c>
+      <c r="D303" t="s">
+        <v>549</v>
+      </c>
+      <c r="E303" t="s">
+        <v>214</v>
+      </c>
+      <c r="F303" t="s">
+        <v>531</v>
+      </c>
+      <c r="G303">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>27</v>
+      </c>
+      <c r="B304" t="s">
+        <v>541</v>
+      </c>
+      <c r="C304" t="s">
+        <v>533</v>
+      </c>
+      <c r="D304" t="s">
+        <v>548</v>
+      </c>
+      <c r="E304" t="s">
+        <v>215</v>
+      </c>
+      <c r="F304" t="s">
+        <v>511</v>
+      </c>
+      <c r="G304">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>28</v>
+      </c>
+      <c r="B305" t="s">
+        <v>542</v>
+      </c>
+      <c r="C305" t="s">
+        <v>533</v>
+      </c>
+      <c r="D305" t="s">
+        <v>546</v>
+      </c>
+      <c r="E305" t="s">
+        <v>215</v>
+      </c>
+      <c r="F305" t="s">
         <v>543</v>
       </c>
-      <c r="G288">
+      <c r="G305">
         <v>48000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A291" s="2" t="s">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A292" s="1" t="s">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B309" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B293" t="s">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B294" t="s">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B311" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A295" t="s">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>296</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B312" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A296" t="s">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>333</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B313" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A297" t="s">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>334</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B314" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A298" t="s">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>335</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B315" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8431,20 +9114,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>340</v>
       </c>
@@ -8452,7 +9135,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>356</v>
       </c>
@@ -8490,7 +9173,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8528,7 +9211,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8566,7 +9249,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8604,7 +9287,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8642,7 +9325,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8671,7 +9354,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>341</v>
       </c>
@@ -8679,7 +9362,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -8711,7 +9394,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -8740,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -8766,7 +9449,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8792,7 +9475,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -8812,7 +9495,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -8832,7 +9515,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8852,17 +9535,17 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>293</v>
       </c>
@@ -8876,7 +9559,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -8890,7 +9573,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -8904,7 +9587,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -8926,41 +9609,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>395</v>
       </c>
@@ -8968,7 +9651,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>397</v>
       </c>

--- a/WebContent/hsw/상품 데이터.xlsx
+++ b/WebContent/hsw/상품 데이터.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="804">
   <si>
     <t>컴퓨터 부품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2065,10 +2065,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>쿼드(4)코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2092,10 +2088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쿼드(4)코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AMD RYZEN 5 3500 (마티스)(멀티팩)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2104,10 +2096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>헥사(6)코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.5 ~ 3.99 GHz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2121,10 +2109,6 @@
   </si>
   <si>
     <t>AMD(라이젠 5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헥사(6)코어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2156,17 +2140,9 @@
     <t>인텔 코어i5-9세대 9400F (커피레이크-R)(정품)</t>
   </si>
   <si>
-    <t>헥사(6)코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인텔 코어i5-9세대 9600KF (커피레이크-R)(정품)</t>
   </si>
   <si>
-    <t>헥사(6)코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인텔 코어i7-9세대 9700F (커피레이크-R)(정품)</t>
   </si>
   <si>
@@ -2174,10 +2150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>옥타(8)코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인텔 코어i7-9세대 9700K (커피레이크-R) (정품)</t>
   </si>
   <si>
@@ -2185,10 +2157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>옥타(8)코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인텔 코어i9-9세대 9900K (커피레이크-R)(정품)</t>
   </si>
   <si>
@@ -2196,10 +2164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>옥타(8)코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인텔 코어X-시리즈 i9-10900X (캐스케이드레이크)(정품)</t>
   </si>
   <si>
@@ -2950,6 +2914,18 @@
   </si>
   <si>
     <t>DDR4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8코어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3342,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3564,13 +3540,13 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>555</v>
+        <v>801</v>
       </c>
       <c r="G11" t="s">
+        <v>556</v>
+      </c>
+      <c r="H11" t="s">
         <v>557</v>
-      </c>
-      <c r="H11" t="s">
-        <v>558</v>
       </c>
       <c r="I11" s="5">
         <v>121890</v>
@@ -3581,22 +3557,22 @@
         <v>257</v>
       </c>
       <c r="B12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>560</v>
       </c>
       <c r="D12">
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F12" t="s">
-        <v>562</v>
+        <v>801</v>
       </c>
       <c r="G12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
@@ -3610,7 +3586,7 @@
         <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>554</v>
@@ -3619,16 +3595,16 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F13" t="s">
-        <v>565</v>
+        <v>802</v>
       </c>
       <c r="G13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I13">
         <v>189350</v>
@@ -3639,7 +3615,7 @@
         <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>554</v>
@@ -3651,10 +3627,10 @@
         <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>565</v>
+        <v>802</v>
       </c>
       <c r="G14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
@@ -3668,7 +3644,7 @@
         <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>554</v>
@@ -3677,16 +3653,16 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F15" t="s">
-        <v>570</v>
+        <v>802</v>
       </c>
       <c r="G15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I15">
         <v>272830</v>
@@ -3697,22 +3673,22 @@
         <v>261</v>
       </c>
       <c r="B16" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D16">
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>803</v>
       </c>
       <c r="G16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
@@ -3726,22 +3702,22 @@
         <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D17">
         <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
@@ -3755,7 +3731,7 @@
         <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -3767,13 +3743,13 @@
         <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>562</v>
+        <v>801</v>
       </c>
       <c r="G18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H18" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I18">
         <v>99170</v>
@@ -3784,7 +3760,7 @@
         <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -3796,10 +3772,10 @@
         <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>579</v>
+        <v>802</v>
       </c>
       <c r="G19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
@@ -3813,7 +3789,7 @@
         <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -3825,10 +3801,10 @@
         <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>581</v>
+        <v>802</v>
       </c>
       <c r="G20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
@@ -3842,10 +3818,10 @@
         <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C21" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D21">
         <v>65</v>
@@ -3854,10 +3830,10 @@
         <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>584</v>
+        <v>803</v>
       </c>
       <c r="G21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H21" t="s">
         <v>22</v>
@@ -3871,10 +3847,10 @@
         <v>267</v>
       </c>
       <c r="B22" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C22" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D22">
         <v>95</v>
@@ -3883,13 +3859,13 @@
         <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>587</v>
+        <v>803</v>
       </c>
       <c r="G22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I22">
         <v>558660</v>
@@ -3900,7 +3876,7 @@
         <v>268</v>
       </c>
       <c r="B23" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -3909,13 +3885,13 @@
         <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F23" t="s">
-        <v>590</v>
+        <v>803</v>
       </c>
       <c r="G23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H23" t="s">
         <v>21</v>
@@ -3929,7 +3905,7 @@
         <v>269</v>
       </c>
       <c r="B24" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -3938,13 +3914,13 @@
         <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F24" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="G24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H24" t="s">
         <v>21</v>
@@ -4348,7 +4324,7 @@
         <v>276</v>
       </c>
       <c r="B69" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="C69" t="s">
         <v>54</v>
@@ -4374,13 +4350,13 @@
         <v>277</v>
       </c>
       <c r="B70" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="C70" t="s">
         <v>54</v>
       </c>
       <c r="D70" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E70" t="s">
         <v>101</v>
@@ -4389,7 +4365,7 @@
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="H70">
         <v>110000</v>
@@ -4400,13 +4376,13 @@
         <v>278</v>
       </c>
       <c r="B71" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="C71" t="s">
         <v>54</v>
       </c>
       <c r="D71" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E71" t="s">
         <v>101</v>
@@ -4426,13 +4402,13 @@
         <v>279</v>
       </c>
       <c r="B72" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="C72" t="s">
         <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E72" t="s">
         <v>101</v>
@@ -4452,13 +4428,13 @@
         <v>280</v>
       </c>
       <c r="B73" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C73" t="s">
         <v>54</v>
       </c>
       <c r="D73" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E73" t="s">
         <v>101</v>
@@ -4478,13 +4454,13 @@
         <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C74" t="s">
         <v>54</v>
       </c>
       <c r="D74" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E74" t="s">
         <v>101</v>
@@ -4501,13 +4477,13 @@
         <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C75" t="s">
         <v>54</v>
       </c>
       <c r="D75" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E75" t="s">
         <v>101</v>
@@ -4527,13 +4503,13 @@
         <v>283</v>
       </c>
       <c r="B76" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C76" t="s">
         <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E76" t="s">
         <v>101</v>
@@ -4553,13 +4529,13 @@
         <v>284</v>
       </c>
       <c r="B77" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C77" t="s">
         <v>55</v>
       </c>
       <c r="D77" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E77" t="s">
         <v>101</v>
@@ -4579,13 +4555,13 @@
         <v>285</v>
       </c>
       <c r="B78" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C78" t="s">
         <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E78" t="s">
         <v>101</v>
@@ -4605,13 +4581,13 @@
         <v>286</v>
       </c>
       <c r="B79" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="C79" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D79" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E79" t="s">
         <v>101</v>
@@ -4631,13 +4607,13 @@
         <v>287</v>
       </c>
       <c r="B80" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="C80" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D80" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="E80" t="s">
         <v>101</v>
@@ -4657,13 +4633,13 @@
         <v>288</v>
       </c>
       <c r="B81" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="C81" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D81" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E81" t="s">
         <v>101</v>
@@ -4683,13 +4659,13 @@
         <v>289</v>
       </c>
       <c r="B82" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="C82" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D82" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="E82" t="s">
         <v>101</v>
@@ -4709,13 +4685,13 @@
         <v>290</v>
       </c>
       <c r="B83" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="C83" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D83" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E83" t="s">
         <v>101</v>
@@ -4732,13 +4708,13 @@
         <v>291</v>
       </c>
       <c r="B84" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C84" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D84" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="E84" t="s">
         <v>101</v>
@@ -4758,13 +4734,13 @@
         <v>292</v>
       </c>
       <c r="B85" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="C85" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E85" t="s">
         <v>102</v>
@@ -4778,16 +4754,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B86" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C86" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E86" t="s">
         <v>101</v>
@@ -4804,16 +4780,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="B87" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C87" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E87" t="s">
         <v>101</v>
@@ -4827,16 +4803,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B88" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C88" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E88" t="s">
         <v>101</v>
@@ -4853,16 +4829,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B89" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="C89" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E89" t="s">
         <v>101</v>
@@ -4879,16 +4855,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="B90" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C90" t="s">
         <v>57</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E90" t="s">
         <v>101</v>
@@ -4905,16 +4881,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B91" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="C91" t="s">
         <v>57</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E91" t="s">
         <v>101</v>
@@ -4931,16 +4907,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="B92" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="C92" t="s">
         <v>57</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="E92" t="s">
         <v>101</v>
@@ -4954,16 +4930,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B93" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C93" t="s">
         <v>57</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="E93" t="s">
         <v>101</v>
@@ -4980,16 +4956,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="B94" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C94" t="s">
         <v>57</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="E94" t="s">
         <v>101</v>
@@ -5006,16 +4982,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="B95" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C95" t="s">
         <v>57</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="E95" t="s">
         <v>101</v>
@@ -5024,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="G95" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="H95">
         <v>363000</v>
@@ -5032,16 +5008,16 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B96" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="C96" t="s">
         <v>57</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="E96" t="s">
         <v>101</v>
@@ -5058,16 +5034,16 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="B97" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="C97" t="s">
         <v>56</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="E97" t="s">
         <v>101</v>
@@ -5081,16 +5057,16 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B98" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="C98" t="s">
         <v>56</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="E98" t="s">
         <v>101</v>
@@ -5107,16 +5083,16 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="B99" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="C99" t="s">
         <v>56</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="E99" t="s">
         <v>101</v>
@@ -5133,16 +5109,16 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B100" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C100" t="s">
         <v>56</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="E100" t="s">
         <v>101</v>
@@ -5156,16 +5132,16 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B101" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="C101" t="s">
         <v>56</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E101" t="s">
         <v>101</v>
@@ -5182,16 +5158,16 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="B102" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C102" t="s">
         <v>56</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="E102" t="s">
         <v>101</v>
@@ -5208,19 +5184,19 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B103" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C103" t="s">
         <v>56</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="E103" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F103">
         <v>4</v>
@@ -6164,10 +6140,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B153" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C153" t="s">
         <v>54</v>
@@ -6184,10 +6160,10 @@
         <v>297</v>
       </c>
       <c r="B154" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C154" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D154" t="s">
         <v>13</v>
@@ -6201,13 +6177,13 @@
         <v>298</v>
       </c>
       <c r="B155" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C155" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D155" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E155">
         <v>681000</v>
@@ -6218,13 +6194,13 @@
         <v>299</v>
       </c>
       <c r="B156" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C156" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D156" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="E156">
         <v>2093000</v>
@@ -6235,7 +6211,7 @@
         <v>300</v>
       </c>
       <c r="B157" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="C157" t="s">
         <v>136</v>
@@ -6252,10 +6228,10 @@
         <v>301</v>
       </c>
       <c r="B158" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C158" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D158" t="s">
         <v>139</v>
@@ -6269,7 +6245,7 @@
         <v>302</v>
       </c>
       <c r="B159" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C159" t="s">
         <v>57</v>
@@ -6286,13 +6262,13 @@
         <v>303</v>
       </c>
       <c r="B160" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C160" t="s">
         <v>57</v>
       </c>
       <c r="D160" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E160">
         <v>499440</v>
@@ -6303,13 +6279,13 @@
         <v>304</v>
       </c>
       <c r="B161" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C161" t="s">
         <v>57</v>
       </c>
       <c r="D161" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E161">
         <v>516200</v>
@@ -6320,13 +6296,13 @@
         <v>305</v>
       </c>
       <c r="B162" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C162" t="s">
         <v>57</v>
       </c>
       <c r="D162" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="E162">
         <v>408940</v>
@@ -6337,13 +6313,13 @@
         <v>306</v>
       </c>
       <c r="B163" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C163" t="s">
         <v>57</v>
       </c>
       <c r="D163" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="E163">
         <v>456980</v>
@@ -6354,13 +6330,13 @@
         <v>307</v>
       </c>
       <c r="B164" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C164" t="s">
         <v>56</v>
       </c>
       <c r="D164" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E164">
         <v>549000</v>
@@ -6371,10 +6347,10 @@
         <v>308</v>
       </c>
       <c r="B165" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C165" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D165" t="s">
         <v>13</v>
@@ -6388,10 +6364,10 @@
         <v>309</v>
       </c>
       <c r="B166" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C166" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D166" t="s">
         <v>13</v>
@@ -6405,10 +6381,10 @@
         <v>310</v>
       </c>
       <c r="B167" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C167" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D167" t="s">
         <v>13</v>
@@ -6419,10 +6395,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B168" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C168" t="s">
         <v>56</v>
@@ -6436,13 +6412,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B169" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C169" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D169" t="s">
         <v>139</v>
@@ -6453,16 +6429,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B170" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C170" t="s">
         <v>56</v>
       </c>
       <c r="D170" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="E170">
         <v>1809000</v>
@@ -6470,10 +6446,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B171" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C171" t="s">
         <v>56</v>
@@ -6487,10 +6463,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B172" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="C172" t="s">
         <v>56</v>
@@ -6504,16 +6480,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B173" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C173" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D173" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E173">
         <v>616760</v>
@@ -6521,16 +6497,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B174" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C174" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D174" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E174">
         <v>639660</v>
@@ -6538,13 +6514,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B175" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="C175" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D175" t="s">
         <v>139</v>
@@ -6555,16 +6531,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B176" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C176" t="s">
         <v>132</v>
       </c>
       <c r="D176" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="E176">
         <v>460340</v>
@@ -6572,16 +6548,16 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B177" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C177" t="s">
         <v>132</v>
       </c>
       <c r="D177" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="E177">
         <v>397770</v>
@@ -6589,16 +6565,16 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B178" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="C178" t="s">
         <v>132</v>
       </c>
       <c r="D178" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="E178">
         <v>396000</v>
@@ -6606,13 +6582,13 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B179" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="C179" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D179" t="s">
         <v>139</v>
@@ -6623,10 +6599,10 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B180" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C180" t="s">
         <v>132</v>
@@ -6640,10 +6616,10 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B181" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C181" t="s">
         <v>132</v>
@@ -6657,13 +6633,13 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>630</v>
+      </c>
+      <c r="B182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C182" t="s">
         <v>639</v>
-      </c>
-      <c r="B182" t="s">
-        <v>640</v>
-      </c>
-      <c r="C182" t="s">
-        <v>648</v>
       </c>
       <c r="D182" t="s">
         <v>139</v>
@@ -7437,7 +7413,7 @@
         <v>317</v>
       </c>
       <c r="B226" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C226" t="s">
         <v>149</v>
@@ -7457,7 +7433,7 @@
         <v>318</v>
       </c>
       <c r="B227" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C227" t="s">
         <v>149</v>
@@ -7474,10 +7450,10 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B228" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C228" t="s">
         <v>149</v>
@@ -7494,13 +7470,13 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B229" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="C229" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D229">
         <v>4</v>
@@ -7514,10 +7490,10 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B230" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="C230" t="s">
         <v>149</v>
@@ -7537,10 +7513,10 @@
         <v>319</v>
       </c>
       <c r="B231" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="C231" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D231">
         <v>4</v>
@@ -7557,10 +7533,10 @@
         <v>320</v>
       </c>
       <c r="B232" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="C232" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D232">
         <v>8</v>
@@ -7574,13 +7550,13 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B233" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C233" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -7594,13 +7570,13 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B234" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C234" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="D234">
         <v>2</v>
@@ -7614,13 +7590,13 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B235" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="C235" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="D235">
         <v>3</v>
@@ -7634,13 +7610,13 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="B236" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="C236" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="D236">
         <v>3</v>
@@ -7654,10 +7630,10 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B237" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="C237" t="s">
         <v>166</v>
@@ -7674,13 +7650,13 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B238" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C238" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="D238">
         <v>4</v>
@@ -7694,10 +7670,10 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B239" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="C239" t="s">
         <v>166</v>
@@ -7714,10 +7690,10 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B240" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="C240" t="s">
         <v>148</v>
@@ -7734,10 +7710,10 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B241" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C241" t="s">
         <v>148</v>
@@ -7754,13 +7730,13 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B242" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C242" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D242">
         <v>12</v>
@@ -7774,13 +7750,13 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B243" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C243" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -7794,10 +7770,10 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B244" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="C244" t="s">
         <v>148</v>
@@ -7814,13 +7790,13 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B245" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C245" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D245">
         <v>4</v>
@@ -7834,13 +7810,13 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B246" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="C246" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D246">
         <v>4</v>
@@ -7957,16 +7933,16 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B254" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="C254" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="D254" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E254">
         <v>3</v>
@@ -7977,13 +7953,13 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B255" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="C255" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="D255" t="s">
         <v>191</v>
@@ -7997,13 +7973,13 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B256" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="C256" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="D256" t="s">
         <v>191</v>
@@ -8017,16 +7993,16 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B257" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C257" t="s">
+        <v>684</v>
+      </c>
+      <c r="D257" t="s">
         <v>693</v>
-      </c>
-      <c r="D257" t="s">
-        <v>702</v>
       </c>
       <c r="E257">
         <v>3</v>
@@ -8040,10 +8016,10 @@
         <v>327</v>
       </c>
       <c r="B258" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="C258" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="D258" t="s">
         <v>191</v>
@@ -8057,16 +8033,16 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B259" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="C259" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D259" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E259">
         <v>7</v>
@@ -8080,13 +8056,13 @@
         <v>328</v>
       </c>
       <c r="B260" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="C260" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D260" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E260">
         <v>2</v>
@@ -8100,10 +8076,10 @@
         <v>329</v>
       </c>
       <c r="B261" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C261" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D261" t="s">
         <v>191</v>
@@ -8117,16 +8093,16 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B262" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C262" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D262" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E262">
         <v>4</v>
@@ -8140,10 +8116,10 @@
         <v>330</v>
       </c>
       <c r="B263" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="C263" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D263" t="s">
         <v>191</v>
@@ -8160,10 +8136,10 @@
         <v>331</v>
       </c>
       <c r="B264" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="C264" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D264" t="s">
         <v>191</v>
@@ -8177,16 +8153,16 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B265" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="C265" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D265" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E265">
         <v>4</v>
@@ -8197,16 +8173,16 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B266" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="C266" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D266" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E266">
         <v>4</v>
@@ -8217,16 +8193,16 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B267" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="C267" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D267" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E267">
         <v>2</v>
@@ -8237,10 +8213,10 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B268" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C268" t="s">
         <v>137</v>
@@ -8257,10 +8233,10 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B269" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="C269" t="s">
         <v>137</v>
